--- a/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{A4D7EE59-B96E-488D-BD93-8CD70DB96DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9B32B5F-2143-4921-A214-9D1F0C9F050C}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{A4D7EE59-B96E-488D-BD93-8CD70DB96DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{282FBCA3-4CA5-4424-8BE1-29CCDC407551}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Valkyrie Final Stage" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Final Stage'!$A$9:$N$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Final Stage'!$A$9:$N$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,6 +41,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Roy Berntsen</author>
   </authors>
   <commentList>
     <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
@@ -100,6 +101,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="P17" authorId="1" shapeId="0" xr:uid="{C70D8D62-2B9A-4E89-996E-958F07B9AF87}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Roy Berntsen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+High end replacement for 16x L 2028 - Then 8x 2040 precision bracket</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
@@ -148,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="P84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="P85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="P86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="P87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="P88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="P92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -242,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="P93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="P94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -268,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="P97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -281,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="P98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="P99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -307,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -320,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="P101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -333,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="P102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -346,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="P103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P104" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="P105" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="305">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -1319,6 +1344,18 @@
   <si>
     <t>1x Color: 8x3-3mm-20pcs</t>
   </si>
+  <si>
+    <t>8x 2040-8 hole</t>
+  </si>
+  <si>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>LIS3DSH Accelerometer</t>
+  </si>
+  <si>
+    <t>1x LIS3DSH Accelerometer</t>
+  </si>
 </sst>
 </file>
 
@@ -1331,7 +1368,7 @@
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1457,6 +1494,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1476,27 +1526,7 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
@@ -1637,11 +1667,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1650,44 +1706,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1698,17 +1751,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1716,21 +1765,18 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1738,27 +1784,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1767,10 +1800,25 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1791,14 +1839,18 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1956,6 +2008,24 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="medium">
           <color indexed="64"/>
@@ -1980,16 +2050,6 @@
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2048,25 +2108,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C2F1F9-F1B5-4B02-A7DE-98E7F6A020F8}" name="Table1" displayName="Table1" ref="A9:P109" totalsRowShown="0" headerRowDxfId="18" dataDxfId="0" headerRowBorderDxfId="17" tableBorderDxfId="19">
-  <autoFilter ref="A9:P109" xr:uid="{33C2F1F9-F1B5-4B02-A7DE-98E7F6A020F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C2F1F9-F1B5-4B02-A7DE-98E7F6A020F8}" name="Table1" displayName="Table1" ref="A9:P110" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="A9:P110" xr:uid="{33C2F1F9-F1B5-4B02-A7DE-98E7F6A020F8}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{2CE12C12-1042-47C1-804E-F7CC2F7431AD}" name="System" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{4C188292-CF61-4106-A9E5-A977D1CCD57D}" name="Category" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{9FEAF07F-6BC2-4529-9862-EA8087CCCD41}" name="Part Type" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{AC3BC65B-677C-4381-B61F-F928FD9402EF}" name="Description" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{2D90FA06-832C-4150-9188-E06DD0AFE693}" name="Cut Length mm" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{C4F0E072-23E1-4FB2-971B-F5521E0D876A}" name="Total mm" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{02F66E7A-0866-4DB7-8645-4FDBAE12B341}" name="BOM Quantity" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{A0AE3C34-FE7A-4DE4-B739-8ED16EAA28A6}" name="Pack Price $" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{411A830C-2DB3-4FBF-AAAA-3C65381F312D}" name="Pack Order Quantity" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{632E797A-D65F-4EDC-AD47-9E94D0ED9E3C}" name="Line Price $" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{33C4163A-6400-4A79-B6E9-136058FCFF1E}" name="Order Parts Link" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{63AE0315-6524-41D2-81E6-28493EEB92D9}" name="Supplier" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{CD6DF1EC-F9F0-419F-B498-B1B39E3E3F56}" name="DIN" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{2E280D7E-A654-4C6B-A793-F62621D0D829}" name="ISO" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{9F0713BA-6007-4747-931B-355E5A4A1D7E}" name="Option" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{03B97959-F3DF-44BA-B62B-2F325379122F}" name="Note" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2CE12C12-1042-47C1-804E-F7CC2F7431AD}" name="System" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4C188292-CF61-4106-A9E5-A977D1CCD57D}" name="Category" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{9FEAF07F-6BC2-4529-9862-EA8087CCCD41}" name="Part Type" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{AC3BC65B-677C-4381-B61F-F928FD9402EF}" name="Description" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{2D90FA06-832C-4150-9188-E06DD0AFE693}" name="Cut Length mm" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{C4F0E072-23E1-4FB2-971B-F5521E0D876A}" name="Total mm" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{02F66E7A-0866-4DB7-8645-4FDBAE12B341}" name="BOM Quantity" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{A0AE3C34-FE7A-4DE4-B739-8ED16EAA28A6}" name="Pack Price $" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{411A830C-2DB3-4FBF-AAAA-3C65381F312D}" name="Pack Order Quantity" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{632E797A-D65F-4EDC-AD47-9E94D0ED9E3C}" name="Line Price $" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{33C4163A-6400-4A79-B6E9-136058FCFF1E}" name="Order Parts Link" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{63AE0315-6524-41D2-81E6-28493EEB92D9}" name="Supplier" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{CD6DF1EC-F9F0-419F-B498-B1B39E3E3F56}" name="DIN" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{2E280D7E-A654-4C6B-A793-F62621D0D829}" name="ISO" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{9F0713BA-6007-4747-931B-355E5A4A1D7E}" name="Option" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{03B97959-F3DF-44BA-B62B-2F325379122F}" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2273,7 +2333,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z110"/>
+  <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -2302,24 +2362,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
@@ -2348,90 +2408,90 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="16" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:26" s="15" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11">
-        <f>SUM(J19:J109)</f>
-        <v>1848.4199999999998</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10">
+        <f>SUM(J19:J110)</f>
+        <v>1850.4199999999998</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
     </row>
     <row r="9" spans="1:26" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="28" t="s">
+      <c r="P9" s="27" t="s">
         <v>22</v>
       </c>
       <c r="Q9" s="3"/>
@@ -2446,4092 +2506,4131 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <v>339</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <f t="shared" ref="F10:F14" si="0">G10*E10</f>
         <v>339</v>
       </c>
-      <c r="G10" s="33">
-        <v>1</v>
-      </c>
-      <c r="H10" s="34">
+      <c r="G10" s="32">
+        <v>1</v>
+      </c>
+      <c r="H10" s="33">
         <v>7.26</v>
       </c>
-      <c r="I10" s="33">
-        <v>1</v>
-      </c>
-      <c r="J10" s="34">
+      <c r="I10" s="32">
+        <v>1</v>
+      </c>
+      <c r="J10" s="33">
         <v>8</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="40"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="37"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <f>E12</f>
         <v>420</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="32">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="G11" s="33">
-        <v>1</v>
-      </c>
-      <c r="H11" s="34">
+      <c r="G11" s="32">
+        <v>1</v>
+      </c>
+      <c r="H11" s="33">
         <v>9.5</v>
       </c>
-      <c r="I11" s="33">
-        <v>1</v>
-      </c>
-      <c r="J11" s="34">
-        <f t="shared" ref="J11:J62" si="1">I11*H11</f>
+      <c r="I11" s="32">
+        <v>1</v>
+      </c>
+      <c r="J11" s="33">
+        <f t="shared" ref="J11:J63" si="1">I11*H11</f>
         <v>9.5</v>
       </c>
-      <c r="K11" s="41" t="s">
+      <c r="K11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="37"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>420</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <f t="shared" si="0"/>
         <v>1680</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <v>4</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="33">
         <v>10.54</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="32">
         <v>4</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="33">
         <f t="shared" si="1"/>
         <v>42.16</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="40"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="37"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>480</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <f t="shared" si="0"/>
         <v>1920</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <v>4</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="33">
         <v>11.121</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="32">
         <v>4</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="33">
         <f t="shared" si="1"/>
         <v>44.484000000000002</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="40"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="37"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <v>750</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="32">
         <v>4</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="33">
         <v>14.7</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="32">
         <v>4</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="33">
         <f t="shared" si="1"/>
         <v>58.8</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="37"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="40"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="37"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="43">
+      <c r="E15" s="29"/>
+      <c r="F15" s="40">
         <f>F12+F13+F14</f>
         <v>6600</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="34">
+      <c r="G15" s="41"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="37"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="43">
+      <c r="E16" s="29"/>
+      <c r="F16" s="40">
         <f>SUM(F10:F11)</f>
         <v>759</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="34">
+      <c r="G16" s="29"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="40"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="37"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33">
+      <c r="E17" s="29"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32">
         <v>26</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="33">
         <v>5.8</v>
       </c>
-      <c r="I17" s="33">
-        <v>3</v>
-      </c>
-      <c r="J17" s="34">
+      <c r="I17" s="32">
+        <v>5</v>
+      </c>
+      <c r="J17" s="33">
         <f t="shared" si="1"/>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="K17" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="40"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="P17" s="37"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33">
+      <c r="E18" s="29"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32">
         <v>8</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="33">
         <v>6.4</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="32">
         <v>8</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="33">
         <f t="shared" si="1"/>
         <v>51.2</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="40"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="37"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="49">
-        <v>1</v>
-      </c>
-      <c r="H19" s="50">
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="46">
+        <v>1</v>
+      </c>
+      <c r="H19" s="47">
         <v>210</v>
       </c>
-      <c r="I19" s="49">
-        <v>1</v>
-      </c>
-      <c r="J19" s="50">
+      <c r="I19" s="46">
+        <v>1</v>
+      </c>
+      <c r="J19" s="47">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="K19" s="51" t="s">
+      <c r="K19" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="52" t="s">
+      <c r="L19" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="53"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="40"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="37"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickTop="1">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <v>410</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="32">
         <v>500</v>
       </c>
-      <c r="G20" s="33">
-        <v>1</v>
-      </c>
-      <c r="H20" s="34">
+      <c r="G20" s="32">
+        <v>1</v>
+      </c>
+      <c r="H20" s="33">
         <v>20</v>
       </c>
-      <c r="I20" s="33">
-        <v>1</v>
-      </c>
-      <c r="J20" s="34">
+      <c r="I20" s="32">
+        <v>1</v>
+      </c>
+      <c r="J20" s="33">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K20" s="35" t="s">
+      <c r="K20" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="40"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <v>350</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33">
+      <c r="F21" s="32"/>
+      <c r="G21" s="32">
         <v>1225</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="33">
         <v>0.08</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="32">
         <v>1225</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="33">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="K21" s="41" t="s">
+      <c r="K21" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="36" t="s">
+      <c r="L21" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="M21" s="37"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="40"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="37"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="29">
         <v>310</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33">
-        <v>1</v>
-      </c>
-      <c r="H22" s="34">
+      <c r="F22" s="32"/>
+      <c r="G22" s="32">
+        <v>1</v>
+      </c>
+      <c r="H22" s="33">
         <v>40</v>
       </c>
-      <c r="I22" s="33">
-        <v>1</v>
-      </c>
-      <c r="J22" s="34">
+      <c r="I22" s="32">
+        <v>1</v>
+      </c>
+      <c r="J22" s="33">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K22" s="35" t="s">
+      <c r="K22" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="L22" s="36" t="s">
+      <c r="L22" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="M22" s="37"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="40"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="37"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="29">
         <v>25</v>
       </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33">
+      <c r="F23" s="32"/>
+      <c r="G23" s="32">
         <v>5</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="33">
         <v>1.2</v>
       </c>
-      <c r="I23" s="33">
-        <v>1</v>
-      </c>
-      <c r="J23" s="34">
+      <c r="I23" s="32">
+        <v>1</v>
+      </c>
+      <c r="J23" s="33">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="L23" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="40"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="37"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="29">
         <v>40</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33">
+      <c r="F24" s="32"/>
+      <c r="G24" s="32">
         <v>12</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="33">
         <v>3</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="32">
         <v>3</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="33">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="L24" s="36" t="s">
+      <c r="L24" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="40"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="37"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="29">
         <v>50</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33">
+      <c r="F25" s="32"/>
+      <c r="G25" s="32">
         <v>6</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="33">
         <v>3</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="32">
         <v>2</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="33">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K25" s="41" t="s">
+      <c r="K25" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="36" t="s">
+      <c r="L25" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="40"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="37"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33">
+      <c r="E26" s="29"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32">
         <v>3</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="33">
         <v>3</v>
       </c>
-      <c r="I26" s="33">
-        <v>1</v>
-      </c>
-      <c r="J26" s="34">
+      <c r="I26" s="32">
+        <v>1</v>
+      </c>
+      <c r="J26" s="33">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K26" s="35" t="s">
+      <c r="K26" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="36" t="s">
+      <c r="L26" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="40"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="37"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="29">
         <v>30</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32">
         <v>3</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="33">
         <v>2.5</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="32">
         <v>2</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="33">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="36" t="s">
+      <c r="L27" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="40"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="37"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="30">
+      <c r="E28" s="29"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="29">
         <v>6</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="33">
         <v>7.5</v>
       </c>
-      <c r="I28" s="33">
-        <v>1</v>
-      </c>
-      <c r="J28" s="34">
+      <c r="I28" s="32">
+        <v>1</v>
+      </c>
+      <c r="J28" s="33">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="K28" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="37"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="30">
+      <c r="E29" s="29"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="29">
         <v>21</v>
       </c>
-      <c r="H29" s="34">
-        <v>1</v>
-      </c>
-      <c r="I29" s="56">
-        <v>1</v>
-      </c>
-      <c r="J29" s="34">
+      <c r="H29" s="33">
+        <v>1</v>
+      </c>
+      <c r="I29" s="52">
+        <v>1</v>
+      </c>
+      <c r="J29" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K29" s="41" t="s">
+      <c r="K29" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M29" s="57">
+      <c r="M29" s="53">
         <v>934</v>
       </c>
-      <c r="N29" s="58">
+      <c r="N29" s="53">
         <v>4032</v>
       </c>
-      <c r="O29" s="39"/>
-      <c r="P29" s="40"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="37"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="30">
+      <c r="E30" s="29"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="29">
         <v>34</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="33">
         <v>3</v>
       </c>
-      <c r="I30" s="56">
-        <v>1</v>
-      </c>
-      <c r="J30" s="34">
+      <c r="I30" s="52">
+        <v>1</v>
+      </c>
+      <c r="J30" s="33">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K30" s="41" t="s">
+      <c r="K30" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="L30" s="36" t="s">
+      <c r="L30" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="37"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="30">
+      <c r="E31" s="29"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="29">
         <v>24</v>
       </c>
-      <c r="H31" s="34">
-        <v>1</v>
-      </c>
-      <c r="I31" s="56">
-        <v>1</v>
-      </c>
-      <c r="J31" s="34">
+      <c r="H31" s="33">
+        <v>1</v>
+      </c>
+      <c r="I31" s="52">
+        <v>1</v>
+      </c>
+      <c r="J31" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K31" s="41" t="s">
+      <c r="K31" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="L31" s="36" t="s">
+      <c r="L31" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M31" s="57"/>
-      <c r="N31" s="58">
+      <c r="M31" s="53"/>
+      <c r="N31" s="53">
         <v>7380</v>
       </c>
-      <c r="O31" s="39"/>
-      <c r="P31" s="40"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="37"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="30">
+      <c r="E32" s="29"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="29">
         <v>34</v>
       </c>
-      <c r="H32" s="34">
-        <v>1</v>
-      </c>
-      <c r="I32" s="56">
-        <v>1</v>
-      </c>
-      <c r="J32" s="34">
+      <c r="H32" s="33">
+        <v>1</v>
+      </c>
+      <c r="I32" s="52">
+        <v>1</v>
+      </c>
+      <c r="J32" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K32" s="35" t="s">
+      <c r="K32" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="36">
         <v>912</v>
       </c>
-      <c r="N32" s="38"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="37"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="30">
+      <c r="E33" s="29"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="29">
         <v>33</v>
       </c>
-      <c r="H33" s="34">
-        <v>1</v>
-      </c>
-      <c r="I33" s="56">
-        <v>1</v>
-      </c>
-      <c r="J33" s="34">
+      <c r="H33" s="33">
+        <v>1</v>
+      </c>
+      <c r="I33" s="52">
+        <v>1</v>
+      </c>
+      <c r="J33" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K33" s="41" t="s">
+      <c r="K33" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="L33" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="57"/>
-      <c r="N33" s="58">
+      <c r="M33" s="53"/>
+      <c r="N33" s="53">
         <v>7380</v>
       </c>
-      <c r="O33" s="39"/>
-      <c r="P33" s="40"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="37"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="30">
+      <c r="E34" s="29"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="29">
         <v>8</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="33">
         <v>2</v>
       </c>
-      <c r="I34" s="56">
-        <v>1</v>
-      </c>
-      <c r="J34" s="34">
+      <c r="I34" s="52">
+        <v>1</v>
+      </c>
+      <c r="J34" s="33">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K34" s="35" t="s">
+      <c r="K34" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="L34" s="36" t="s">
+      <c r="L34" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M34" s="37"/>
-      <c r="N34" s="38">
+      <c r="M34" s="36"/>
+      <c r="N34" s="36">
         <v>7380</v>
       </c>
-      <c r="O34" s="39"/>
-      <c r="P34" s="40"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="37"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="30">
+      <c r="E35" s="29"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="29">
         <v>3</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="33">
         <v>4</v>
       </c>
-      <c r="I35" s="56">
+      <c r="I35" s="52">
         <v>3</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="33">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K35" s="41" t="s">
+      <c r="K35" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="L35" s="36" t="s">
+      <c r="L35" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="M35" s="57"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="40"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="37"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="30">
+      <c r="E36" s="29"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="29">
         <v>6</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36" s="33">
         <v>1.5</v>
       </c>
-      <c r="I36" s="56">
-        <v>1</v>
-      </c>
-      <c r="J36" s="34">
+      <c r="I36" s="52">
+        <v>1</v>
+      </c>
+      <c r="J36" s="33">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="K36" s="41" t="s">
+      <c r="K36" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="L36" s="36" t="s">
+      <c r="L36" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M36" s="37">
+      <c r="M36" s="36">
         <v>934</v>
       </c>
-      <c r="N36" s="38">
+      <c r="N36" s="36">
         <v>4032</v>
       </c>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="37"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="30">
+      <c r="E37" s="29"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="29">
         <v>3</v>
       </c>
-      <c r="H37" s="34">
+      <c r="H37" s="33">
         <v>1.5</v>
       </c>
-      <c r="I37" s="56">
-        <v>1</v>
-      </c>
-      <c r="J37" s="34">
+      <c r="I37" s="52">
+        <v>1</v>
+      </c>
+      <c r="J37" s="33">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="K37" s="41" t="s">
+      <c r="K37" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="L37" s="36" t="s">
+      <c r="L37" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M37" s="57">
+      <c r="M37" s="53">
         <v>985</v>
       </c>
-      <c r="N37" s="58">
+      <c r="N37" s="53">
         <v>10511</v>
       </c>
-      <c r="O37" s="39"/>
-      <c r="P37" s="40"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="37"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="30">
+      <c r="E38" s="29"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="29">
         <v>3</v>
       </c>
-      <c r="H38" s="34">
-        <v>1</v>
-      </c>
-      <c r="I38" s="56">
-        <v>1</v>
-      </c>
-      <c r="J38" s="34">
+      <c r="H38" s="33">
+        <v>1</v>
+      </c>
+      <c r="I38" s="52">
+        <v>1</v>
+      </c>
+      <c r="J38" s="33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K38" s="35" t="s">
+      <c r="K38" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="L38" s="36" t="s">
+      <c r="L38" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M38" s="37">
+      <c r="M38" s="36">
         <v>125</v>
       </c>
-      <c r="N38" s="38">
+      <c r="N38" s="36">
         <v>7089</v>
       </c>
-      <c r="O38" s="39"/>
-      <c r="P38" s="40"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="37"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="30">
+      <c r="E39" s="29"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="29">
         <v>3</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39" s="33">
         <v>2</v>
       </c>
-      <c r="I39" s="56">
-        <v>1</v>
-      </c>
-      <c r="J39" s="34">
+      <c r="I39" s="52">
+        <v>1</v>
+      </c>
+      <c r="J39" s="33">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K39" s="41" t="s">
+      <c r="K39" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="L39" s="36" t="s">
+      <c r="L39" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M39" s="57"/>
-      <c r="N39" s="58">
+      <c r="M39" s="53"/>
+      <c r="N39" s="53">
         <v>7991</v>
       </c>
-      <c r="O39" s="39"/>
-      <c r="P39" s="40"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="37"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="30">
+      <c r="E40" s="29"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="29">
         <v>3</v>
       </c>
-      <c r="H40" s="34">
+      <c r="H40" s="33">
         <v>2</v>
       </c>
-      <c r="I40" s="56">
-        <v>1</v>
-      </c>
-      <c r="J40" s="34">
+      <c r="I40" s="52">
+        <v>1</v>
+      </c>
+      <c r="J40" s="33">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K40" s="35" t="s">
+      <c r="K40" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="L40" s="36" t="s">
+      <c r="L40" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M40" s="37"/>
-      <c r="N40" s="38">
+      <c r="M40" s="36"/>
+      <c r="N40" s="36">
         <v>7991</v>
       </c>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="37"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="30">
+      <c r="E41" s="29"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="29">
         <v>4</v>
       </c>
-      <c r="H41" s="34">
+      <c r="H41" s="33">
         <v>2</v>
       </c>
-      <c r="I41" s="56">
-        <v>1</v>
-      </c>
-      <c r="J41" s="34">
+      <c r="I41" s="52">
+        <v>1</v>
+      </c>
+      <c r="J41" s="33">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K41" s="41" t="s">
+      <c r="K41" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="L41" s="36" t="s">
+      <c r="L41" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M41" s="57">
+      <c r="M41" s="53">
         <v>934</v>
       </c>
-      <c r="N41" s="58">
+      <c r="N41" s="53">
         <v>4032</v>
       </c>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="37"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="30">
+      <c r="E42" s="29"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="29">
         <v>30</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="33">
         <v>11</v>
       </c>
-      <c r="I42" s="56">
-        <v>1</v>
-      </c>
-      <c r="J42" s="34">
+      <c r="I42" s="52">
+        <v>1</v>
+      </c>
+      <c r="J42" s="33">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K42" s="41" t="s">
+      <c r="K42" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="L42" s="36" t="s">
+      <c r="L42" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M42" s="37"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="37"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="30">
+      <c r="E43" s="29"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="29">
         <v>5</v>
       </c>
-      <c r="H43" s="34">
+      <c r="H43" s="33">
         <v>2.81</v>
       </c>
-      <c r="I43" s="56">
-        <v>1</v>
-      </c>
-      <c r="J43" s="34">
+      <c r="I43" s="52">
+        <v>1</v>
+      </c>
+      <c r="J43" s="33">
         <f t="shared" si="1"/>
         <v>2.81</v>
       </c>
-      <c r="K43" s="41" t="s">
+      <c r="K43" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="L43" s="36" t="s">
+      <c r="L43" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M43" s="57">
+      <c r="M43" s="53">
         <v>985</v>
       </c>
-      <c r="N43" s="58">
+      <c r="N43" s="53">
         <v>10511</v>
       </c>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="37"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="30">
+      <c r="E44" s="29"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="29">
         <v>84</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44" s="33">
         <v>12.5</v>
       </c>
-      <c r="I44" s="56">
-        <v>1</v>
-      </c>
-      <c r="J44" s="34">
+      <c r="I44" s="52">
+        <v>1</v>
+      </c>
+      <c r="J44" s="33">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="K44" s="35" t="s">
+      <c r="K44" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="L44" s="36" t="s">
+      <c r="L44" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M44" s="37"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="37"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="30">
+      <c r="E45" s="29"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="29">
         <v>89</v>
       </c>
-      <c r="H45" s="34">
+      <c r="H45" s="33">
         <v>1.28</v>
       </c>
-      <c r="I45" s="56">
+      <c r="I45" s="52">
         <v>2</v>
       </c>
-      <c r="J45" s="34">
+      <c r="J45" s="33">
         <f t="shared" si="1"/>
         <v>2.56</v>
       </c>
-      <c r="K45" s="41" t="s">
+      <c r="K45" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="L45" s="36" t="s">
+      <c r="L45" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M45" s="57">
+      <c r="M45" s="53">
         <v>125</v>
       </c>
-      <c r="N45" s="58">
+      <c r="N45" s="53">
         <v>7089</v>
       </c>
-      <c r="O45" s="39"/>
-      <c r="P45" s="40"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="37"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="30">
+      <c r="E46" s="29"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="29">
         <v>111</v>
       </c>
-      <c r="H46" s="34">
+      <c r="H46" s="33">
         <v>2.69</v>
       </c>
-      <c r="I46" s="56">
+      <c r="I46" s="52">
         <v>12</v>
       </c>
-      <c r="J46" s="34">
+      <c r="J46" s="33">
         <f t="shared" si="1"/>
         <v>32.28</v>
       </c>
-      <c r="K46" s="35" t="s">
+      <c r="K46" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="L46" s="36" t="s">
+      <c r="L46" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M46" s="37"/>
-      <c r="N46" s="38">
+      <c r="M46" s="36"/>
+      <c r="N46" s="36">
         <v>7380</v>
       </c>
-      <c r="O46" s="39"/>
-      <c r="P46" s="40"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="37"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="30">
+      <c r="E47" s="29"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="29">
         <v>7</v>
       </c>
-      <c r="H47" s="34">
+      <c r="H47" s="33">
         <v>8</v>
       </c>
-      <c r="I47" s="59">
-        <v>1</v>
-      </c>
-      <c r="J47" s="34">
+      <c r="I47" s="54">
+        <v>1</v>
+      </c>
+      <c r="J47" s="33">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K47" s="41" t="s">
+      <c r="K47" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="L47" s="36" t="s">
+      <c r="L47" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M47" s="57"/>
-      <c r="N47" s="58">
+      <c r="M47" s="53"/>
+      <c r="N47" s="53">
         <v>7380</v>
       </c>
-      <c r="O47" s="39"/>
-      <c r="P47" s="40"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="37"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="30"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="30">
+      <c r="E48" s="29"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="29">
         <v>5</v>
       </c>
-      <c r="H48" s="34">
+      <c r="H48" s="33">
         <v>2.57</v>
       </c>
-      <c r="I48" s="59">
-        <v>1</v>
-      </c>
-      <c r="J48" s="34">
+      <c r="I48" s="54">
+        <v>1</v>
+      </c>
+      <c r="J48" s="33">
         <f t="shared" si="1"/>
         <v>2.57</v>
       </c>
-      <c r="K48" s="41" t="s">
+      <c r="K48" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="L48" s="36" t="s">
+      <c r="L48" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M48" s="37">
+      <c r="M48" s="36">
         <v>933</v>
       </c>
-      <c r="N48" s="38">
+      <c r="N48" s="36">
         <v>4017</v>
       </c>
-      <c r="O48" s="39"/>
-      <c r="P48" s="40"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="37"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="60" t="s">
+      <c r="A49" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="56">
+      <c r="E49" s="29"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="52">
         <v>33</v>
       </c>
-      <c r="H49" s="34">
+      <c r="H49" s="33">
         <v>16</v>
       </c>
-      <c r="I49" s="56">
-        <v>1</v>
-      </c>
-      <c r="J49" s="34">
+      <c r="I49" s="52">
+        <v>1</v>
+      </c>
+      <c r="J49" s="33">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K49" s="41" t="s">
+      <c r="K49" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="L49" s="36" t="s">
+      <c r="L49" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="M49" s="57"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="40"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="37"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="56">
-        <v>1</v>
-      </c>
-      <c r="H50" s="34">
+      <c r="E50" s="29"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="52">
+        <v>1</v>
+      </c>
+      <c r="H50" s="33">
         <v>12</v>
       </c>
-      <c r="I50" s="56">
-        <v>1</v>
-      </c>
-      <c r="J50" s="34">
+      <c r="I50" s="52">
+        <v>1</v>
+      </c>
+      <c r="J50" s="33">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K50" s="35" t="s">
+      <c r="K50" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="L50" s="36" t="s">
+      <c r="L50" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="M50" s="37"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="40"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="37"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="56">
-        <v>1</v>
-      </c>
-      <c r="H51" s="34">
+      <c r="E51" s="29"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="52">
+        <v>1</v>
+      </c>
+      <c r="H51" s="33">
         <v>70</v>
       </c>
-      <c r="I51" s="56">
+      <c r="I51" s="52">
         <v>0</v>
       </c>
-      <c r="J51" s="34">
+      <c r="J51" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K51" s="41" t="s">
+      <c r="K51" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="L51" s="36" t="s">
+      <c r="L51" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="M51" s="57"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="40"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="37"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="56">
-        <v>1</v>
-      </c>
-      <c r="H52" s="34">
+      <c r="E52" s="29"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="52">
+        <v>1</v>
+      </c>
+      <c r="H52" s="33">
         <v>71</v>
       </c>
-      <c r="I52" s="56">
-        <v>1</v>
-      </c>
-      <c r="J52" s="34">
+      <c r="I52" s="52">
+        <v>1</v>
+      </c>
+      <c r="J52" s="33">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="K52" s="35" t="s">
+      <c r="K52" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="L52" s="36" t="s">
+      <c r="L52" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="M52" s="37"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="40"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="37"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="56">
-        <v>1</v>
-      </c>
-      <c r="H53" s="34">
+      <c r="E53" s="29"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="52">
+        <v>1</v>
+      </c>
+      <c r="H53" s="33">
         <v>23</v>
       </c>
-      <c r="I53" s="56">
-        <v>1</v>
-      </c>
-      <c r="J53" s="34">
+      <c r="I53" s="52">
+        <v>1</v>
+      </c>
+      <c r="J53" s="33">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="K53" s="41" t="s">
+      <c r="K53" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="L53" s="36" t="s">
+      <c r="L53" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="M53" s="57"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="40"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="67"/>
+      <c r="P53" s="37"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="E54" s="30"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="56">
-        <v>1</v>
-      </c>
-      <c r="H54" s="34">
+      <c r="E54" s="29"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="52">
+        <v>1</v>
+      </c>
+      <c r="H54" s="33">
         <v>7.5</v>
       </c>
-      <c r="I54" s="56">
-        <v>1</v>
-      </c>
-      <c r="J54" s="34">
+      <c r="I54" s="52">
+        <v>1</v>
+      </c>
+      <c r="J54" s="33">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="K54" s="41" t="s">
+      <c r="K54" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="L54" s="36" t="s">
+      <c r="L54" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="M54" s="37"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="40"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="37"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="29">
         <v>310</v>
       </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="56">
-        <v>1</v>
-      </c>
-      <c r="H55" s="34">
+      <c r="F55" s="32"/>
+      <c r="G55" s="52">
+        <v>1</v>
+      </c>
+      <c r="H55" s="33">
         <v>28</v>
       </c>
-      <c r="I55" s="56">
-        <v>1</v>
-      </c>
-      <c r="J55" s="34">
+      <c r="I55" s="52">
+        <v>1</v>
+      </c>
+      <c r="J55" s="33">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="K55" s="41" t="s">
+      <c r="K55" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="L55" s="36" t="s">
+      <c r="L55" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="M55" s="57"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="62" t="s">
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="67"/>
+      <c r="P55" s="57" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="E56" s="30"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="56">
+      <c r="E56" s="29"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="52">
         <v>3</v>
       </c>
-      <c r="H56" s="34">
+      <c r="H56" s="33">
         <v>18</v>
       </c>
-      <c r="I56" s="56">
+      <c r="I56" s="52">
         <v>3</v>
       </c>
-      <c r="J56" s="34">
+      <c r="J56" s="33">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="K56" s="35" t="s">
+      <c r="K56" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="L56" s="36" t="s">
+      <c r="L56" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="M56" s="37"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="63" t="s">
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="P56" s="62"/>
+      <c r="P56" s="57"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="56">
-        <v>1</v>
-      </c>
-      <c r="H57" s="34">
+      <c r="E57" s="29"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="52">
+        <v>1</v>
+      </c>
+      <c r="H57" s="33">
         <v>20</v>
       </c>
-      <c r="I57" s="56">
-        <v>1</v>
-      </c>
-      <c r="J57" s="34">
+      <c r="I57" s="52">
+        <v>1</v>
+      </c>
+      <c r="J57" s="33">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K57" s="41" t="s">
+      <c r="K57" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="L57" s="36" t="s">
+      <c r="L57" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="M57" s="57"/>
-      <c r="N57" s="58"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="40"/>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="29" t="s">
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="67"/>
+      <c r="P57" s="37"/>
+    </row>
+    <row r="58" spans="1:16" s="4" customFormat="1">
+      <c r="A58" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="E58" s="29"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="52">
+        <v>1</v>
+      </c>
+      <c r="H58" s="33">
+        <v>2</v>
+      </c>
+      <c r="I58" s="52">
+        <v>1</v>
+      </c>
+      <c r="J58" s="33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K58" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L58" s="35"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="37"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B59" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C59" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D59" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="56">
-        <v>1</v>
-      </c>
-      <c r="H58" s="34">
+      <c r="E59" s="29"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="52">
+        <v>1</v>
+      </c>
+      <c r="H59" s="33">
         <v>3</v>
       </c>
-      <c r="I58" s="56">
-        <v>1</v>
-      </c>
-      <c r="J58" s="34">
+      <c r="I59" s="52">
+        <v>1</v>
+      </c>
+      <c r="J59" s="33">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K58" s="35" t="s">
+      <c r="K59" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="L58" s="36" t="s">
+      <c r="L59" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="M58" s="37"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="40"/>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="29" t="s">
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="37"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B60" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C60" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D60" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="56">
-        <v>1</v>
-      </c>
-      <c r="H59" s="34">
+      <c r="E60" s="29"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="52">
+        <v>1</v>
+      </c>
+      <c r="H60" s="33">
         <v>85</v>
       </c>
-      <c r="I59" s="56">
-        <v>1</v>
-      </c>
-      <c r="J59" s="34">
+      <c r="I60" s="52">
+        <v>1</v>
+      </c>
+      <c r="J60" s="33">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="K59" s="41" t="s">
+      <c r="K60" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="L59" s="36" t="s">
+      <c r="L60" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="M59" s="57"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="40"/>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="29" t="s">
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="37"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B61" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C61" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="D60" s="55" t="s">
+      <c r="D61" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="56">
-        <v>1</v>
-      </c>
-      <c r="H60" s="34">
+      <c r="E61" s="29"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="52">
+        <v>1</v>
+      </c>
+      <c r="H61" s="33">
         <v>72.709999999999994</v>
       </c>
-      <c r="I60" s="56">
+      <c r="I61" s="52">
         <v>0</v>
       </c>
-      <c r="J60" s="34">
+      <c r="J61" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K60" s="41" t="s">
+      <c r="K61" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="L60" s="36" t="s">
+      <c r="L61" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="M60" s="37"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="40"/>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="29" t="s">
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="37"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B62" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C62" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="55" t="s">
+      <c r="D62" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="56">
-        <v>1</v>
-      </c>
-      <c r="H61" s="34">
+      <c r="E62" s="29"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="52">
+        <v>1</v>
+      </c>
+      <c r="H62" s="33">
         <v>65</v>
       </c>
-      <c r="I61" s="56">
+      <c r="I62" s="52">
         <v>0</v>
       </c>
-      <c r="J61" s="34">
+      <c r="J62" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K61" s="41" t="s">
+      <c r="K62" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="L61" s="36" t="s">
+      <c r="L62" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="M61" s="57"/>
-      <c r="N61" s="58"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="40"/>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="29" t="s">
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="67"/>
+      <c r="P62" s="37"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B63" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="55" t="s">
+      <c r="C63" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="D62" s="55" t="s">
+      <c r="D63" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="E62" s="30"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="56">
-        <v>1</v>
-      </c>
-      <c r="H62" s="34">
+      <c r="E63" s="29"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="52">
+        <v>1</v>
+      </c>
+      <c r="H63" s="33">
         <v>100</v>
       </c>
-      <c r="I62" s="56">
+      <c r="I63" s="52">
         <v>0</v>
       </c>
-      <c r="J62" s="34">
+      <c r="J63" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K62" s="35" t="s">
+      <c r="K63" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="L62" s="36" t="s">
+      <c r="L63" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="M62" s="37"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="40"/>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" s="29" t="s">
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="37"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B64" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C64" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="D63" s="55" t="s">
+      <c r="D64" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="56">
-        <v>1</v>
-      </c>
-      <c r="H63" s="34">
+      <c r="E64" s="29"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="52">
+        <v>1</v>
+      </c>
+      <c r="H64" s="33">
         <v>70</v>
       </c>
-      <c r="I63" s="56">
-        <v>1</v>
-      </c>
-      <c r="J63" s="34">
-        <f t="shared" ref="J63:J103" si="2">I63*H63</f>
+      <c r="I64" s="52">
+        <v>1</v>
+      </c>
+      <c r="J64" s="33">
+        <f t="shared" ref="J64:J104" si="2">I64*H64</f>
         <v>70</v>
       </c>
-      <c r="K63" s="41" t="s">
+      <c r="K64" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="L63" s="36" t="s">
+      <c r="L64" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="M63" s="57"/>
-      <c r="N63" s="58"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="40"/>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="29" t="s">
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="67"/>
+      <c r="P64" s="37"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B65" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C65" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="D64" s="55" t="s">
+      <c r="D65" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="E64" s="30">
+      <c r="E65" s="29">
         <v>1000</v>
       </c>
-      <c r="F64" s="33">
+      <c r="F65" s="32">
         <v>8000</v>
       </c>
-      <c r="G64" s="56">
+      <c r="G65" s="52">
         <v>8</v>
       </c>
-      <c r="H64" s="34">
+      <c r="H65" s="33">
         <v>39</v>
       </c>
-      <c r="I64" s="56">
-        <v>1</v>
-      </c>
-      <c r="J64" s="34">
+      <c r="I65" s="52">
+        <v>1</v>
+      </c>
+      <c r="J65" s="33">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="K64" s="35" t="s">
+      <c r="K65" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="L64" s="36" t="s">
+      <c r="L65" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="M64" s="37"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="40"/>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65" s="29" t="s">
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="67"/>
+      <c r="P65" s="37"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B66" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C66" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="D65" s="55" t="s">
+      <c r="D66" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="56">
+      <c r="E66" s="29"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="52">
         <v>10</v>
       </c>
-      <c r="H65" s="34">
+      <c r="H66" s="33">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I65" s="56">
+      <c r="I66" s="52">
         <v>10</v>
       </c>
-      <c r="J65" s="34">
+      <c r="J66" s="33">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="K65" s="41" t="s">
+      <c r="K66" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="L65" s="36" t="s">
+      <c r="L66" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="M65" s="57"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="40"/>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="A66" s="29" t="s">
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="67"/>
+      <c r="P66" s="37"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B66" s="55" t="s">
+      <c r="B67" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="55" t="s">
+      <c r="C67" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="D66" s="55" t="s">
+      <c r="D67" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="E66" s="30"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="56">
+      <c r="E67" s="29"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="52">
         <v>5</v>
       </c>
-      <c r="H66" s="34">
+      <c r="H67" s="33">
         <v>6</v>
       </c>
-      <c r="I66" s="56">
+      <c r="I67" s="52">
         <v>5</v>
       </c>
-      <c r="J66" s="34">
+      <c r="J67" s="33">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K66" s="41" t="s">
+      <c r="K67" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="L66" s="36" t="s">
+      <c r="L67" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="M66" s="37"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="39"/>
-      <c r="P66" s="40"/>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="29" t="s">
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="67"/>
+      <c r="P67" s="37"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="55" t="s">
+      <c r="B68" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C67" s="55" t="s">
+      <c r="C68" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="D67" s="55" t="s">
+      <c r="D68" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="56">
+      <c r="E68" s="29"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="52">
         <v>5</v>
       </c>
-      <c r="H67" s="34">
+      <c r="H68" s="33">
         <v>4</v>
       </c>
-      <c r="I67" s="56">
+      <c r="I68" s="52">
         <v>5</v>
       </c>
-      <c r="J67" s="34">
+      <c r="J68" s="33">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K67" s="41" t="s">
+      <c r="K68" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="L67" s="36" t="s">
+      <c r="L68" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="M67" s="57"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="40"/>
-    </row>
-    <row r="68" spans="1:16">
-      <c r="A68" s="29" t="s">
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="67"/>
+      <c r="P68" s="37"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B69" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C69" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="55" t="s">
+      <c r="D69" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="E68" s="30">
+      <c r="E69" s="29">
         <v>200</v>
       </c>
-      <c r="F68" s="33">
+      <c r="F69" s="32">
         <v>600</v>
       </c>
-      <c r="G68" s="56">
+      <c r="G69" s="52">
         <v>3</v>
       </c>
-      <c r="H68" s="34">
+      <c r="H69" s="33">
         <v>16</v>
       </c>
-      <c r="I68" s="56">
+      <c r="I69" s="52">
         <v>3</v>
       </c>
-      <c r="J68" s="34">
+      <c r="J69" s="33">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="K68" s="35" t="s">
+      <c r="K69" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="L68" s="36" t="s">
+      <c r="L69" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="M68" s="37"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="40"/>
-    </row>
-    <row r="69" spans="1:16">
-      <c r="A69" s="29" t="s">
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="67"/>
+      <c r="P69" s="37"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B70" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C70" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D70" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="56">
+      <c r="E70" s="29"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="52">
         <v>5</v>
       </c>
-      <c r="H69" s="34">
+      <c r="H70" s="33">
         <v>14.5</v>
       </c>
-      <c r="I69" s="56">
+      <c r="I70" s="52">
         <v>5</v>
       </c>
-      <c r="J69" s="34">
+      <c r="J70" s="33">
         <f t="shared" si="2"/>
         <v>72.5</v>
       </c>
-      <c r="K69" s="41" t="s">
+      <c r="K70" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="L69" s="36" t="s">
+      <c r="L70" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="M69" s="57"/>
-      <c r="N69" s="58"/>
-      <c r="O69" s="64"/>
-      <c r="P69" s="40"/>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" s="29" t="s">
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="70"/>
+      <c r="P70" s="37"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B71" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C71" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="D70" s="55" t="s">
+      <c r="D71" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="E70" s="30">
+      <c r="E71" s="29">
         <v>350</v>
       </c>
-      <c r="F70" s="33"/>
-      <c r="G70" s="56">
+      <c r="F71" s="32"/>
+      <c r="G71" s="52">
         <v>3</v>
       </c>
-      <c r="H70" s="34">
+      <c r="H71" s="33">
         <v>15.6</v>
       </c>
-      <c r="I70" s="56">
+      <c r="I71" s="52">
         <v>3</v>
       </c>
-      <c r="J70" s="34">
+      <c r="J71" s="33">
         <f t="shared" si="2"/>
         <v>46.8</v>
       </c>
-      <c r="K70" s="35" t="s">
+      <c r="K71" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="L70" s="36" t="s">
+      <c r="L71" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="M70" s="37"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="64"/>
-      <c r="P70" s="40"/>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" s="29" t="s">
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="70"/>
+      <c r="P71" s="37"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B72" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C72" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="D71" s="55" t="s">
+      <c r="D72" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="E71" s="30">
+      <c r="E72" s="29">
         <v>400</v>
       </c>
-      <c r="F71" s="33"/>
-      <c r="G71" s="56">
+      <c r="F72" s="32"/>
+      <c r="G72" s="52">
         <v>2</v>
       </c>
-      <c r="H71" s="34">
+      <c r="H72" s="33">
         <v>17.5</v>
       </c>
-      <c r="I71" s="56">
+      <c r="I72" s="52">
         <v>2</v>
       </c>
-      <c r="J71" s="34">
+      <c r="J72" s="33">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="K71" s="41" t="s">
+      <c r="K72" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="L71" s="36" t="s">
+      <c r="L72" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="M71" s="57"/>
-      <c r="N71" s="58"/>
-      <c r="O71" s="64"/>
-      <c r="P71" s="40"/>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="A72" s="29" t="s">
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="70"/>
+      <c r="P72" s="37"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B73" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C73" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="D72" s="55" t="s">
+      <c r="D73" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="E72" s="30">
+      <c r="E73" s="29">
         <v>400</v>
       </c>
-      <c r="F72" s="33"/>
-      <c r="G72" s="56">
-        <v>1</v>
-      </c>
-      <c r="H72" s="34">
+      <c r="F73" s="32"/>
+      <c r="G73" s="52">
+        <v>1</v>
+      </c>
+      <c r="H73" s="33">
         <v>16</v>
       </c>
-      <c r="I72" s="56">
-        <v>1</v>
-      </c>
-      <c r="J72" s="34">
+      <c r="I73" s="52">
+        <v>1</v>
+      </c>
+      <c r="J73" s="33">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="K72" s="41" t="s">
+      <c r="K73" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="L72" s="36" t="s">
+      <c r="L73" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="M72" s="37"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="64"/>
-      <c r="P72" s="40"/>
-    </row>
-    <row r="73" spans="1:16">
-      <c r="A73" s="29" t="s">
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="70"/>
+      <c r="P73" s="37"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B74" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C73" s="55" t="s">
+      <c r="C74" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="D73" s="55" t="s">
+      <c r="D74" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="E73" s="30"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="56">
-        <v>1</v>
-      </c>
-      <c r="H73" s="34">
+      <c r="E74" s="29"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="52">
+        <v>1</v>
+      </c>
+      <c r="H74" s="33">
         <v>50</v>
       </c>
-      <c r="I73" s="56">
-        <v>1</v>
-      </c>
-      <c r="J73" s="34">
+      <c r="I74" s="52">
+        <v>1</v>
+      </c>
+      <c r="J74" s="33">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K73" s="41" t="s">
+      <c r="K74" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L73" s="36" t="s">
+      <c r="L74" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M73" s="57"/>
-      <c r="N73" s="58"/>
-      <c r="O73" s="64"/>
-      <c r="P73" s="40"/>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="A74" s="29" t="s">
+      <c r="M74" s="53"/>
+      <c r="N74" s="53"/>
+      <c r="O74" s="70"/>
+      <c r="P74" s="37"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B75" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C74" s="55" t="s">
+      <c r="C75" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="D74" s="55" t="s">
+      <c r="D75" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="E74" s="30"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="56">
+      <c r="E75" s="29"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="52">
         <v>2</v>
       </c>
-      <c r="H74" s="34">
+      <c r="H75" s="33">
         <v>20</v>
       </c>
-      <c r="I74" s="56">
+      <c r="I75" s="52">
         <v>2</v>
       </c>
-      <c r="J74" s="34">
+      <c r="J75" s="33">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K74" s="35" t="s">
+      <c r="K75" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="L74" s="36" t="s">
+      <c r="L75" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M74" s="37"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="64"/>
-      <c r="P74" s="40"/>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="A75" s="29" t="s">
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="70"/>
+      <c r="P75" s="37"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B76" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C75" s="55" t="s">
+      <c r="C76" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="D75" s="55" t="s">
+      <c r="D76" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="30"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="56">
-        <v>1</v>
-      </c>
-      <c r="H75" s="34">
+      <c r="E76" s="29"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="52">
+        <v>1</v>
+      </c>
+      <c r="H76" s="33">
         <v>70</v>
       </c>
-      <c r="I75" s="56">
-        <v>1</v>
-      </c>
-      <c r="J75" s="34">
+      <c r="I76" s="52">
+        <v>1</v>
+      </c>
+      <c r="J76" s="33">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K75" s="41" t="s">
+      <c r="K76" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L75" s="36" t="s">
+      <c r="L76" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M75" s="57"/>
-      <c r="N75" s="58"/>
-      <c r="O75" s="64"/>
-      <c r="P75" s="40"/>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="A76" s="29" t="s">
+      <c r="M76" s="53"/>
+      <c r="N76" s="53"/>
+      <c r="O76" s="70"/>
+      <c r="P76" s="37"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B77" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C77" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="D76" s="55" t="s">
+      <c r="D77" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="E76" s="30"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="56">
-        <v>1</v>
-      </c>
-      <c r="H76" s="34">
+      <c r="E77" s="29"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="52">
+        <v>1</v>
+      </c>
+      <c r="H77" s="33">
         <v>20</v>
       </c>
-      <c r="I76" s="56">
-        <v>1</v>
-      </c>
-      <c r="J76" s="34">
+      <c r="I77" s="52">
+        <v>1</v>
+      </c>
+      <c r="J77" s="33">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K76" s="35" t="s">
+      <c r="K77" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="L76" s="36" t="s">
+      <c r="L77" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M76" s="37"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="64"/>
-      <c r="P76" s="40"/>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="A77" s="29" t="s">
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="70"/>
+      <c r="P77" s="37"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B77" s="55" t="s">
+      <c r="B78" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C78" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="D77" s="55" t="s">
+      <c r="D78" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="E77" s="30"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="56">
-        <v>1</v>
-      </c>
-      <c r="H77" s="34">
+      <c r="E78" s="29"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="52">
+        <v>1</v>
+      </c>
+      <c r="H78" s="33">
         <v>20</v>
       </c>
-      <c r="I77" s="56">
-        <v>1</v>
-      </c>
-      <c r="J77" s="34">
+      <c r="I78" s="52">
+        <v>1</v>
+      </c>
+      <c r="J78" s="33">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K77" s="41" t="s">
+      <c r="K78" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L77" s="36" t="s">
+      <c r="L78" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M77" s="57"/>
-      <c r="N77" s="58"/>
-      <c r="O77" s="64"/>
-      <c r="P77" s="40"/>
-    </row>
-    <row r="78" spans="1:16">
-      <c r="A78" s="29" t="s">
+      <c r="M78" s="53"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="70"/>
+      <c r="P78" s="37"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="B78" s="55" t="s">
+      <c r="B79" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C79" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="D78" s="55" t="s">
+      <c r="D79" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="E78" s="30"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="56">
+      <c r="E79" s="29"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="52">
         <v>5</v>
       </c>
-      <c r="H78" s="34">
+      <c r="H79" s="33">
         <v>25</v>
       </c>
-      <c r="I78" s="56">
+      <c r="I79" s="52">
         <v>5</v>
       </c>
-      <c r="J78" s="34">
+      <c r="J79" s="33">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="K78" s="41" t="s">
+      <c r="K79" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L78" s="36" t="s">
+      <c r="L79" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M78" s="37"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="64"/>
-      <c r="P78" s="40"/>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="A79" s="29" t="s">
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="70"/>
+      <c r="P79" s="37"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="B79" s="55" t="s">
+      <c r="B80" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="C79" s="55" t="s">
+      <c r="C80" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D79" s="61" t="s">
+      <c r="D80" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="E79" s="30"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="56">
+      <c r="E80" s="29"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="52">
         <v>5</v>
       </c>
-      <c r="H79" s="34">
+      <c r="H80" s="33">
         <v>25</v>
       </c>
-      <c r="I79" s="56">
+      <c r="I80" s="52">
         <v>5</v>
       </c>
-      <c r="J79" s="34">
+      <c r="J80" s="33">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="K79" s="41" t="s">
+      <c r="K80" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="L79" s="36" t="s">
+      <c r="L80" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M79" s="57"/>
-      <c r="N79" s="58"/>
-      <c r="O79" s="64"/>
-      <c r="P79" s="40"/>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="A80" s="29" t="s">
+      <c r="M80" s="53"/>
+      <c r="N80" s="53"/>
+      <c r="O80" s="70"/>
+      <c r="P80" s="37"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="B80" s="55" t="s">
+      <c r="B81" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="C80" s="61" t="s">
+      <c r="C81" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="D80" s="61" t="s">
+      <c r="D81" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="E80" s="30"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="56">
-        <v>1</v>
-      </c>
-      <c r="H80" s="34">
+      <c r="E81" s="29"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="52">
+        <v>1</v>
+      </c>
+      <c r="H81" s="33">
         <v>25</v>
       </c>
-      <c r="I80" s="56">
-        <v>1</v>
-      </c>
-      <c r="J80" s="34">
+      <c r="I81" s="52">
+        <v>1</v>
+      </c>
+      <c r="J81" s="33">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K80" s="35" t="s">
+      <c r="K81" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="L80" s="36" t="s">
+      <c r="L81" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M80" s="37"/>
-      <c r="N80" s="38"/>
-      <c r="O80" s="64"/>
-      <c r="P80" s="40"/>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="A81" s="29" t="s">
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="70"/>
+      <c r="P81" s="37"/>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="55" t="s">
+      <c r="B82" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="C81" s="55" t="s">
+      <c r="C82" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="D81" s="55" t="s">
+      <c r="D82" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E82" s="29">
         <v>350</v>
       </c>
-      <c r="F81" s="33"/>
-      <c r="G81" s="56">
-        <v>1</v>
-      </c>
-      <c r="H81" s="34">
+      <c r="F82" s="32"/>
+      <c r="G82" s="52">
+        <v>1</v>
+      </c>
+      <c r="H82" s="33">
         <v>10</v>
       </c>
-      <c r="I81" s="56">
-        <v>1</v>
-      </c>
-      <c r="J81" s="34">
+      <c r="I82" s="52">
+        <v>1</v>
+      </c>
+      <c r="J82" s="33">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K81" s="41" t="s">
+      <c r="K82" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="L81" s="36" t="s">
+      <c r="L82" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="M81" s="57"/>
-      <c r="N81" s="58"/>
-      <c r="O81" s="65"/>
-      <c r="P81" s="40"/>
-    </row>
-    <row r="82" spans="1:16">
-      <c r="A82" s="29" t="s">
+      <c r="M82" s="53"/>
+      <c r="N82" s="53"/>
+      <c r="O82" s="71"/>
+      <c r="P82" s="37"/>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B82" s="55" t="s">
+      <c r="B83" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C82" s="55" t="s">
+      <c r="C83" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="55" t="s">
+      <c r="D83" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="E82" s="30">
+      <c r="E83" s="29">
         <v>350</v>
       </c>
-      <c r="F82" s="33"/>
-      <c r="G82" s="56">
+      <c r="F83" s="32"/>
+      <c r="G83" s="52">
         <v>2</v>
       </c>
-      <c r="H82" s="34">
+      <c r="H83" s="33">
         <v>22</v>
       </c>
-      <c r="I82" s="56">
-        <v>1</v>
-      </c>
-      <c r="J82" s="34">
+      <c r="I83" s="52">
+        <v>1</v>
+      </c>
+      <c r="J83" s="33">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="K82" s="35" t="s">
+      <c r="K83" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="L82" s="36" t="s">
+      <c r="L83" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="M82" s="37"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="64"/>
-      <c r="P82" s="66"/>
-    </row>
-    <row r="83" spans="1:16">
-      <c r="A83" s="29" t="s">
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="70"/>
+      <c r="P83" s="58"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B83" s="55" t="s">
+      <c r="B84" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="55" t="s">
+      <c r="C84" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D83" s="55" t="s">
+      <c r="D84" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="E83" s="30"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="56">
+      <c r="E84" s="29"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="52">
         <v>5</v>
       </c>
-      <c r="H83" s="34">
+      <c r="H84" s="33">
         <f>2.28</f>
         <v>2.2799999999999998</v>
       </c>
-      <c r="I83" s="56">
-        <v>1</v>
-      </c>
-      <c r="J83" s="34">
+      <c r="I84" s="52">
+        <v>1</v>
+      </c>
+      <c r="J84" s="33">
         <f t="shared" si="2"/>
         <v>2.2799999999999998</v>
       </c>
-      <c r="K83" s="41" t="s">
+      <c r="K84" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="L83" s="36" t="s">
+      <c r="L84" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M83" s="57">
+      <c r="M84" s="53">
         <v>7991</v>
       </c>
-      <c r="N83" s="58"/>
-      <c r="O83" s="64"/>
-      <c r="P83" s="62" t="s">
+      <c r="N84" s="53"/>
+      <c r="O84" s="70"/>
+      <c r="P84" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
-      <c r="A84" s="29" t="s">
+    <row r="85" spans="1:16">
+      <c r="A85" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B84" s="55" t="s">
+      <c r="B85" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="55" t="s">
+      <c r="C85" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D84" s="55" t="s">
+      <c r="D85" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="E84" s="30"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="56">
+      <c r="E85" s="29"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="52">
         <v>3</v>
       </c>
-      <c r="H84" s="34">
+      <c r="H85" s="33">
         <f>4.51</f>
         <v>4.51</v>
       </c>
-      <c r="I84" s="56">
-        <v>1</v>
-      </c>
-      <c r="J84" s="34">
+      <c r="I85" s="52">
+        <v>1</v>
+      </c>
+      <c r="J85" s="33">
         <f t="shared" si="2"/>
         <v>4.51</v>
       </c>
-      <c r="K84" s="41" t="s">
+      <c r="K85" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="L84" s="36" t="s">
+      <c r="L85" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M84" s="37"/>
-      <c r="N84" s="38">
+      <c r="M85" s="36"/>
+      <c r="N85" s="36">
         <v>7380</v>
       </c>
-      <c r="O84" s="67"/>
-      <c r="P84" s="62" t="s">
+      <c r="O85" s="72"/>
+      <c r="P85" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
-      <c r="A85" s="29" t="s">
+    <row r="86" spans="1:16">
+      <c r="A86" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B85" s="55" t="s">
+      <c r="B86" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="55" t="s">
+      <c r="C86" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D85" s="55" t="s">
+      <c r="D86" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="E85" s="30"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="56">
+      <c r="E86" s="29"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="52">
         <v>11</v>
       </c>
-      <c r="H85" s="34">
+      <c r="H86" s="33">
         <f>0.49</f>
         <v>0.49</v>
       </c>
-      <c r="I85" s="56">
-        <v>1</v>
-      </c>
-      <c r="J85" s="34">
+      <c r="I86" s="52">
+        <v>1</v>
+      </c>
+      <c r="J86" s="33">
         <f t="shared" si="2"/>
         <v>0.49</v>
       </c>
-      <c r="K85" s="41" t="s">
+      <c r="K86" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="L85" s="36" t="s">
+      <c r="L86" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M85" s="57"/>
-      <c r="N85" s="58">
+      <c r="M86" s="53"/>
+      <c r="N86" s="53">
         <v>10511</v>
       </c>
-      <c r="O85" s="67"/>
-      <c r="P85" s="62" t="s">
+      <c r="O86" s="72"/>
+      <c r="P86" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
-      <c r="A86" s="29" t="s">
+    <row r="87" spans="1:16">
+      <c r="A87" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B87" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="55" t="s">
+      <c r="C87" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D86" s="55" t="s">
+      <c r="D87" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="E86" s="30"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="56">
+      <c r="E87" s="29"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="52">
         <v>3</v>
       </c>
-      <c r="H86" s="34">
+      <c r="H87" s="33">
         <f>0.99</f>
         <v>0.99</v>
       </c>
-      <c r="I86" s="56">
-        <v>1</v>
-      </c>
-      <c r="J86" s="34">
+      <c r="I87" s="52">
+        <v>1</v>
+      </c>
+      <c r="J87" s="33">
         <f t="shared" si="2"/>
         <v>0.99</v>
       </c>
-      <c r="K86" s="35" t="s">
+      <c r="K87" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="L86" s="36" t="s">
+      <c r="L87" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M86" s="37"/>
-      <c r="N86" s="38">
+      <c r="M87" s="36"/>
+      <c r="N87" s="36">
         <v>7380</v>
       </c>
-      <c r="O86" s="64"/>
-      <c r="P86" s="62" t="s">
+      <c r="O87" s="70"/>
+      <c r="P87" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
-      <c r="A87" s="29" t="s">
+    <row r="88" spans="1:16">
+      <c r="A88" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B88" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C87" s="55" t="s">
+      <c r="C88" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="55" t="s">
+      <c r="D88" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E87" s="30"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="56">
+      <c r="E88" s="29"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="52">
         <v>3</v>
       </c>
-      <c r="H87" s="34">
+      <c r="H88" s="33">
         <f>5.01</f>
         <v>5.01</v>
       </c>
-      <c r="I87" s="56">
-        <v>1</v>
-      </c>
-      <c r="J87" s="34">
+      <c r="I88" s="52">
+        <v>1</v>
+      </c>
+      <c r="J88" s="33">
         <f t="shared" si="2"/>
         <v>5.01</v>
       </c>
-      <c r="K87" s="41" t="s">
+      <c r="K88" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="L87" s="36" t="s">
+      <c r="L88" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="M87" s="57"/>
-      <c r="N87" s="58">
+      <c r="M88" s="53"/>
+      <c r="N88" s="53">
         <v>10511</v>
       </c>
-      <c r="O87" s="64"/>
-      <c r="P87" s="62" t="s">
+      <c r="O88" s="70"/>
+      <c r="P88" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
-      <c r="A88" s="29" t="s">
+    <row r="89" spans="1:16">
+      <c r="A89" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B88" s="55" t="s">
+      <c r="B89" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C88" s="55" t="s">
+      <c r="C89" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="55" t="s">
+      <c r="D89" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="E88" s="30"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="56">
-        <v>1</v>
-      </c>
-      <c r="H88" s="34">
+      <c r="E89" s="29"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="52">
+        <v>1</v>
+      </c>
+      <c r="H89" s="33">
         <f>13.5</f>
         <v>13.5</v>
       </c>
-      <c r="I88" s="56">
-        <v>1</v>
-      </c>
-      <c r="J88" s="34">
+      <c r="I89" s="52">
+        <v>1</v>
+      </c>
+      <c r="J89" s="33">
         <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
-      <c r="K88" s="35" t="s">
+      <c r="K89" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="L88" s="36" t="s">
+      <c r="L89" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M88" s="37"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="67"/>
-      <c r="P88" s="40"/>
-    </row>
-    <row r="89" spans="1:16">
-      <c r="A89" s="29" t="s">
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="72"/>
+      <c r="P89" s="37"/>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B89" s="55" t="s">
+      <c r="B90" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C89" s="55" t="s">
+      <c r="C90" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="D89" s="55" t="s">
+      <c r="D90" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="E89" s="30"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="56">
-        <v>1</v>
-      </c>
-      <c r="H89" s="34">
+      <c r="E90" s="29"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="52">
+        <v>1</v>
+      </c>
+      <c r="H90" s="33">
         <f>2.03+1.59</f>
         <v>3.62</v>
       </c>
-      <c r="I89" s="56">
-        <v>1</v>
-      </c>
-      <c r="J89" s="34">
+      <c r="I90" s="52">
+        <v>1</v>
+      </c>
+      <c r="J90" s="33">
         <f t="shared" si="2"/>
         <v>3.62</v>
       </c>
-      <c r="K89" s="41" t="s">
+      <c r="K90" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="L89" s="36" t="s">
+      <c r="L90" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="M89" s="57"/>
-      <c r="N89" s="58"/>
-      <c r="O89" s="64"/>
-      <c r="P89" s="40"/>
-    </row>
-    <row r="90" spans="1:16">
-      <c r="A90" s="29" t="s">
+      <c r="M90" s="53"/>
+      <c r="N90" s="53"/>
+      <c r="O90" s="70"/>
+      <c r="P90" s="37"/>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B91" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C90" s="55" t="s">
+      <c r="C91" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="D90" s="55" t="s">
+      <c r="D91" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="E90" s="30"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="56">
-        <v>1</v>
-      </c>
-      <c r="H90" s="34">
+      <c r="E91" s="29"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="52">
+        <v>1</v>
+      </c>
+      <c r="H91" s="33">
         <v>3</v>
       </c>
-      <c r="I90" s="56">
-        <v>1</v>
-      </c>
-      <c r="J90" s="34">
+      <c r="I91" s="52">
+        <v>1</v>
+      </c>
+      <c r="J91" s="33">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K90" s="41" t="s">
+      <c r="K91" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="L90" s="36" t="s">
+      <c r="L91" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="M90" s="37"/>
-      <c r="N90" s="38"/>
-      <c r="O90" s="64"/>
-      <c r="P90" s="40"/>
-    </row>
-    <row r="91" spans="1:16">
-      <c r="A91" s="29" t="s">
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="37"/>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B91" s="55" t="s">
+      <c r="B92" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C91" s="55" t="s">
+      <c r="C92" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D91" s="55" t="s">
+      <c r="D92" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="E91" s="30"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="56">
-        <v>1</v>
-      </c>
-      <c r="H91" s="34">
+      <c r="E92" s="29"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="52">
+        <v>1</v>
+      </c>
+      <c r="H92" s="33">
         <f>3.11+1.67</f>
         <v>4.7799999999999994</v>
       </c>
-      <c r="I91" s="56">
-        <v>1</v>
-      </c>
-      <c r="J91" s="34">
+      <c r="I92" s="52">
+        <v>1</v>
+      </c>
+      <c r="J92" s="33">
         <f t="shared" si="2"/>
         <v>4.7799999999999994</v>
       </c>
-      <c r="K91" s="41" t="s">
+      <c r="K92" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="L91" s="36" t="s">
+      <c r="L92" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="M91" s="57"/>
-      <c r="N91" s="58"/>
-      <c r="O91" s="64"/>
-      <c r="P91" s="62" t="s">
+      <c r="M92" s="53"/>
+      <c r="N92" s="53"/>
+      <c r="O92" s="70"/>
+      <c r="P92" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
-      <c r="A92" s="29" t="s">
+    <row r="93" spans="1:16">
+      <c r="A93" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B92" s="55" t="s">
+      <c r="B93" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="55" t="s">
+      <c r="C93" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D92" s="55" t="s">
+      <c r="D93" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="E92" s="30"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="56">
-        <v>1</v>
-      </c>
-      <c r="H92" s="34">
+      <c r="E93" s="29"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="52">
+        <v>1</v>
+      </c>
+      <c r="H93" s="33">
         <v>2</v>
       </c>
-      <c r="I92" s="56">
-        <v>1</v>
-      </c>
-      <c r="J92" s="34">
+      <c r="I93" s="52">
+        <v>1</v>
+      </c>
+      <c r="J93" s="33">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K92" s="35" t="s">
+      <c r="K93" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="L92" s="36" t="s">
+      <c r="L93" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M92" s="37">
+      <c r="M93" s="36">
         <v>7991</v>
       </c>
-      <c r="N92" s="38"/>
-      <c r="O92" s="64"/>
-      <c r="P92" s="62" t="s">
+      <c r="N93" s="36"/>
+      <c r="O93" s="70"/>
+      <c r="P93" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
-      <c r="A93" s="29" t="s">
+    <row r="94" spans="1:16">
+      <c r="A94" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B93" s="55" t="s">
+      <c r="B94" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="55" t="s">
+      <c r="C94" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D93" s="55" t="s">
+      <c r="D94" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="E93" s="30"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="56">
+      <c r="E94" s="29"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="52">
         <v>2</v>
       </c>
-      <c r="H93" s="34">
+      <c r="H94" s="33">
         <f>2.5</f>
         <v>2.5</v>
       </c>
-      <c r="I93" s="56">
-        <v>1</v>
-      </c>
-      <c r="J93" s="34">
+      <c r="I94" s="52">
+        <v>1</v>
+      </c>
+      <c r="J94" s="33">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="K93" s="41" t="s">
+      <c r="K94" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="L93" s="36" t="s">
+      <c r="L94" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M93" s="57">
+      <c r="M94" s="53">
         <v>7991</v>
       </c>
-      <c r="N93" s="58"/>
-      <c r="O93" s="64"/>
-      <c r="P93" s="62" t="s">
+      <c r="N94" s="53"/>
+      <c r="O94" s="70"/>
+      <c r="P94" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
-      <c r="A94" s="29" t="s">
+    <row r="95" spans="1:16">
+      <c r="A95" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B94" s="55" t="s">
+      <c r="B95" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C94" s="55" t="s">
+      <c r="C95" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="D94" s="55" t="s">
+      <c r="D95" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="E94" s="30"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="56">
+      <c r="E95" s="29"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="52">
         <v>2</v>
       </c>
-      <c r="H94" s="34">
+      <c r="H95" s="33">
         <f>(2.8+1.51)</f>
         <v>4.3099999999999996</v>
       </c>
-      <c r="I94" s="56">
-        <v>1</v>
-      </c>
-      <c r="J94" s="34">
+      <c r="I95" s="52">
+        <v>1</v>
+      </c>
+      <c r="J95" s="33">
         <f t="shared" si="2"/>
         <v>4.3099999999999996</v>
       </c>
-      <c r="K94" s="35" t="s">
+      <c r="K95" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="L94" s="36" t="s">
+      <c r="L95" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="M94" s="37"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="64"/>
-      <c r="P94" s="40"/>
-    </row>
-    <row r="95" spans="1:16">
-      <c r="A95" s="29" t="s">
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="70"/>
+      <c r="P95" s="37"/>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B95" s="55" t="s">
+      <c r="B96" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C95" s="55" t="s">
+      <c r="C96" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D95" s="55" t="s">
+      <c r="D96" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="E95" s="30"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="56">
-        <v>1</v>
-      </c>
-      <c r="H95" s="34">
+      <c r="E96" s="29"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="52">
+        <v>1</v>
+      </c>
+      <c r="H96" s="33">
         <f>1.72</f>
         <v>1.72</v>
       </c>
-      <c r="I95" s="56">
-        <v>1</v>
-      </c>
-      <c r="J95" s="34">
+      <c r="I96" s="52">
+        <v>1</v>
+      </c>
+      <c r="J96" s="33">
         <f t="shared" si="2"/>
         <v>1.72</v>
       </c>
-      <c r="K95" s="41" t="s">
+      <c r="K96" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="L95" s="36" t="s">
+      <c r="L96" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="M95" s="57"/>
-      <c r="N95" s="58"/>
-      <c r="O95" s="64"/>
-      <c r="P95" s="40"/>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="A96" s="29" t="s">
+      <c r="M96" s="53"/>
+      <c r="N96" s="53"/>
+      <c r="O96" s="70"/>
+      <c r="P96" s="37"/>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B96" s="55" t="s">
+      <c r="B97" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C96" s="55" t="s">
+      <c r="C97" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D96" s="55" t="s">
+      <c r="D97" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="E96" s="30"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="56">
-        <v>1</v>
-      </c>
-      <c r="H96" s="34">
+      <c r="E97" s="29"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="52">
+        <v>1</v>
+      </c>
+      <c r="H97" s="33">
         <f>2.44</f>
         <v>2.44</v>
       </c>
-      <c r="I96" s="56">
-        <v>1</v>
-      </c>
-      <c r="J96" s="34">
+      <c r="I97" s="52">
+        <v>1</v>
+      </c>
+      <c r="J97" s="33">
         <f t="shared" si="2"/>
         <v>2.44</v>
       </c>
-      <c r="K96" s="41" t="s">
+      <c r="K97" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="L96" s="36" t="s">
+      <c r="L97" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="M96" s="37"/>
-      <c r="N96" s="38"/>
-      <c r="O96" s="64"/>
-      <c r="P96" s="62" t="s">
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="70"/>
+      <c r="P97" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
-      <c r="A97" s="29" t="s">
+    <row r="98" spans="1:26">
+      <c r="A98" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B97" s="55" t="s">
+      <c r="B98" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C97" s="55" t="s">
+      <c r="C98" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="D97" s="55" t="s">
+      <c r="D98" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="E97" s="30"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="56">
+      <c r="E98" s="29"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="52">
         <v>3</v>
       </c>
-      <c r="H97" s="34">
+      <c r="H98" s="33">
         <f>2.38</f>
         <v>2.38</v>
       </c>
-      <c r="I97" s="56">
-        <v>1</v>
-      </c>
-      <c r="J97" s="34">
+      <c r="I98" s="52">
+        <v>1</v>
+      </c>
+      <c r="J98" s="33">
         <f t="shared" si="2"/>
         <v>2.38</v>
       </c>
-      <c r="K97" s="41" t="s">
+      <c r="K98" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="L97" s="36" t="s">
+      <c r="L98" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M97" s="57"/>
-      <c r="N97" s="58"/>
-      <c r="O97" s="67"/>
-      <c r="P97" s="62" t="s">
+      <c r="M98" s="53"/>
+      <c r="N98" s="53"/>
+      <c r="O98" s="72"/>
+      <c r="P98" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
-      <c r="A98" s="29" t="s">
+    <row r="99" spans="1:26">
+      <c r="A99" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B98" s="55" t="s">
+      <c r="B99" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C98" s="55" t="s">
+      <c r="C99" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="D98" s="55" t="s">
+      <c r="D99" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="E98" s="30"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="56">
+      <c r="E99" s="29"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="52">
         <v>4</v>
       </c>
-      <c r="H98" s="34">
+      <c r="H99" s="33">
         <f>3.27</f>
         <v>3.27</v>
       </c>
-      <c r="I98" s="56">
-        <v>1</v>
-      </c>
-      <c r="J98" s="34">
+      <c r="I99" s="52">
+        <v>1</v>
+      </c>
+      <c r="J99" s="33">
         <f t="shared" si="2"/>
         <v>3.27</v>
       </c>
-      <c r="K98" s="35" t="s">
+      <c r="K99" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="L98" s="36" t="s">
+      <c r="L99" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M98" s="37"/>
-      <c r="N98" s="38"/>
-      <c r="O98" s="64"/>
-      <c r="P98" s="62" t="s">
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="70"/>
+      <c r="P99" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
-      <c r="A99" s="29" t="s">
+    <row r="100" spans="1:26">
+      <c r="A100" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B99" s="55" t="s">
+      <c r="B100" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C99" s="55" t="s">
+      <c r="C100" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="D99" s="55" t="s">
+      <c r="D100" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="E99" s="30"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="56">
+      <c r="E100" s="29"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="52">
         <v>4</v>
       </c>
-      <c r="H99" s="34">
+      <c r="H100" s="33">
         <f>2.57</f>
         <v>2.57</v>
       </c>
-      <c r="I99" s="56">
-        <v>1</v>
-      </c>
-      <c r="J99" s="34">
+      <c r="I100" s="52">
+        <v>1</v>
+      </c>
+      <c r="J100" s="33">
         <f t="shared" si="2"/>
         <v>2.57</v>
       </c>
-      <c r="K99" s="41" t="s">
+      <c r="K100" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="L99" s="36" t="s">
+      <c r="L100" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M99" s="57"/>
-      <c r="N99" s="58"/>
-      <c r="O99" s="64"/>
-      <c r="P99" s="62" t="s">
+      <c r="M100" s="53"/>
+      <c r="N100" s="53"/>
+      <c r="O100" s="70"/>
+      <c r="P100" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
-      <c r="A100" s="29" t="s">
+    <row r="101" spans="1:26">
+      <c r="A101" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B100" s="55" t="s">
+      <c r="B101" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C100" s="55" t="s">
+      <c r="C101" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D100" s="55" t="s">
+      <c r="D101" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="E100" s="30"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="56">
+      <c r="E101" s="29"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="52">
         <v>12</v>
       </c>
-      <c r="H100" s="34">
+      <c r="H101" s="33">
         <f>2.75</f>
         <v>2.75</v>
       </c>
-      <c r="I100" s="56">
-        <v>1</v>
-      </c>
-      <c r="J100" s="34">
+      <c r="I101" s="52">
+        <v>1</v>
+      </c>
+      <c r="J101" s="33">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
-      <c r="K100" s="35" t="s">
+      <c r="K101" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="L100" s="36" t="s">
+      <c r="L101" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M100" s="37">
+      <c r="M101" s="36">
         <v>912</v>
       </c>
-      <c r="N100" s="38"/>
-      <c r="O100" s="64"/>
-      <c r="P100" s="62" t="s">
+      <c r="N101" s="36"/>
+      <c r="O101" s="70"/>
+      <c r="P101" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
-      <c r="A101" s="29" t="s">
+    <row r="102" spans="1:26">
+      <c r="A102" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B101" s="55" t="s">
+      <c r="B102" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C101" s="55" t="s">
+      <c r="C102" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D101" s="55" t="s">
+      <c r="D102" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="E101" s="30"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="56">
+      <c r="E102" s="29"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="52">
         <v>8</v>
       </c>
-      <c r="H101" s="34">
+      <c r="H102" s="33">
         <f>1.75</f>
         <v>1.75</v>
       </c>
-      <c r="I101" s="56">
-        <v>1</v>
-      </c>
-      <c r="J101" s="34">
+      <c r="I102" s="52">
+        <v>1</v>
+      </c>
+      <c r="J102" s="33">
         <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
-      <c r="K101" s="41" t="s">
+      <c r="K102" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="L101" s="36" t="s">
+      <c r="L102" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M101" s="57"/>
-      <c r="N101" s="58">
+      <c r="M102" s="53"/>
+      <c r="N102" s="53">
         <v>7380</v>
       </c>
-      <c r="O101" s="64"/>
-      <c r="P101" s="62" t="s">
+      <c r="O102" s="70"/>
+      <c r="P102" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
-      <c r="A102" s="29" t="s">
+    <row r="103" spans="1:26">
+      <c r="A103" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B102" s="55" t="s">
+      <c r="B103" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C102" s="55" t="s">
+      <c r="C103" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="D102" s="55" t="s">
+      <c r="D103" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="E102" s="30"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="56">
-        <v>1</v>
-      </c>
-      <c r="H102" s="34">
+      <c r="E103" s="29"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="52">
+        <v>1</v>
+      </c>
+      <c r="H103" s="33">
         <v>12</v>
       </c>
-      <c r="I102" s="56">
-        <v>1</v>
-      </c>
-      <c r="J102" s="34">
+      <c r="I103" s="52">
+        <v>1</v>
+      </c>
+      <c r="J103" s="33">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="K102" s="41" t="s">
+      <c r="K103" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="L102" s="36" t="s">
+      <c r="L103" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="M102" s="37"/>
-      <c r="N102" s="38"/>
-      <c r="O102" s="64"/>
-      <c r="P102" s="62" t="s">
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="70"/>
+      <c r="P103" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
-      <c r="A103" s="29" t="s">
+    <row r="104" spans="1:26">
+      <c r="A104" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B103" s="55" t="s">
+      <c r="B104" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C103" s="55" t="s">
+      <c r="C104" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D103" s="55" t="s">
+      <c r="D104" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="E103" s="30"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="56">
-        <v>1</v>
-      </c>
-      <c r="H103" s="34">
+      <c r="E104" s="29"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="52">
+        <v>1</v>
+      </c>
+      <c r="H104" s="33">
         <v>12</v>
       </c>
-      <c r="I103" s="56">
-        <v>1</v>
-      </c>
-      <c r="J103" s="34">
+      <c r="I104" s="52">
+        <v>1</v>
+      </c>
+      <c r="J104" s="33">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="K103" s="41" t="s">
+      <c r="K104" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="L103" s="36" t="s">
+      <c r="L104" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="M103" s="57"/>
-      <c r="N103" s="58"/>
-      <c r="O103" s="64"/>
-      <c r="P103" s="40"/>
-    </row>
-    <row r="104" spans="1:26">
-      <c r="A104" s="29" t="s">
+      <c r="M104" s="53"/>
+      <c r="N104" s="53"/>
+      <c r="O104" s="70"/>
+      <c r="P104" s="37"/>
+    </row>
+    <row r="105" spans="1:26">
+      <c r="A105" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B104" s="55" t="s">
+      <c r="B105" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C104" s="55" t="s">
+      <c r="C105" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D104" s="55" t="s">
+      <c r="D105" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="E104" s="30"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="56">
-        <v>1</v>
-      </c>
-      <c r="H104" s="34">
+      <c r="E105" s="29"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="52">
+        <v>1</v>
+      </c>
+      <c r="H105" s="33">
         <f>(3+0.96)</f>
         <v>3.96</v>
       </c>
-      <c r="I104" s="56">
-        <v>1</v>
-      </c>
-      <c r="J104" s="34">
-        <f t="shared" ref="J104:J107" si="3">I104*H104</f>
+      <c r="I105" s="52">
+        <v>1</v>
+      </c>
+      <c r="J105" s="33">
+        <f t="shared" ref="J105:J108" si="3">I105*H105</f>
         <v>3.96</v>
       </c>
-      <c r="K104" s="35" t="s">
+      <c r="K105" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="L104" s="36" t="s">
+      <c r="L105" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="M104" s="57"/>
-      <c r="N104" s="58"/>
-      <c r="O104" s="64"/>
-      <c r="P104" s="62" t="s">
+      <c r="M105" s="53"/>
+      <c r="N105" s="53"/>
+      <c r="O105" s="70"/>
+      <c r="P105" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:26" s="4" customFormat="1">
-      <c r="A105" s="29" t="s">
+    <row r="106" spans="1:26" s="4" customFormat="1">
+      <c r="A106" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B105" s="55" t="s">
+      <c r="B106" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C105" s="55" t="s">
+      <c r="C106" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D105" s="55" t="s">
+      <c r="D106" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="E105" s="30"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="56">
+      <c r="E106" s="29"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="52">
         <v>3</v>
       </c>
-      <c r="H105" s="34">
+      <c r="H106" s="33">
         <v>4.5</v>
       </c>
-      <c r="I105" s="56">
-        <v>1</v>
-      </c>
-      <c r="J105" s="34">
+      <c r="I106" s="52">
+        <v>1</v>
+      </c>
+      <c r="J106" s="33">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="K105" s="41" t="s">
+      <c r="K106" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="L105" s="36"/>
-      <c r="M105" s="57"/>
-      <c r="N105" s="58"/>
-      <c r="O105" s="64"/>
-      <c r="P105" s="62"/>
-    </row>
-    <row r="106" spans="1:26">
-      <c r="A106" s="29" t="s">
+      <c r="L106" s="35"/>
+      <c r="M106" s="53"/>
+      <c r="N106" s="53"/>
+      <c r="O106" s="70"/>
+      <c r="P106" s="57"/>
+    </row>
+    <row r="107" spans="1:26">
+      <c r="A107" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B106" s="55" t="s">
+      <c r="B107" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C106" s="55" t="s">
+      <c r="C107" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="D106" s="55" t="s">
+      <c r="D107" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="E106" s="30"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="56">
-        <v>1</v>
-      </c>
-      <c r="H106" s="34">
+      <c r="E107" s="29"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="52">
+        <v>1</v>
+      </c>
+      <c r="H107" s="33">
         <v>12</v>
       </c>
-      <c r="I106" s="56">
+      <c r="I107" s="52">
         <v>0</v>
       </c>
-      <c r="J106" s="34">
+      <c r="J107" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K106" s="35" t="s">
+      <c r="K107" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="L106" s="36" t="s">
+      <c r="L107" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="M106" s="37"/>
-      <c r="N106" s="38"/>
-      <c r="O106" s="68"/>
-      <c r="P106" s="69" t="s">
+      <c r="M107" s="36"/>
+      <c r="N107" s="36"/>
+      <c r="O107" s="73"/>
+      <c r="P107" s="59" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="107" spans="1:26">
-      <c r="A107" s="29" t="s">
+    <row r="108" spans="1:26">
+      <c r="A108" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B107" s="55" t="s">
+      <c r="B108" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C107" s="55" t="s">
+      <c r="C108" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="D107" s="55" t="s">
+      <c r="D108" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="E107" s="30"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="56">
-        <v>1</v>
-      </c>
-      <c r="H107" s="34">
+      <c r="E108" s="29"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="52">
+        <v>1</v>
+      </c>
+      <c r="H108" s="33">
         <v>4</v>
       </c>
-      <c r="I107" s="56">
-        <v>1</v>
-      </c>
-      <c r="J107" s="34">
+      <c r="I108" s="52">
+        <v>1</v>
+      </c>
+      <c r="J108" s="33">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K107" s="41" t="s">
+      <c r="K108" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="L107" s="36" t="s">
+      <c r="L108" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="M107" s="37"/>
-      <c r="N107" s="38"/>
-      <c r="O107" s="68"/>
-      <c r="P107" s="69" t="s">
+      <c r="M108" s="36"/>
+      <c r="N108" s="36"/>
+      <c r="O108" s="73"/>
+      <c r="P108" s="59" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="108" spans="1:26">
-      <c r="A108" s="29" t="s">
+    <row r="109" spans="1:26">
+      <c r="A109" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B108" s="55" t="s">
+      <c r="B109" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C108" s="55" t="s">
+      <c r="C109" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D108" s="55" t="s">
+      <c r="D109" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="E108" s="30"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="56">
-        <v>1</v>
-      </c>
-      <c r="H108" s="34">
+      <c r="E109" s="29"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="52">
+        <v>1</v>
+      </c>
+      <c r="H109" s="33">
         <f>0.87</f>
         <v>0.87</v>
       </c>
-      <c r="I108" s="56">
-        <v>1</v>
-      </c>
-      <c r="J108" s="34">
-        <f>H108*I108</f>
+      <c r="I109" s="52">
+        <v>1</v>
+      </c>
+      <c r="J109" s="33">
+        <f>H109*I109</f>
         <v>0.87</v>
       </c>
-      <c r="K108" s="41" t="s">
+      <c r="K109" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="L108" s="36" t="s">
+      <c r="L109" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M108" s="37"/>
-      <c r="N108" s="38"/>
-      <c r="O108" s="70"/>
-      <c r="P108" s="71" t="s">
+      <c r="M109" s="36"/>
+      <c r="N109" s="36"/>
+      <c r="O109" s="74"/>
+      <c r="P109" s="60" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A109" s="72"/>
-      <c r="B109" s="73"/>
-      <c r="C109" s="73"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="73"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="73"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="75"/>
-      <c r="L109" s="36"/>
-      <c r="M109" s="76"/>
-      <c r="N109" s="77"/>
-      <c r="O109" s="78"/>
-      <c r="P109" s="40"/>
-    </row>
-    <row r="110" spans="1:26" s="16" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18" t="s">
+    <row r="110" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A110" s="61"/>
+      <c r="B110" s="62"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="62"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="62"/>
+      <c r="J110" s="63"/>
+      <c r="K110" s="64"/>
+      <c r="L110" s="35"/>
+      <c r="M110" s="65"/>
+      <c r="N110" s="65"/>
+      <c r="O110" s="75"/>
+      <c r="P110" s="37"/>
+    </row>
+    <row r="111" spans="1:26" s="15" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A111" s="16"/>
+      <c r="B111" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="C111" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D110" s="19" t="s">
+      <c r="D111" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="21">
-        <f>SUM(J19:J109)</f>
-        <v>1848.4199999999998</v>
-      </c>
-      <c r="K110" s="19"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="23"/>
-      <c r="N110" s="23"/>
-      <c r="O110" s="22"/>
-      <c r="P110" s="24"/>
-      <c r="Q110" s="15"/>
-      <c r="R110" s="15"/>
-      <c r="S110" s="15"/>
-      <c r="T110" s="15"/>
-      <c r="U110" s="15"/>
-      <c r="V110" s="15"/>
-      <c r="W110" s="15"/>
-      <c r="X110" s="15"/>
-      <c r="Y110" s="15"/>
-      <c r="Z110" s="15"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20">
+        <f>SUM(J19:J110)</f>
+        <v>1850.4199999999998</v>
+      </c>
+      <c r="K111" s="18"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="21"/>
+      <c r="P111" s="23"/>
+      <c r="Q111" s="14"/>
+      <c r="R111" s="14"/>
+      <c r="S111" s="14"/>
+      <c r="T111" s="14"/>
+      <c r="U111" s="14"/>
+      <c r="V111" s="14"/>
+      <c r="W111" s="14"/>
+      <c r="X111" s="14"/>
+      <c r="Y111" s="14"/>
+      <c r="Z111" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6582,57 +6681,59 @@
     <hyperlink ref="K55" r:id="rId42" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="O56" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="K57" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K58" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K59" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K60" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K61" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K62" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K63" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K64" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K65" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="K66" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K67" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="K68" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="K69" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K70" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K71" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K72" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="K81" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="K82" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K83" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="K84" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="K85" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="K86" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="K87" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K88" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="K89" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K90" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K91" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="K92" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K93" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="K94" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="K95" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="K96" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K97" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="K98" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="K99" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="K100" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="K101" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="K102" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K103" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="K104" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="K106" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="K107" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="K108" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="K59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K60" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K62" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K63" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K64" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K65" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K66" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K67" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K68" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K69" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K70" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K71" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K72" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K73" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K82" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K83" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K84" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K85" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K86" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K87" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K88" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K89" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K90" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K91" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K92" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K93" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K94" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K95" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K96" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K97" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K98" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K99" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="K100" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="K101" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="K102" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="K103" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K104" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="K105" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="K107" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="K108" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="K109" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="K49" r:id="rId87" xr:uid="{905FEBF2-3C72-4AC0-9A71-9960B95F5707}"/>
-    <hyperlink ref="K105" r:id="rId88" xr:uid="{75FA6375-FE5C-4172-8C80-7D6C672D89A9}"/>
+    <hyperlink ref="K106" r:id="rId88" xr:uid="{75FA6375-FE5C-4172-8C80-7D6C672D89A9}"/>
+    <hyperlink ref="O17" r:id="rId89" display="Color: 2040-8 hole" xr:uid="{B0ECE500-D447-47EA-A019-54D5A010DEFF}"/>
+    <hyperlink ref="K58" r:id="rId90" xr:uid="{266E23F9-3B87-4B1C-BC02-C5251643D86F}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId89"/>
-  <drawing r:id="rId90"/>
-  <legacyDrawing r:id="rId91"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId91"/>
+  <drawing r:id="rId92"/>
+  <legacyDrawing r:id="rId93"/>
   <tableParts count="1">
-    <tablePart r:id="rId92"/>
+    <tablePart r:id="rId94"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="8_{A4D7EE59-B96E-488D-BD93-8CD70DB96DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{282FBCA3-4CA5-4424-8BE1-29CCDC407551}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{A4D7EE59-B96E-488D-BD93-8CD70DB96DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A2BB265-723E-49AF-8D35-EE0EDB23610C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Valkyrie Final Stage" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Final Stage'!$A$9:$N$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Final Stage'!$A$9:$N$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="P85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="P86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="P87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="P88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="P89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="P93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="P94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="P95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -293,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="P98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -306,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="P99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="P100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -332,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="P102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -358,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="P103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="P104" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P105" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="P106" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="307">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -1355,6 +1355,12 @@
   </si>
   <si>
     <t>1x LIS3DSH Accelerometer</t>
+  </si>
+  <si>
+    <t>ADXL345 Accelerometer</t>
+  </si>
+  <si>
+    <t>1x ADXL345 Accelerometer</t>
   </si>
 </sst>
 </file>
@@ -2108,8 +2114,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C2F1F9-F1B5-4B02-A7DE-98E7F6A020F8}" name="Table1" displayName="Table1" ref="A9:P110" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
-  <autoFilter ref="A9:P110" xr:uid="{33C2F1F9-F1B5-4B02-A7DE-98E7F6A020F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C2F1F9-F1B5-4B02-A7DE-98E7F6A020F8}" name="Table1" displayName="Table1" ref="A9:P111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="A9:P111" xr:uid="{33C2F1F9-F1B5-4B02-A7DE-98E7F6A020F8}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{2CE12C12-1042-47C1-804E-F7CC2F7431AD}" name="System" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{4C188292-CF61-4106-A9E5-A977D1CCD57D}" name="Category" dataDxfId="14"/>
@@ -2333,7 +2339,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z111"/>
+  <dimension ref="A1:Z112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -2425,7 +2431,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
       <c r="J8" s="10">
-        <f>SUM(J19:J110)</f>
+        <f>SUM(J19:J111)</f>
         <v>1850.4199999999998</v>
       </c>
       <c r="K8" s="8"/>
@@ -2579,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="33">
-        <f t="shared" ref="J11:J63" si="1">I11*H11</f>
+        <f t="shared" ref="J11:J64" si="1">I11*H11</f>
         <v>9.5</v>
       </c>
       <c r="K11" s="38" t="s">
@@ -4497,18 +4503,18 @@
       <c r="O58" s="67"/>
       <c r="P58" s="37"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" s="4" customFormat="1">
       <c r="A59" s="28" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B59" s="51" t="s">
         <v>128</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>157</v>
+        <v>302</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>158</v>
+        <v>305</v>
       </c>
       <c r="E59" s="29"/>
       <c r="F59" s="32"/>
@@ -4519,35 +4525,33 @@
         <v>3</v>
       </c>
       <c r="I59" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K59" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="L59" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="M59" s="36"/>
-      <c r="N59" s="36"/>
+        <v>306</v>
+      </c>
+      <c r="L59" s="35"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
       <c r="O59" s="67"/>
       <c r="P59" s="37"/>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="28" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B60" s="51" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D60" s="51" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E60" s="29"/>
       <c r="F60" s="32"/>
@@ -4555,23 +4559,23 @@
         <v>1</v>
       </c>
       <c r="H60" s="33">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="I60" s="52">
         <v>1</v>
       </c>
       <c r="J60" s="33">
         <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="K60" s="38" t="s">
-        <v>164</v>
+        <v>3</v>
+      </c>
+      <c r="K60" s="34" t="s">
+        <v>159</v>
       </c>
       <c r="L60" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53"/>
+        <v>160</v>
+      </c>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
       <c r="O60" s="67"/>
       <c r="P60" s="37"/>
     </row>
@@ -4586,7 +4590,7 @@
         <v>162</v>
       </c>
       <c r="D61" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E61" s="29"/>
       <c r="F61" s="32"/>
@@ -4594,23 +4598,23 @@
         <v>1</v>
       </c>
       <c r="H61" s="33">
-        <v>72.709999999999994</v>
+        <v>85</v>
       </c>
       <c r="I61" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L61" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
       <c r="O61" s="67"/>
       <c r="P61" s="37"/>
     </row>
@@ -4622,10 +4626,10 @@
         <v>161</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D62" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E62" s="29"/>
       <c r="F62" s="32"/>
@@ -4633,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="33">
-        <v>65</v>
+        <v>72.709999999999994</v>
       </c>
       <c r="I62" s="52">
         <v>0</v>
@@ -4643,13 +4647,13 @@
         <v>0</v>
       </c>
       <c r="K62" s="38" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L62" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
       <c r="O62" s="67"/>
       <c r="P62" s="37"/>
     </row>
@@ -4664,7 +4668,7 @@
         <v>161</v>
       </c>
       <c r="D63" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E63" s="29"/>
       <c r="F63" s="32"/>
@@ -4672,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="33">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I63" s="52">
         <v>0</v>
@@ -4681,14 +4685,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K63" s="34" t="s">
-        <v>170</v>
+      <c r="K63" s="38" t="s">
+        <v>168</v>
       </c>
       <c r="L63" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
       <c r="O63" s="67"/>
       <c r="P63" s="37"/>
     </row>
@@ -4703,7 +4707,7 @@
         <v>161</v>
       </c>
       <c r="D64" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E64" s="29"/>
       <c r="F64" s="32"/>
@@ -4711,66 +4715,62 @@
         <v>1</v>
       </c>
       <c r="H64" s="33">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I64" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="33">
-        <f t="shared" ref="J64:J104" si="2">I64*H64</f>
-        <v>70</v>
-      </c>
-      <c r="K64" s="38" t="s">
-        <v>172</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="34" t="s">
+        <v>170</v>
       </c>
       <c r="L64" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
+        <v>147</v>
+      </c>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
       <c r="O64" s="67"/>
       <c r="P64" s="37"/>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="28" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="B65" s="51" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="E65" s="29">
-        <v>1000</v>
-      </c>
-      <c r="F65" s="32">
-        <v>8000</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E65" s="29"/>
+      <c r="F65" s="32"/>
       <c r="G65" s="52">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H65" s="33">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I65" s="52">
         <v>1</v>
       </c>
       <c r="J65" s="33">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="K65" s="34" t="s">
-        <v>177</v>
+        <f t="shared" ref="J65:J105" si="2">I65*H65</f>
+        <v>70</v>
+      </c>
+      <c r="K65" s="38" t="s">
+        <v>172</v>
       </c>
       <c r="L65" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
+        <v>173</v>
+      </c>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
       <c r="O65" s="67"/>
       <c r="P65" s="37"/>
     </row>
@@ -4782,34 +4782,38 @@
         <v>174</v>
       </c>
       <c r="C66" s="51" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="32"/>
+        <v>176</v>
+      </c>
+      <c r="E66" s="29">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="32">
+        <v>8000</v>
+      </c>
       <c r="G66" s="52">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H66" s="33">
-        <v>4.0999999999999996</v>
+        <v>39</v>
       </c>
       <c r="I66" s="52">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J66" s="33">
         <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="K66" s="38" t="s">
-        <v>180</v>
+        <v>39</v>
+      </c>
+      <c r="K66" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="L66" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
+        <v>147</v>
+      </c>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
       <c r="O66" s="67"/>
       <c r="P66" s="37"/>
     </row>
@@ -4824,31 +4828,31 @@
         <v>178</v>
       </c>
       <c r="D67" s="51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E67" s="29"/>
       <c r="F67" s="32"/>
       <c r="G67" s="52">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H67" s="33">
-        <v>6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I67" s="52">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J67" s="33">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K67" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L67" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="53"/>
       <c r="O67" s="67"/>
       <c r="P67" s="37"/>
     </row>
@@ -4860,10 +4864,10 @@
         <v>174</v>
       </c>
       <c r="C68" s="51" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E68" s="29"/>
       <c r="F68" s="32"/>
@@ -4871,23 +4875,23 @@
         <v>5</v>
       </c>
       <c r="H68" s="33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I68" s="52">
         <v>5</v>
       </c>
       <c r="J68" s="33">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K68" s="38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L68" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="M68" s="53"/>
-      <c r="N68" s="53"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
       <c r="O68" s="67"/>
       <c r="P68" s="37"/>
     </row>
@@ -4899,38 +4903,34 @@
         <v>174</v>
       </c>
       <c r="C69" s="51" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D69" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="E69" s="29">
-        <v>200</v>
-      </c>
-      <c r="F69" s="32">
-        <v>600</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E69" s="29"/>
+      <c r="F69" s="32"/>
       <c r="G69" s="52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H69" s="33">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I69" s="52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J69" s="33">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="K69" s="34" t="s">
-        <v>189</v>
+        <v>20</v>
+      </c>
+      <c r="K69" s="38" t="s">
+        <v>186</v>
       </c>
       <c r="L69" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
+        <v>181</v>
+      </c>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
       <c r="O69" s="67"/>
       <c r="P69" s="37"/>
     </row>
@@ -4942,35 +4942,39 @@
         <v>174</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D70" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="32"/>
+        <v>188</v>
+      </c>
+      <c r="E70" s="29">
+        <v>200</v>
+      </c>
+      <c r="F70" s="32">
+        <v>600</v>
+      </c>
       <c r="G70" s="52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H70" s="33">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="I70" s="52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J70" s="33">
         <f t="shared" si="2"/>
-        <v>72.5</v>
-      </c>
-      <c r="K70" s="38" t="s">
-        <v>193</v>
+        <v>48</v>
+      </c>
+      <c r="K70" s="34" t="s">
+        <v>189</v>
       </c>
       <c r="L70" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="M70" s="53"/>
-      <c r="N70" s="53"/>
-      <c r="O70" s="70"/>
+        <v>190</v>
+      </c>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="67"/>
       <c r="P70" s="37"/>
     </row>
     <row r="71" spans="1:16">
@@ -4981,36 +4985,34 @@
         <v>174</v>
       </c>
       <c r="C71" s="51" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D71" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="E71" s="29">
-        <v>350</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="E71" s="29"/>
       <c r="F71" s="32"/>
       <c r="G71" s="52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H71" s="33">
-        <v>15.6</v>
+        <v>14.5</v>
       </c>
       <c r="I71" s="52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J71" s="33">
         <f t="shared" si="2"/>
-        <v>46.8</v>
-      </c>
-      <c r="K71" s="34" t="s">
-        <v>197</v>
+        <v>72.5</v>
+      </c>
+      <c r="K71" s="38" t="s">
+        <v>193</v>
       </c>
       <c r="L71" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
+        <v>194</v>
+      </c>
+      <c r="M71" s="53"/>
+      <c r="N71" s="53"/>
       <c r="O71" s="70"/>
       <c r="P71" s="37"/>
     </row>
@@ -5025,33 +5027,33 @@
         <v>195</v>
       </c>
       <c r="D72" s="51" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E72" s="29">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H72" s="33">
-        <v>17.5</v>
+        <v>15.6</v>
       </c>
       <c r="I72" s="52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72" s="33">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="K72" s="38" t="s">
-        <v>199</v>
+        <v>46.8</v>
+      </c>
+      <c r="K72" s="34" t="s">
+        <v>197</v>
       </c>
       <c r="L72" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="M72" s="53"/>
-      <c r="N72" s="53"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
       <c r="O72" s="70"/>
       <c r="P72" s="37"/>
     </row>
@@ -5066,72 +5068,74 @@
         <v>195</v>
       </c>
       <c r="D73" s="51" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E73" s="29">
         <v>400</v>
       </c>
       <c r="F73" s="32"/>
       <c r="G73" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" s="33">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="I73" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" s="33">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="K73" s="38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L73" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
+      <c r="M73" s="53"/>
+      <c r="N73" s="53"/>
       <c r="O73" s="70"/>
       <c r="P73" s="37"/>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="28" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D74" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="E74" s="29"/>
+        <v>200</v>
+      </c>
+      <c r="E74" s="29">
+        <v>400</v>
+      </c>
       <c r="F74" s="32"/>
       <c r="G74" s="52">
         <v>1</v>
       </c>
       <c r="H74" s="33">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I74" s="52">
         <v>1</v>
       </c>
       <c r="J74" s="33">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K74" s="38" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L74" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="M74" s="53"/>
-      <c r="N74" s="53"/>
+        <v>80</v>
+      </c>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
       <c r="O74" s="70"/>
       <c r="P74" s="37"/>
     </row>
@@ -5143,34 +5147,34 @@
         <v>203</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="32"/>
       <c r="G75" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="33">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I75" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" s="33">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="K75" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="K75" s="38" t="s">
         <v>206</v>
       </c>
       <c r="L75" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36"/>
+      <c r="M75" s="53"/>
+      <c r="N75" s="53"/>
       <c r="O75" s="70"/>
       <c r="P75" s="37"/>
     </row>
@@ -5182,34 +5186,34 @@
         <v>203</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D76" s="51" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E76" s="29"/>
       <c r="F76" s="32"/>
       <c r="G76" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" s="33">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I76" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" s="33">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="K76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K76" s="34" t="s">
         <v>206</v>
       </c>
       <c r="L76" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M76" s="53"/>
-      <c r="N76" s="53"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
       <c r="O76" s="70"/>
       <c r="P76" s="37"/>
     </row>
@@ -5221,10 +5225,10 @@
         <v>203</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D77" s="51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="32"/>
@@ -5232,23 +5236,23 @@
         <v>1</v>
       </c>
       <c r="H77" s="33">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I77" s="52">
         <v>1</v>
       </c>
       <c r="J77" s="33">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="K77" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="K77" s="38" t="s">
         <v>206</v>
       </c>
       <c r="L77" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
+      <c r="M77" s="53"/>
+      <c r="N77" s="53"/>
       <c r="O77" s="70"/>
       <c r="P77" s="37"/>
     </row>
@@ -5260,7 +5264,7 @@
         <v>203</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D78" s="51" t="s">
         <v>206</v>
@@ -5280,26 +5284,26 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K78" s="38" t="s">
+      <c r="K78" s="34" t="s">
         <v>206</v>
       </c>
       <c r="L78" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M78" s="53"/>
-      <c r="N78" s="53"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
       <c r="O78" s="70"/>
       <c r="P78" s="37"/>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="28" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D79" s="51" t="s">
         <v>206</v>
@@ -5307,17 +5311,17 @@
       <c r="E79" s="29"/>
       <c r="F79" s="32"/>
       <c r="G79" s="52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H79" s="33">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I79" s="52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J79" s="33">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="K79" s="38" t="s">
         <v>206</v>
@@ -5325,8 +5329,8 @@
       <c r="L79" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
+      <c r="M79" s="53"/>
+      <c r="N79" s="53"/>
       <c r="O79" s="70"/>
       <c r="P79" s="37"/>
     </row>
@@ -5335,13 +5339,13 @@
         <v>213</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="D80" s="56" t="s">
-        <v>289</v>
+        <v>214</v>
+      </c>
+      <c r="D80" s="51" t="s">
+        <v>206</v>
       </c>
       <c r="E80" s="29"/>
       <c r="F80" s="32"/>
@@ -5364,8 +5368,8 @@
       <c r="L80" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M80" s="53"/>
-      <c r="N80" s="53"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
       <c r="O80" s="70"/>
       <c r="P80" s="37"/>
     </row>
@@ -5376,163 +5380,158 @@
       <c r="B81" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="C81" s="56" t="s">
-        <v>293</v>
+      <c r="C81" s="51" t="s">
+        <v>216</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="32"/>
       <c r="G81" s="52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H81" s="33">
         <v>25</v>
       </c>
       <c r="I81" s="52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J81" s="33">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="K81" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="K81" s="38" t="s">
         <v>206</v>
       </c>
       <c r="L81" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
+      <c r="M81" s="53"/>
+      <c r="N81" s="53"/>
       <c r="O81" s="70"/>
       <c r="P81" s="37"/>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="28" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="C82" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" s="29">
-        <v>350</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C82" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="D82" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82" s="29"/>
       <c r="F82" s="32"/>
       <c r="G82" s="52">
         <v>1</v>
       </c>
       <c r="H82" s="33">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I82" s="52">
         <v>1</v>
       </c>
       <c r="J82" s="33">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K82" s="38" t="s">
-        <v>219</v>
+        <v>25</v>
+      </c>
+      <c r="K82" s="34" t="s">
+        <v>206</v>
       </c>
       <c r="L82" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="M82" s="53"/>
-      <c r="N82" s="53"/>
-      <c r="O82" s="71"/>
+        <v>206</v>
+      </c>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="70"/>
       <c r="P82" s="37"/>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="28" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="D83" s="51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E83" s="29">
         <v>350</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" s="33">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I83" s="52">
         <v>1</v>
       </c>
       <c r="J83" s="33">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="K83" s="34" t="s">
-        <v>222</v>
+        <v>10</v>
+      </c>
+      <c r="K83" s="38" t="s">
+        <v>219</v>
       </c>
       <c r="L83" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="70"/>
-      <c r="P83" s="58"/>
+        <v>181</v>
+      </c>
+      <c r="M83" s="53"/>
+      <c r="N83" s="53"/>
+      <c r="O83" s="71"/>
+      <c r="P83" s="37"/>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="28" t="s">
         <v>220</v>
       </c>
       <c r="B84" s="51" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="E84" s="29"/>
+        <v>221</v>
+      </c>
+      <c r="E84" s="29">
+        <v>350</v>
+      </c>
       <c r="F84" s="32"/>
       <c r="G84" s="52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H84" s="33">
-        <f>2.28</f>
-        <v>2.2799999999999998</v>
+        <v>22</v>
       </c>
       <c r="I84" s="52">
         <v>1</v>
       </c>
       <c r="J84" s="33">
         <f t="shared" si="2"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="K84" s="38" t="s">
-        <v>225</v>
+        <v>22</v>
+      </c>
+      <c r="K84" s="34" t="s">
+        <v>222</v>
       </c>
       <c r="L84" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="M84" s="53">
-        <v>7991</v>
-      </c>
-      <c r="N84" s="53"/>
+        <v>223</v>
+      </c>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
       <c r="O84" s="70"/>
-      <c r="P84" s="57" t="s">
-        <v>22</v>
-      </c>
+      <c r="P84" s="58"/>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="28" t="s">
@@ -5545,35 +5544,35 @@
         <v>86</v>
       </c>
       <c r="D85" s="51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="32"/>
       <c r="G85" s="52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H85" s="33">
-        <f>4.51</f>
-        <v>4.51</v>
+        <f>2.28</f>
+        <v>2.2799999999999998</v>
       </c>
       <c r="I85" s="52">
         <v>1</v>
       </c>
       <c r="J85" s="33">
         <f t="shared" si="2"/>
-        <v>4.51</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="K85" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L85" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M85" s="36"/>
-      <c r="N85" s="36">
-        <v>7380</v>
-      </c>
-      <c r="O85" s="72"/>
+      <c r="M85" s="53">
+        <v>7991</v>
+      </c>
+      <c r="N85" s="53"/>
+      <c r="O85" s="70"/>
       <c r="P85" s="57" t="s">
         <v>22</v>
       </c>
@@ -5586,36 +5585,36 @@
         <v>81</v>
       </c>
       <c r="C86" s="51" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D86" s="51" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E86" s="29"/>
       <c r="F86" s="32"/>
       <c r="G86" s="52">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H86" s="33">
-        <f>0.49</f>
-        <v>0.49</v>
+        <f>4.51</f>
+        <v>4.51</v>
       </c>
       <c r="I86" s="52">
         <v>1</v>
       </c>
       <c r="J86" s="33">
         <f t="shared" si="2"/>
-        <v>0.49</v>
+        <v>4.51</v>
       </c>
       <c r="K86" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L86" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M86" s="53"/>
-      <c r="N86" s="53">
-        <v>10511</v>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36">
+        <v>7380</v>
       </c>
       <c r="O86" s="72"/>
       <c r="P86" s="57" t="s">
@@ -5630,38 +5629,38 @@
         <v>81</v>
       </c>
       <c r="C87" s="51" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D87" s="51" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="32"/>
       <c r="G87" s="52">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H87" s="33">
-        <f>0.99</f>
-        <v>0.99</v>
+        <f>0.49</f>
+        <v>0.49</v>
       </c>
       <c r="I87" s="52">
         <v>1</v>
       </c>
       <c r="J87" s="33">
         <f t="shared" si="2"/>
-        <v>0.99</v>
-      </c>
-      <c r="K87" s="34" t="s">
-        <v>230</v>
+        <v>0.49</v>
+      </c>
+      <c r="K87" s="38" t="s">
+        <v>229</v>
       </c>
       <c r="L87" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36">
-        <v>7380</v>
-      </c>
-      <c r="O87" s="70"/>
+      <c r="M87" s="53"/>
+      <c r="N87" s="53">
+        <v>10511</v>
+      </c>
+      <c r="O87" s="72"/>
       <c r="P87" s="57" t="s">
         <v>22</v>
       </c>
@@ -5674,10 +5673,10 @@
         <v>81</v>
       </c>
       <c r="C88" s="51" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D88" s="51" t="s">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="E88" s="29"/>
       <c r="F88" s="32"/>
@@ -5685,25 +5684,25 @@
         <v>3</v>
       </c>
       <c r="H88" s="33">
-        <f>5.01</f>
-        <v>5.01</v>
+        <f>0.99</f>
+        <v>0.99</v>
       </c>
       <c r="I88" s="52">
         <v>1</v>
       </c>
       <c r="J88" s="33">
         <f t="shared" si="2"/>
-        <v>5.01</v>
-      </c>
-      <c r="K88" s="38" t="s">
-        <v>232</v>
+        <v>0.99</v>
+      </c>
+      <c r="K88" s="34" t="s">
+        <v>230</v>
       </c>
       <c r="L88" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="M88" s="53"/>
-      <c r="N88" s="53">
-        <v>10511</v>
+        <v>64</v>
+      </c>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36">
+        <v>7380</v>
       </c>
       <c r="O88" s="70"/>
       <c r="P88" s="57" t="s">
@@ -5718,37 +5717,41 @@
         <v>81</v>
       </c>
       <c r="C89" s="51" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D89" s="51" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="32"/>
       <c r="G89" s="52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H89" s="33">
-        <f>13.5</f>
-        <v>13.5</v>
+        <f>5.01</f>
+        <v>5.01</v>
       </c>
       <c r="I89" s="52">
         <v>1</v>
       </c>
       <c r="J89" s="33">
         <f t="shared" si="2"/>
-        <v>13.5</v>
-      </c>
-      <c r="K89" s="34" t="s">
-        <v>235</v>
+        <v>5.01</v>
+      </c>
+      <c r="K89" s="38" t="s">
+        <v>232</v>
       </c>
       <c r="L89" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="72"/>
-      <c r="P89" s="37"/>
+        <v>233</v>
+      </c>
+      <c r="M89" s="53"/>
+      <c r="N89" s="53">
+        <v>10511</v>
+      </c>
+      <c r="O89" s="70"/>
+      <c r="P89" s="57" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="28" t="s">
@@ -5758,10 +5761,10 @@
         <v>81</v>
       </c>
       <c r="C90" s="51" t="s">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c r="D90" s="51" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="32"/>
@@ -5769,25 +5772,25 @@
         <v>1</v>
       </c>
       <c r="H90" s="33">
-        <f>2.03+1.59</f>
-        <v>3.62</v>
+        <f>13.5</f>
+        <v>13.5</v>
       </c>
       <c r="I90" s="52">
         <v>1</v>
       </c>
       <c r="J90" s="33">
         <f t="shared" si="2"/>
-        <v>3.62</v>
-      </c>
-      <c r="K90" s="38" t="s">
-        <v>238</v>
+        <v>13.5</v>
+      </c>
+      <c r="K90" s="34" t="s">
+        <v>235</v>
       </c>
       <c r="L90" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="M90" s="53"/>
-      <c r="N90" s="53"/>
-      <c r="O90" s="70"/>
+        <v>64</v>
+      </c>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="72"/>
       <c r="P90" s="37"/>
     </row>
     <row r="91" spans="1:16">
@@ -5795,13 +5798,13 @@
         <v>220</v>
       </c>
       <c r="B91" s="51" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="C91" s="51" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D91" s="51" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E91" s="29"/>
       <c r="F91" s="32"/>
@@ -5809,23 +5812,24 @@
         <v>1</v>
       </c>
       <c r="H91" s="33">
-        <v>3</v>
+        <f>2.03+1.59</f>
+        <v>3.62</v>
       </c>
       <c r="I91" s="52">
         <v>1</v>
       </c>
       <c r="J91" s="33">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="K91" s="38" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L91" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
+        <v>239</v>
+      </c>
+      <c r="M91" s="53"/>
+      <c r="N91" s="53"/>
       <c r="O91" s="70"/>
       <c r="P91" s="37"/>
     </row>
@@ -5834,13 +5838,13 @@
         <v>220</v>
       </c>
       <c r="B92" s="51" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C92" s="51" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="D92" s="51" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E92" s="29"/>
       <c r="F92" s="32"/>
@@ -5848,28 +5852,25 @@
         <v>1</v>
       </c>
       <c r="H92" s="33">
-        <f>3.11+1.67</f>
-        <v>4.7799999999999994</v>
+        <v>3</v>
       </c>
       <c r="I92" s="52">
         <v>1</v>
       </c>
       <c r="J92" s="33">
         <f t="shared" si="2"/>
-        <v>4.7799999999999994</v>
+        <v>3</v>
       </c>
       <c r="K92" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L92" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="M92" s="53"/>
-      <c r="N92" s="53"/>
+        <v>243</v>
+      </c>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
       <c r="O92" s="70"/>
-      <c r="P92" s="57" t="s">
-        <v>22</v>
-      </c>
+      <c r="P92" s="37"/>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="28" t="s">
@@ -5879,10 +5880,10 @@
         <v>81</v>
       </c>
       <c r="C93" s="51" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="D93" s="51" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E93" s="29"/>
       <c r="F93" s="32"/>
@@ -5890,25 +5891,24 @@
         <v>1</v>
       </c>
       <c r="H93" s="33">
-        <v>2</v>
+        <f>3.11+1.67</f>
+        <v>4.7799999999999994</v>
       </c>
       <c r="I93" s="52">
         <v>1</v>
       </c>
       <c r="J93" s="33">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K93" s="34" t="s">
-        <v>248</v>
+        <v>4.7799999999999994</v>
+      </c>
+      <c r="K93" s="38" t="s">
+        <v>245</v>
       </c>
       <c r="L93" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="M93" s="36">
-        <v>7991</v>
-      </c>
-      <c r="N93" s="36"/>
+        <v>246</v>
+      </c>
+      <c r="M93" s="53"/>
+      <c r="N93" s="53"/>
       <c r="O93" s="70"/>
       <c r="P93" s="57" t="s">
         <v>22</v>
@@ -5925,34 +5925,33 @@
         <v>86</v>
       </c>
       <c r="D94" s="51" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E94" s="29"/>
       <c r="F94" s="32"/>
       <c r="G94" s="52">
+        <v>1</v>
+      </c>
+      <c r="H94" s="33">
         <v>2</v>
-      </c>
-      <c r="H94" s="33">
-        <f>2.5</f>
-        <v>2.5</v>
       </c>
       <c r="I94" s="52">
         <v>1</v>
       </c>
       <c r="J94" s="33">
         <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="K94" s="38" t="s">
-        <v>250</v>
+        <v>2</v>
+      </c>
+      <c r="K94" s="34" t="s">
+        <v>248</v>
       </c>
       <c r="L94" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M94" s="53">
+      <c r="M94" s="36">
         <v>7991</v>
       </c>
-      <c r="N94" s="53"/>
+      <c r="N94" s="36"/>
       <c r="O94" s="70"/>
       <c r="P94" s="57" t="s">
         <v>22</v>
@@ -5966,10 +5965,10 @@
         <v>81</v>
       </c>
       <c r="C95" s="51" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="D95" s="51" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E95" s="29"/>
       <c r="F95" s="32"/>
@@ -5977,26 +5976,30 @@
         <v>2</v>
       </c>
       <c r="H95" s="33">
-        <f>(2.8+1.51)</f>
-        <v>4.3099999999999996</v>
+        <f>2.5</f>
+        <v>2.5</v>
       </c>
       <c r="I95" s="52">
         <v>1</v>
       </c>
       <c r="J95" s="33">
         <f t="shared" si="2"/>
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="K95" s="34" t="s">
-        <v>253</v>
+        <v>2.5</v>
+      </c>
+      <c r="K95" s="38" t="s">
+        <v>250</v>
       </c>
       <c r="L95" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
+        <v>64</v>
+      </c>
+      <c r="M95" s="53">
+        <v>7991</v>
+      </c>
+      <c r="N95" s="53"/>
       <c r="O95" s="70"/>
-      <c r="P95" s="37"/>
+      <c r="P95" s="57" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="28" t="s">
@@ -6006,35 +6009,35 @@
         <v>81</v>
       </c>
       <c r="C96" s="51" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D96" s="51" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E96" s="29"/>
       <c r="F96" s="32"/>
       <c r="G96" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" s="33">
-        <f>1.72</f>
-        <v>1.72</v>
+        <f>(2.8+1.51)</f>
+        <v>4.3099999999999996</v>
       </c>
       <c r="I96" s="52">
         <v>1</v>
       </c>
       <c r="J96" s="33">
         <f t="shared" si="2"/>
-        <v>1.72</v>
-      </c>
-      <c r="K96" s="38" t="s">
-        <v>257</v>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="K96" s="34" t="s">
+        <v>253</v>
       </c>
       <c r="L96" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="M96" s="53"/>
-      <c r="N96" s="53"/>
+        <v>254</v>
+      </c>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
       <c r="O96" s="70"/>
       <c r="P96" s="37"/>
     </row>
@@ -6046,10 +6049,10 @@
         <v>81</v>
       </c>
       <c r="C97" s="51" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="D97" s="51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E97" s="29"/>
       <c r="F97" s="32"/>
@@ -6057,28 +6060,26 @@
         <v>1</v>
       </c>
       <c r="H97" s="33">
-        <f>2.44</f>
-        <v>2.44</v>
+        <f>1.72</f>
+        <v>1.72</v>
       </c>
       <c r="I97" s="52">
         <v>1</v>
       </c>
       <c r="J97" s="33">
         <f t="shared" si="2"/>
-        <v>2.44</v>
+        <v>1.72</v>
       </c>
       <c r="K97" s="38" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L97" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="M97" s="36"/>
-      <c r="N97" s="36"/>
+        <v>258</v>
+      </c>
+      <c r="M97" s="53"/>
+      <c r="N97" s="53"/>
       <c r="O97" s="70"/>
-      <c r="P97" s="57" t="s">
-        <v>22</v>
-      </c>
+      <c r="P97" s="37"/>
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="28" t="s">
@@ -6088,36 +6089,36 @@
         <v>81</v>
       </c>
       <c r="C98" s="51" t="s">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="D98" s="51" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E98" s="29"/>
       <c r="F98" s="32"/>
       <c r="G98" s="52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H98" s="33">
-        <f>2.38</f>
-        <v>2.38</v>
+        <f>2.44</f>
+        <v>2.44</v>
       </c>
       <c r="I98" s="52">
         <v>1</v>
       </c>
       <c r="J98" s="33">
         <f t="shared" si="2"/>
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="K98" s="38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L98" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="M98" s="53"/>
-      <c r="N98" s="53"/>
-      <c r="O98" s="72"/>
+        <v>233</v>
+      </c>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="70"/>
       <c r="P98" s="57" t="s">
         <v>22</v>
       </c>
@@ -6133,33 +6134,33 @@
         <v>261</v>
       </c>
       <c r="D99" s="51" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E99" s="29"/>
       <c r="F99" s="32"/>
       <c r="G99" s="52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H99" s="33">
-        <f>3.27</f>
-        <v>3.27</v>
+        <f>2.38</f>
+        <v>2.38</v>
       </c>
       <c r="I99" s="52">
         <v>1</v>
       </c>
       <c r="J99" s="33">
         <f t="shared" si="2"/>
-        <v>3.27</v>
-      </c>
-      <c r="K99" s="34" t="s">
-        <v>265</v>
+        <v>2.38</v>
+      </c>
+      <c r="K99" s="38" t="s">
+        <v>263</v>
       </c>
       <c r="L99" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M99" s="36"/>
-      <c r="N99" s="36"/>
-      <c r="O99" s="70"/>
+      <c r="M99" s="53"/>
+      <c r="N99" s="53"/>
+      <c r="O99" s="72"/>
       <c r="P99" s="57" t="s">
         <v>22</v>
       </c>
@@ -6175,7 +6176,7 @@
         <v>261</v>
       </c>
       <c r="D100" s="51" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E100" s="29"/>
       <c r="F100" s="32"/>
@@ -6183,24 +6184,24 @@
         <v>4</v>
       </c>
       <c r="H100" s="33">
-        <f>2.57</f>
-        <v>2.57</v>
+        <f>3.27</f>
+        <v>3.27</v>
       </c>
       <c r="I100" s="52">
         <v>1</v>
       </c>
       <c r="J100" s="33">
         <f t="shared" si="2"/>
-        <v>2.57</v>
-      </c>
-      <c r="K100" s="38" t="s">
+        <v>3.27</v>
+      </c>
+      <c r="K100" s="34" t="s">
         <v>265</v>
       </c>
       <c r="L100" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M100" s="53"/>
-      <c r="N100" s="53"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
       <c r="O100" s="70"/>
       <c r="P100" s="57" t="s">
         <v>22</v>
@@ -6214,37 +6215,35 @@
         <v>81</v>
       </c>
       <c r="C101" s="51" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="D101" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E101" s="29"/>
       <c r="F101" s="32"/>
       <c r="G101" s="52">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H101" s="33">
-        <f>2.75</f>
-        <v>2.75</v>
+        <f>2.57</f>
+        <v>2.57</v>
       </c>
       <c r="I101" s="52">
         <v>1</v>
       </c>
       <c r="J101" s="33">
         <f t="shared" si="2"/>
-        <v>2.75</v>
-      </c>
-      <c r="K101" s="34" t="s">
-        <v>268</v>
+        <v>2.57</v>
+      </c>
+      <c r="K101" s="38" t="s">
+        <v>265</v>
       </c>
       <c r="L101" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M101" s="36">
-        <v>912</v>
-      </c>
-      <c r="N101" s="36"/>
+      <c r="M101" s="53"/>
+      <c r="N101" s="53"/>
       <c r="O101" s="70"/>
       <c r="P101" s="57" t="s">
         <v>22</v>
@@ -6261,34 +6260,34 @@
         <v>86</v>
       </c>
       <c r="D102" s="51" t="s">
-        <v>90</v>
+        <v>267</v>
       </c>
       <c r="E102" s="29"/>
       <c r="F102" s="32"/>
       <c r="G102" s="52">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H102" s="33">
-        <f>1.75</f>
-        <v>1.75</v>
+        <f>2.75</f>
+        <v>2.75</v>
       </c>
       <c r="I102" s="52">
         <v>1</v>
       </c>
       <c r="J102" s="33">
         <f t="shared" si="2"/>
-        <v>1.75</v>
-      </c>
-      <c r="K102" s="38" t="s">
-        <v>269</v>
+        <v>2.75</v>
+      </c>
+      <c r="K102" s="34" t="s">
+        <v>268</v>
       </c>
       <c r="L102" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M102" s="53"/>
-      <c r="N102" s="53">
-        <v>7380</v>
-      </c>
+      <c r="M102" s="36">
+        <v>912</v>
+      </c>
+      <c r="N102" s="36"/>
       <c r="O102" s="70"/>
       <c r="P102" s="57" t="s">
         <v>22</v>
@@ -6299,37 +6298,40 @@
         <v>220</v>
       </c>
       <c r="B103" s="51" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="C103" s="51" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="D103" s="51" t="s">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E103" s="29"/>
       <c r="F103" s="32"/>
       <c r="G103" s="52">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H103" s="33">
-        <v>12</v>
+        <f>1.75</f>
+        <v>1.75</v>
       </c>
       <c r="I103" s="52">
         <v>1</v>
       </c>
       <c r="J103" s="33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1.75</v>
       </c>
       <c r="K103" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L103" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
+        <v>64</v>
+      </c>
+      <c r="M103" s="53"/>
+      <c r="N103" s="53">
+        <v>7380</v>
+      </c>
       <c r="O103" s="70"/>
       <c r="P103" s="57" t="s">
         <v>22</v>
@@ -6343,10 +6345,10 @@
         <v>128</v>
       </c>
       <c r="C104" s="51" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="D104" s="51" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E104" s="29"/>
       <c r="F104" s="32"/>
@@ -6364,15 +6366,17 @@
         <v>12</v>
       </c>
       <c r="K104" s="38" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L104" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="M104" s="53"/>
-      <c r="N104" s="53"/>
+        <v>272</v>
+      </c>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
       <c r="O104" s="70"/>
-      <c r="P104" s="37"/>
+      <c r="P104" s="57" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="28" t="s">
@@ -6382,10 +6386,10 @@
         <v>128</v>
       </c>
       <c r="C105" s="51" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D105" s="51" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E105" s="29"/>
       <c r="F105" s="32"/>
@@ -6393,30 +6397,27 @@
         <v>1</v>
       </c>
       <c r="H105" s="33">
-        <f>(3+0.96)</f>
-        <v>3.96</v>
+        <v>12</v>
       </c>
       <c r="I105" s="52">
         <v>1</v>
       </c>
       <c r="J105" s="33">
-        <f t="shared" ref="J105:J108" si="3">I105*H105</f>
-        <v>3.96</v>
-      </c>
-      <c r="K105" s="34" t="s">
-        <v>277</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K105" s="38" t="s">
+        <v>274</v>
       </c>
       <c r="L105" s="35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M105" s="53"/>
       <c r="N105" s="53"/>
       <c r="O105" s="70"/>
-      <c r="P105" s="57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" s="4" customFormat="1">
+      <c r="P105" s="37"/>
+    </row>
+    <row r="106" spans="1:26">
       <c r="A106" s="28" t="s">
         <v>220</v>
       </c>
@@ -6424,36 +6425,41 @@
         <v>128</v>
       </c>
       <c r="C106" s="51" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="D106" s="51" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="E106" s="29"/>
       <c r="F106" s="32"/>
       <c r="G106" s="52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H106" s="33">
-        <v>4.5</v>
+        <f>(3+0.96)</f>
+        <v>3.96</v>
       </c>
       <c r="I106" s="52">
         <v>1</v>
       </c>
       <c r="J106" s="33">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-      <c r="K106" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="L106" s="35"/>
+        <f t="shared" ref="J106:J109" si="3">I106*H106</f>
+        <v>3.96</v>
+      </c>
+      <c r="K106" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="L106" s="35" t="s">
+        <v>278</v>
+      </c>
       <c r="M106" s="53"/>
       <c r="N106" s="53"/>
       <c r="O106" s="70"/>
-      <c r="P106" s="57"/>
-    </row>
-    <row r="107" spans="1:26">
+      <c r="P106" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" s="4" customFormat="1">
       <c r="A107" s="28" t="s">
         <v>220</v>
       </c>
@@ -6461,38 +6467,34 @@
         <v>128</v>
       </c>
       <c r="C107" s="51" t="s">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="D107" s="51" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="E107" s="29"/>
       <c r="F107" s="32"/>
       <c r="G107" s="52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107" s="33">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="I107" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K107" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="L107" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="M107" s="36"/>
-      <c r="N107" s="36"/>
-      <c r="O107" s="73"/>
-      <c r="P107" s="59" t="s">
-        <v>285</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="K107" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="L107" s="35"/>
+      <c r="M107" s="53"/>
+      <c r="N107" s="53"/>
+      <c r="O107" s="70"/>
+      <c r="P107" s="57"/>
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="28" t="s">
@@ -6505,7 +6507,7 @@
         <v>240</v>
       </c>
       <c r="D108" s="51" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E108" s="29"/>
       <c r="F108" s="32"/>
@@ -6513,17 +6515,17 @@
         <v>1</v>
       </c>
       <c r="H108" s="33">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I108" s="52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" s="33">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="K108" s="38" t="s">
-        <v>282</v>
+        <v>0</v>
+      </c>
+      <c r="K108" s="34" t="s">
+        <v>280</v>
       </c>
       <c r="L108" s="35" t="s">
         <v>246</v>
@@ -6532,7 +6534,7 @@
       <c r="N108" s="36"/>
       <c r="O108" s="73"/>
       <c r="P108" s="59" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:26">
@@ -6540,13 +6542,13 @@
         <v>220</v>
       </c>
       <c r="B109" s="51" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C109" s="51" t="s">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="D109" s="51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E109" s="29"/>
       <c r="F109" s="32"/>
@@ -6554,83 +6556,124 @@
         <v>1</v>
       </c>
       <c r="H109" s="33">
+        <v>4</v>
+      </c>
+      <c r="I109" s="52">
+        <v>1</v>
+      </c>
+      <c r="J109" s="33">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K109" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="L109" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="M109" s="36"/>
+      <c r="N109" s="36"/>
+      <c r="O109" s="73"/>
+      <c r="P109" s="59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26">
+      <c r="A110" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C110" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D110" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="E110" s="29"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="52">
+        <v>1</v>
+      </c>
+      <c r="H110" s="33">
         <f>0.87</f>
         <v>0.87</v>
       </c>
-      <c r="I109" s="52">
-        <v>1</v>
-      </c>
-      <c r="J109" s="33">
-        <f>H109*I109</f>
+      <c r="I110" s="52">
+        <v>1</v>
+      </c>
+      <c r="J110" s="33">
+        <f>H110*I110</f>
         <v>0.87</v>
       </c>
-      <c r="K109" s="38" t="s">
+      <c r="K110" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="L109" s="35" t="s">
+      <c r="L110" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="M109" s="36"/>
-      <c r="N109" s="36"/>
-      <c r="O109" s="74"/>
-      <c r="P109" s="60" t="s">
+      <c r="M110" s="36"/>
+      <c r="N110" s="36"/>
+      <c r="O110" s="74"/>
+      <c r="P110" s="60" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A110" s="61"/>
-      <c r="B110" s="62"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="42"/>
-      <c r="G110" s="62"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="62"/>
-      <c r="J110" s="63"/>
-      <c r="K110" s="64"/>
-      <c r="L110" s="35"/>
-      <c r="M110" s="65"/>
-      <c r="N110" s="65"/>
-      <c r="O110" s="75"/>
-      <c r="P110" s="37"/>
-    </row>
-    <row r="111" spans="1:26" s="15" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A111" s="16"/>
-      <c r="B111" s="17" t="s">
+    <row r="111" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A111" s="61"/>
+      <c r="B111" s="62"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="62"/>
+      <c r="J111" s="63"/>
+      <c r="K111" s="64"/>
+      <c r="L111" s="35"/>
+      <c r="M111" s="65"/>
+      <c r="N111" s="65"/>
+      <c r="O111" s="75"/>
+      <c r="P111" s="37"/>
+    </row>
+    <row r="112" spans="1:26" s="15" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A112" s="16"/>
+      <c r="B112" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C112" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="D112" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20">
-        <f>SUM(J19:J110)</f>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="20">
+        <f>SUM(J19:J111)</f>
         <v>1850.4199999999998</v>
       </c>
-      <c r="K111" s="18"/>
-      <c r="L111" s="21"/>
-      <c r="M111" s="22"/>
-      <c r="N111" s="22"/>
-      <c r="O111" s="21"/>
-      <c r="P111" s="23"/>
-      <c r="Q111" s="14"/>
-      <c r="R111" s="14"/>
-      <c r="S111" s="14"/>
-      <c r="T111" s="14"/>
-      <c r="U111" s="14"/>
-      <c r="V111" s="14"/>
-      <c r="W111" s="14"/>
-      <c r="X111" s="14"/>
-      <c r="Y111" s="14"/>
-      <c r="Z111" s="14"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="21"/>
+      <c r="P112" s="23"/>
+      <c r="Q112" s="14"/>
+      <c r="R112" s="14"/>
+      <c r="S112" s="14"/>
+      <c r="T112" s="14"/>
+      <c r="U112" s="14"/>
+      <c r="V112" s="14"/>
+      <c r="W112" s="14"/>
+      <c r="X112" s="14"/>
+      <c r="Y112" s="14"/>
+      <c r="Z112" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6681,59 +6724,60 @@
     <hyperlink ref="K55" r:id="rId42" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="O56" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="K57" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K59" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K60" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K61" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K62" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K63" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K64" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K65" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K66" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="K67" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K68" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="K69" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="K70" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K71" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K72" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K73" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="K82" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="K83" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K84" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="K85" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="K86" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="K87" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="K88" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K89" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="K90" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K91" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K92" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="K93" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K94" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="K95" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="K96" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="K97" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K98" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="K99" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="K100" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="K101" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="K102" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="K103" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K104" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="K105" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="K107" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="K108" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="K109" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="K60" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K61" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K62" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K63" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K64" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K65" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K66" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K67" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K68" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K69" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K70" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K71" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K72" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K73" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K74" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K83" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K84" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K85" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K86" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K87" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K88" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K89" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K90" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K91" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K92" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K93" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K94" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K95" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K96" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K97" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K98" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K99" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K100" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="K101" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="K102" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="K103" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="K104" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K105" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="K106" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="K108" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="K109" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="K110" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="K49" r:id="rId87" xr:uid="{905FEBF2-3C72-4AC0-9A71-9960B95F5707}"/>
-    <hyperlink ref="K106" r:id="rId88" xr:uid="{75FA6375-FE5C-4172-8C80-7D6C672D89A9}"/>
+    <hyperlink ref="K107" r:id="rId88" xr:uid="{75FA6375-FE5C-4172-8C80-7D6C672D89A9}"/>
     <hyperlink ref="O17" r:id="rId89" display="Color: 2040-8 hole" xr:uid="{B0ECE500-D447-47EA-A019-54D5A010DEFF}"/>
     <hyperlink ref="K58" r:id="rId90" xr:uid="{266E23F9-3B87-4B1C-BC02-C5251643D86F}"/>
+    <hyperlink ref="K59" r:id="rId91" xr:uid="{3F8109BF-94D8-48C2-8600-95E93F639809}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId91"/>
-  <drawing r:id="rId92"/>
-  <legacyDrawing r:id="rId93"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId92"/>
+  <drawing r:id="rId93"/>
+  <legacyDrawing r:id="rId94"/>
   <tableParts count="1">
-    <tablePart r:id="rId94"/>
+    <tablePart r:id="rId95"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="8_{A4D7EE59-B96E-488D-BD93-8CD70DB96DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD7A6587-CAFB-4950-AE68-1137A05EAFE6}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="8_{A4D7EE59-B96E-488D-BD93-8CD70DB96DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0280E6A-7FF8-467C-BDCB-2ED2CC3C6524}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1501,7 +1501,7 @@
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
-    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1940,14 +1940,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1992,6 +1989,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2242,7 +2242,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
@@ -2266,7 +2266,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7096125" y="295275"/>
+          <a:off x="6943725" y="295275"/>
           <a:ext cx="2186940" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2535,24 +2535,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
@@ -2597,7 +2597,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="64">
+      <c r="J8" s="63">
         <f>J109</f>
         <v>1809.2199999999998</v>
       </c>
@@ -2679,47 +2679,47 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="68">
         <v>339</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="69">
         <f t="shared" ref="F10:F14" si="0">G10*E10</f>
         <v>339</v>
       </c>
-      <c r="G10" s="70">
-        <v>1</v>
-      </c>
-      <c r="H10" s="71">
+      <c r="G10" s="69">
+        <v>1</v>
+      </c>
+      <c r="H10" s="70">
         <v>7.26</v>
       </c>
-      <c r="I10" s="70">
-        <v>1</v>
-      </c>
-      <c r="J10" s="71">
+      <c r="I10" s="69">
+        <v>1</v>
+      </c>
+      <c r="J10" s="70">
         <v>8</v>
       </c>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="73" t="s">
+      <c r="L10" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="75"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="74"/>
       <c r="O10" s="53"/>
-      <c r="P10" s="87" t="s">
+      <c r="P10" s="86" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2764,9 +2764,9 @@
         <v>28</v>
       </c>
       <c r="M11" s="34"/>
-      <c r="N11" s="76"/>
+      <c r="N11" s="75"/>
       <c r="O11" s="54"/>
-      <c r="P11" s="87" t="s">
+      <c r="P11" s="86" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2810,9 +2810,9 @@
         <v>28</v>
       </c>
       <c r="M12" s="34"/>
-      <c r="N12" s="76"/>
+      <c r="N12" s="75"/>
       <c r="O12" s="54"/>
-      <c r="P12" s="87" t="s">
+      <c r="P12" s="86" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2856,9 +2856,9 @@
         <v>28</v>
       </c>
       <c r="M13" s="34"/>
-      <c r="N13" s="76"/>
+      <c r="N13" s="75"/>
       <c r="O13" s="54"/>
-      <c r="P13" s="87" t="s">
+      <c r="P13" s="86" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2902,9 +2902,9 @@
         <v>28</v>
       </c>
       <c r="M14" s="34"/>
-      <c r="N14" s="76"/>
+      <c r="N14" s="75"/>
       <c r="O14" s="54"/>
-      <c r="P14" s="87" t="s">
+      <c r="P14" s="86" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2943,8 +2943,8 @@
         <v>28</v>
       </c>
       <c r="M15" s="34"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="63" t="s">
+      <c r="N15" s="75"/>
+      <c r="O15" s="62" t="s">
         <v>299</v>
       </c>
       <c r="P15" s="35"/>
@@ -2986,7 +2986,7 @@
         <v>75</v>
       </c>
       <c r="M16" s="34"/>
-      <c r="N16" s="76"/>
+      <c r="N16" s="75"/>
       <c r="O16" s="56"/>
       <c r="P16" s="35"/>
     </row>
@@ -3027,7 +3027,7 @@
         <v>75</v>
       </c>
       <c r="M17" s="40"/>
-      <c r="N17" s="77"/>
+      <c r="N17" s="76"/>
       <c r="O17" s="56"/>
       <c r="P17" s="35"/>
     </row>
@@ -3068,45 +3068,45 @@
         <v>75</v>
       </c>
       <c r="M18" s="34"/>
-      <c r="N18" s="76"/>
+      <c r="N18" s="75"/>
       <c r="O18" s="56"/>
       <c r="P18" s="35"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="81">
-        <v>1</v>
-      </c>
-      <c r="H19" s="82">
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="80">
+        <v>1</v>
+      </c>
+      <c r="H19" s="81">
         <v>210</v>
       </c>
-      <c r="I19" s="81">
-        <v>1</v>
-      </c>
-      <c r="J19" s="82">
+      <c r="I19" s="80">
+        <v>1</v>
+      </c>
+      <c r="J19" s="81">
         <v>265.60000000000002</v>
       </c>
-      <c r="K19" s="83" t="s">
+      <c r="K19" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="84" t="s">
+      <c r="L19" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="85"/>
-      <c r="N19" s="86"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="85"/>
       <c r="O19" s="54"/>
       <c r="P19" s="35"/>
     </row>
@@ -6727,7 +6727,7 @@
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
       <c r="I109" s="18"/>
-      <c r="J109" s="65">
+      <c r="J109" s="64">
         <f>SUM(J19:J108)</f>
         <v>1809.2199999999998</v>
       </c>

--- a/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{A4D7EE59-B96E-488D-BD93-8CD70DB96DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0280E6A-7FF8-467C-BDCB-2ED2CC3C6524}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Final Stage" sheetId="1" r:id="rId1"/>
@@ -38,13 +32,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
     <author>Roy Berntsen</author>
   </authors>
   <commentList>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="H9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="1" shapeId="0" xr:uid="{CC8B76DC-885F-43B4-9958-EDC4CB91FCD8}">
+    <comment ref="P10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -125,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="1" shapeId="0" xr:uid="{45636B0F-C478-4F28-BA15-A694462339F9}">
+    <comment ref="P11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -149,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="1" shapeId="0" xr:uid="{E9BC45A9-4C13-4A3E-B3AE-6BB701F43B48}">
+    <comment ref="P12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -173,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="1" shapeId="0" xr:uid="{2C5225D1-7554-4060-9405-1C8964061099}">
+    <comment ref="P13" authorId="1">
       <text>
         <r>
           <rPr>
@@ -197,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="1" shapeId="0" xr:uid="{B136C7D9-9F8D-48D7-AE63-1BC8238C978C}">
+    <comment ref="P14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -221,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O15" authorId="1" shapeId="0" xr:uid="{206C2F90-4FA0-460D-8A5C-6B176C5EF95C}">
+    <comment ref="O15" authorId="1">
       <text>
         <r>
           <rPr>
@@ -245,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="D52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="P55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K80" authorId="1" shapeId="0" xr:uid="{53CAFCF9-074B-467A-9A63-1D302C3AF7F8}">
+    <comment ref="K80" authorId="1">
       <text>
         <r>
           <rPr>
@@ -333,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="P82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="P83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="P84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="P85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="P86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="P90" authorId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="P91" authorId="0">
       <text>
         <r>
           <rPr>
@@ -424,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="P92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="P95" authorId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="P96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -463,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="P97" authorId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P98" authorId="0">
       <text>
         <r>
           <rPr>
@@ -489,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="P99" authorId="0">
       <text>
         <r>
           <rPr>
@@ -502,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="P100" authorId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="P101" authorId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="P103" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1495,13 +1489,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
-    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1891,11 +1885,11 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1916,7 +1910,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1927,24 +1921,24 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1952,11 +1946,11 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1975,11 +1969,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2057,7 +2051,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2116,7 +2110,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2252,7 +2246,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,25 +2275,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C2F1F9-F1B5-4B02-A7DE-98E7F6A020F8}" name="Table1" displayName="Table1" ref="A9:P108" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
-  <autoFilter ref="A9:P108" xr:uid="{33C2F1F9-F1B5-4B02-A7DE-98E7F6A020F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:P108" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="A9:P108"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{2CE12C12-1042-47C1-804E-F7CC2F7431AD}" name="System" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{4C188292-CF61-4106-A9E5-A977D1CCD57D}" name="Category" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{9FEAF07F-6BC2-4529-9862-EA8087CCCD41}" name="Part Type" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{AC3BC65B-677C-4381-B61F-F928FD9402EF}" name="Description" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{2D90FA06-832C-4150-9188-E06DD0AFE693}" name="Cut Length mm" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{C4F0E072-23E1-4FB2-971B-F5521E0D876A}" name="Total mm" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{02F66E7A-0866-4DB7-8645-4FDBAE12B341}" name="BOM Quantity" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{A0AE3C34-FE7A-4DE4-B739-8ED16EAA28A6}" name="Pack Price $" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{411A830C-2DB3-4FBF-AAAA-3C65381F312D}" name="Pack Order Quantity" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{632E797A-D65F-4EDC-AD47-9E94D0ED9E3C}" name="Line Price $" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{33C4163A-6400-4A79-B6E9-136058FCFF1E}" name="Order Parts Link" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{63AE0315-6524-41D2-81E6-28493EEB92D9}" name="Supplier" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{CD6DF1EC-F9F0-419F-B498-B1B39E3E3F56}" name="DIN" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{2E280D7E-A654-4C6B-A793-F62621D0D829}" name="ISO" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{9F0713BA-6007-4747-931B-355E5A4A1D7E}" name="Option" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{03B97959-F3DF-44BA-B62B-2F325379122F}" name="Note" dataDxfId="0"/>
+    <tableColumn id="1" name="System" dataDxfId="15"/>
+    <tableColumn id="2" name="Category" dataDxfId="14"/>
+    <tableColumn id="3" name="Part Type" dataDxfId="13"/>
+    <tableColumn id="4" name="Description" dataDxfId="12"/>
+    <tableColumn id="5" name="Cut Length mm" dataDxfId="11"/>
+    <tableColumn id="6" name="Total mm" dataDxfId="10"/>
+    <tableColumn id="7" name="BOM Quantity" dataDxfId="9"/>
+    <tableColumn id="8" name="Pack Price $" dataDxfId="8"/>
+    <tableColumn id="9" name="Pack Order Quantity" dataDxfId="7"/>
+    <tableColumn id="10" name="Line Price $" dataDxfId="6"/>
+    <tableColumn id="11" name="Order Parts Link" dataDxfId="5"/>
+    <tableColumn id="12" name="Supplier" dataDxfId="4"/>
+    <tableColumn id="13" name="DIN" dataDxfId="3"/>
+    <tableColumn id="14" name="ISO" dataDxfId="2"/>
+    <tableColumn id="15" name="Option" dataDxfId="1"/>
+    <tableColumn id="16" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2502,15 +2496,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="9" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -6753,96 +6747,96 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K15" r:id="rId6" display="Color: 10pcs 2028" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="K24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K30" r:id="rId18" display="1x Size: 20-m3 50pcs" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K38" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K39" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K40" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K41" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K51" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="K52" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K53" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="K54" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="K55" r:id="rId41" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="O56" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K57" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K60" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K61" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K62" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K63" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K64" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K65" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K66" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K67" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="K68" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K69" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="K70" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="K71" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K16" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K17" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K18" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="K80" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="K81" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K82" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="K83" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="K84" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="K85" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="K86" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K87" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="K88" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K89" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K90" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="K91" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K92" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="K93" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="K94" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="K95" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K96" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="K97" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="K98" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="K99" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="K100" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="K101" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K102" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="K103" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="K105" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="K106" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="K107" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="K49" r:id="rId86" xr:uid="{905FEBF2-3C72-4AC0-9A71-9960B95F5707}"/>
-    <hyperlink ref="K104" r:id="rId87" xr:uid="{75FA6375-FE5C-4172-8C80-7D6C672D89A9}"/>
-    <hyperlink ref="O15" r:id="rId88" display="Color: 2040-8 hole" xr:uid="{B0ECE500-D447-47EA-A019-54D5A010DEFF}"/>
-    <hyperlink ref="K58" r:id="rId89" xr:uid="{266E23F9-3B87-4B1C-BC02-C5251643D86F}"/>
-    <hyperlink ref="K59" r:id="rId90" xr:uid="{3F8109BF-94D8-48C2-8600-95E93F639809}"/>
+    <hyperlink ref="K10" r:id="rId1"/>
+    <hyperlink ref="K11" r:id="rId2"/>
+    <hyperlink ref="K12" r:id="rId3"/>
+    <hyperlink ref="K13" r:id="rId4"/>
+    <hyperlink ref="K14" r:id="rId5"/>
+    <hyperlink ref="K15" r:id="rId6" display="Color: 10pcs 2028"/>
+    <hyperlink ref="K19" r:id="rId7"/>
+    <hyperlink ref="K20" r:id="rId8"/>
+    <hyperlink ref="K21" r:id="rId9"/>
+    <hyperlink ref="K22" r:id="rId10"/>
+    <hyperlink ref="K23" r:id="rId11"/>
+    <hyperlink ref="K24" r:id="rId12"/>
+    <hyperlink ref="K25" r:id="rId13"/>
+    <hyperlink ref="K26" r:id="rId14"/>
+    <hyperlink ref="K27" r:id="rId15"/>
+    <hyperlink ref="K28" r:id="rId16"/>
+    <hyperlink ref="K29" r:id="rId17"/>
+    <hyperlink ref="K30" r:id="rId18" display="1x Size: 20-m3 50pcs"/>
+    <hyperlink ref="K31" r:id="rId19"/>
+    <hyperlink ref="K32" r:id="rId20"/>
+    <hyperlink ref="K33" r:id="rId21"/>
+    <hyperlink ref="K34" r:id="rId22"/>
+    <hyperlink ref="K35" r:id="rId23"/>
+    <hyperlink ref="K36" r:id="rId24"/>
+    <hyperlink ref="K37" r:id="rId25"/>
+    <hyperlink ref="K38" r:id="rId26"/>
+    <hyperlink ref="K39" r:id="rId27"/>
+    <hyperlink ref="K40" r:id="rId28"/>
+    <hyperlink ref="K41" r:id="rId29"/>
+    <hyperlink ref="K42" r:id="rId30"/>
+    <hyperlink ref="K43" r:id="rId31"/>
+    <hyperlink ref="K44" r:id="rId32"/>
+    <hyperlink ref="K45" r:id="rId33"/>
+    <hyperlink ref="K46" r:id="rId34"/>
+    <hyperlink ref="K47" r:id="rId35"/>
+    <hyperlink ref="K48" r:id="rId36"/>
+    <hyperlink ref="K51" r:id="rId37"/>
+    <hyperlink ref="K52" r:id="rId38"/>
+    <hyperlink ref="K53" r:id="rId39"/>
+    <hyperlink ref="K54" r:id="rId40"/>
+    <hyperlink ref="K55" r:id="rId41" display="1x 310mm 220V 750W"/>
+    <hyperlink ref="O56" r:id="rId42"/>
+    <hyperlink ref="K57" r:id="rId43"/>
+    <hyperlink ref="K60" r:id="rId44"/>
+    <hyperlink ref="K61" r:id="rId45"/>
+    <hyperlink ref="K62" r:id="rId46"/>
+    <hyperlink ref="K63" r:id="rId47"/>
+    <hyperlink ref="K64" r:id="rId48"/>
+    <hyperlink ref="K65" r:id="rId49"/>
+    <hyperlink ref="K66" r:id="rId50"/>
+    <hyperlink ref="K67" r:id="rId51"/>
+    <hyperlink ref="K68" r:id="rId52"/>
+    <hyperlink ref="K69" r:id="rId53"/>
+    <hyperlink ref="K70" r:id="rId54"/>
+    <hyperlink ref="K71" r:id="rId55"/>
+    <hyperlink ref="K16" r:id="rId56"/>
+    <hyperlink ref="K17" r:id="rId57"/>
+    <hyperlink ref="K18" r:id="rId58"/>
+    <hyperlink ref="K80" r:id="rId59"/>
+    <hyperlink ref="K81" r:id="rId60"/>
+    <hyperlink ref="K82" r:id="rId61"/>
+    <hyperlink ref="K83" r:id="rId62"/>
+    <hyperlink ref="K84" r:id="rId63"/>
+    <hyperlink ref="K85" r:id="rId64"/>
+    <hyperlink ref="K86" r:id="rId65"/>
+    <hyperlink ref="K87" r:id="rId66"/>
+    <hyperlink ref="K88" r:id="rId67"/>
+    <hyperlink ref="K89" r:id="rId68"/>
+    <hyperlink ref="K90" r:id="rId69"/>
+    <hyperlink ref="K91" r:id="rId70"/>
+    <hyperlink ref="K92" r:id="rId71"/>
+    <hyperlink ref="K93" r:id="rId72"/>
+    <hyperlink ref="K94" r:id="rId73"/>
+    <hyperlink ref="K95" r:id="rId74"/>
+    <hyperlink ref="K96" r:id="rId75"/>
+    <hyperlink ref="K97" r:id="rId76"/>
+    <hyperlink ref="K98" r:id="rId77"/>
+    <hyperlink ref="K99" r:id="rId78"/>
+    <hyperlink ref="K100" r:id="rId79"/>
+    <hyperlink ref="K101" r:id="rId80"/>
+    <hyperlink ref="K102" r:id="rId81"/>
+    <hyperlink ref="K103" r:id="rId82"/>
+    <hyperlink ref="K105" r:id="rId83"/>
+    <hyperlink ref="K106" r:id="rId84"/>
+    <hyperlink ref="K107" r:id="rId85"/>
+    <hyperlink ref="K49" r:id="rId86"/>
+    <hyperlink ref="K104" r:id="rId87"/>
+    <hyperlink ref="O15" r:id="rId88" display="Color: 2040-8 hole"/>
+    <hyperlink ref="K58" r:id="rId89"/>
+    <hyperlink ref="K59" r:id="rId90"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId91"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_B1EE2D6939D15B17C21F420868F9B71A58448DE0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{273232A1-0CF6-41B5-B6ED-9BF973ACD46D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11040"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Final Stage" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Final Stage'!$A$9:$N$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Final Stage'!$A$9:$N$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,13 +38,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Roy Berntsen</author>
   </authors>
   <commentList>
-    <comment ref="G9" authorId="0">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="1">
+    <comment ref="P10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="1">
+    <comment ref="P11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="1">
+    <comment ref="P12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -167,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="1">
+    <comment ref="P13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="1">
+    <comment ref="P14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O15" authorId="1">
+    <comment ref="O15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D52" authorId="0">
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P55" authorId="0">
+    <comment ref="P57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -287,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K70" authorId="0">
+    <comment ref="K72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K80" authorId="1">
+    <comment ref="K82" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P82" authorId="0">
+    <comment ref="P84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P83" authorId="0">
+    <comment ref="P85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P84" authorId="0">
+    <comment ref="P86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -366,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P85" authorId="0">
+    <comment ref="P87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -379,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P86" authorId="0">
+    <comment ref="P88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -392,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P90" authorId="0">
+    <comment ref="P92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -405,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P91" authorId="0">
+    <comment ref="P93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -418,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P92" authorId="0">
+    <comment ref="P94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -431,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P95" authorId="0">
+    <comment ref="P97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P96" authorId="0">
+    <comment ref="P98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -457,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P97" authorId="0">
+    <comment ref="P99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -470,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P98" authorId="0">
+    <comment ref="P100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -483,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P99" authorId="0">
+    <comment ref="P101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -496,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P100" authorId="0">
+    <comment ref="P102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -509,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P101" authorId="0">
+    <comment ref="P103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -522,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P103" authorId="0">
+    <comment ref="P105" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -545,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="312">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -1485,19 +1491,49 @@
   <si>
     <t>Precision Cut</t>
   </si>
+  <si>
+    <t>Drying Agent</t>
+  </si>
+  <si>
+    <t>Desiccant</t>
+  </si>
+  <si>
+    <t>Silica Gel</t>
+  </si>
+  <si>
+    <t>1x 500g Orange Desiicant</t>
+  </si>
+  <si>
+    <t>Boom Garden Store</t>
+  </si>
+  <si>
+    <t>M3 WASHER</t>
+  </si>
+  <si>
+    <t>125 </t>
+  </si>
+  <si>
+    <t>1x: M3 50pcs</t>
+  </si>
+  <si>
+    <t>1x 20PCS cup head washer</t>
+  </si>
+  <si>
+    <t>Cup Washer for Outer Panels</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1648,6 +1684,20 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1834,10 +1884,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1849,22 +1900,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1885,11 +1936,11 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1910,35 +1961,35 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,11 +1997,11 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1969,11 +2020,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1986,8 +2037,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
@@ -2051,7 +2122,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2110,7 +2181,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2246,7 +2317,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,25 +2346,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:P108" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
-  <autoFilter ref="A9:P108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A9:P111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="A9:P111" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="System" dataDxfId="15"/>
-    <tableColumn id="2" name="Category" dataDxfId="14"/>
-    <tableColumn id="3" name="Part Type" dataDxfId="13"/>
-    <tableColumn id="4" name="Description" dataDxfId="12"/>
-    <tableColumn id="5" name="Cut Length mm" dataDxfId="11"/>
-    <tableColumn id="6" name="Total mm" dataDxfId="10"/>
-    <tableColumn id="7" name="BOM Quantity" dataDxfId="9"/>
-    <tableColumn id="8" name="Pack Price $" dataDxfId="8"/>
-    <tableColumn id="9" name="Pack Order Quantity" dataDxfId="7"/>
-    <tableColumn id="10" name="Line Price $" dataDxfId="6"/>
-    <tableColumn id="11" name="Order Parts Link" dataDxfId="5"/>
-    <tableColumn id="12" name="Supplier" dataDxfId="4"/>
-    <tableColumn id="13" name="DIN" dataDxfId="3"/>
-    <tableColumn id="14" name="ISO" dataDxfId="2"/>
-    <tableColumn id="15" name="Option" dataDxfId="1"/>
-    <tableColumn id="16" name="Note" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Type" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cut Length mm" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Total mm" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BOM Quantity" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pack Price $" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pack Order Quantity" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Line Price $" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Order Parts Link" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DIN" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="ISO" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Option" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2496,15 +2567,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z109"/>
+  <dimension ref="A1:Z112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2592,8 +2663,8 @@
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
       <c r="J8" s="63">
-        <f>J109</f>
-        <v>1809.2199999999998</v>
+        <f>J112</f>
+        <v>1839.4599999999998</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="10"/>
@@ -2748,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="31">
-        <f t="shared" ref="J11:J64" si="1">I11*H11</f>
+        <f t="shared" ref="J11:J66" si="1">I11*H11</f>
         <v>9.5</v>
       </c>
       <c r="K11" s="36" t="s">
@@ -4338,83 +4409,79 @@
       <c r="O49" s="54"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="39">
-        <v>1</v>
-      </c>
-      <c r="H50" s="31">
-        <v>12</v>
-      </c>
-      <c r="I50" s="39">
+    <row r="50" spans="1:16" s="90" customFormat="1">
+      <c r="A50" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="92">
+        <v>8</v>
+      </c>
+      <c r="I50" s="91">
         <v>1</v>
       </c>
       <c r="J50" s="31">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K50" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="L50" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="35"/>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="39">
-        <v>1</v>
-      </c>
-      <c r="H51" s="31">
-        <v>70</v>
-      </c>
-      <c r="I51" s="39">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K50" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="L50" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="M50" s="95"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="96"/>
+      <c r="P50" s="97"/>
+    </row>
+    <row r="51" spans="1:16" s="90" customFormat="1">
+      <c r="A51" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="92">
+        <v>0.74</v>
+      </c>
+      <c r="I51" s="91">
+        <v>1</v>
       </c>
       <c r="J51" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="L51" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="54"/>
-      <c r="P51" s="35"/>
+        <v>0.74</v>
+      </c>
+      <c r="K51" s="93" t="s">
+        <v>309</v>
+      </c>
+      <c r="L51" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="98" t="s">
+        <v>308</v>
+      </c>
+      <c r="N51" s="95"/>
+      <c r="O51" s="96"/>
+      <c r="P51" s="97"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="26" t="s">
@@ -4424,10 +4491,10 @@
         <v>122</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E52" s="27"/>
       <c r="F52" s="30"/>
@@ -4435,20 +4502,20 @@
         <v>1</v>
       </c>
       <c r="H52" s="31">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I52" s="39">
         <v>1</v>
       </c>
       <c r="J52" s="31">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L52" s="33" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M52" s="34"/>
       <c r="N52" s="34"/>
@@ -4463,10 +4530,10 @@
         <v>122</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="30"/>
@@ -4474,20 +4541,20 @@
         <v>1</v>
       </c>
       <c r="H53" s="31">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I53" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="31">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K53" s="36" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L53" s="33" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M53" s="40"/>
       <c r="N53" s="40"/>
@@ -4502,10 +4569,10 @@
         <v>122</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E54" s="27"/>
       <c r="F54" s="30"/>
@@ -4513,20 +4580,20 @@
         <v>1</v>
       </c>
       <c r="H54" s="31">
-        <v>7.5</v>
+        <v>71</v>
       </c>
       <c r="I54" s="39">
         <v>1</v>
       </c>
       <c r="J54" s="31">
         <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="K54" s="36" t="s">
-        <v>140</v>
+        <v>71</v>
+      </c>
+      <c r="K54" s="32" t="s">
+        <v>132</v>
       </c>
       <c r="L54" s="33" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M54" s="34"/>
       <c r="N54" s="34"/>
@@ -4541,40 +4608,36 @@
         <v>122</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="E55" s="27">
-        <v>310</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E55" s="27"/>
       <c r="F55" s="30"/>
       <c r="G55" s="39">
         <v>1</v>
       </c>
       <c r="H55" s="31">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I55" s="39">
         <v>1</v>
       </c>
       <c r="J55" s="31">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K55" s="36" t="s">
-        <v>290</v>
+        <v>136</v>
       </c>
       <c r="L55" s="33" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M55" s="40"/>
       <c r="N55" s="40"/>
       <c r="O55" s="54"/>
-      <c r="P55" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="P55" s="35"/>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="26" t="s">
@@ -4587,113 +4650,119 @@
         <v>138</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E56" s="27"/>
       <c r="F56" s="30"/>
       <c r="G56" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56" s="31">
-        <v>18</v>
+        <v>7.5</v>
       </c>
       <c r="I56" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" s="31">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="K56" s="32" t="s">
-        <v>145</v>
+        <v>7.5</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>140</v>
       </c>
       <c r="L56" s="33" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="M56" s="34"/>
       <c r="N56" s="34"/>
-      <c r="O56" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="P56" s="44"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="35"/>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="26" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B57" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="E57" s="27"/>
+        <v>289</v>
+      </c>
+      <c r="E57" s="27">
+        <v>310</v>
+      </c>
       <c r="F57" s="30"/>
       <c r="G57" s="39">
         <v>1</v>
       </c>
       <c r="H57" s="31">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I57" s="39">
         <v>1</v>
       </c>
       <c r="J57" s="31">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K57" s="36" t="s">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="L57" s="33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M57" s="40"/>
       <c r="N57" s="40"/>
       <c r="O57" s="54"/>
-      <c r="P57" s="35"/>
-    </row>
-    <row r="58" spans="1:16" s="4" customFormat="1">
+      <c r="P57" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="26" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B58" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>294</v>
+        <v>144</v>
       </c>
       <c r="E58" s="27"/>
       <c r="F58" s="30"/>
       <c r="G58" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H58" s="31">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I58" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" s="31">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="K58" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="L58" s="33"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="35"/>
-    </row>
-    <row r="59" spans="1:16" s="4" customFormat="1">
+        <v>145</v>
+      </c>
+      <c r="L58" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="P58" s="44"/>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="26" t="s">
         <v>147</v>
       </c>
@@ -4701,10 +4770,10 @@
         <v>122</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>293</v>
+        <v>148</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c r="E59" s="27"/>
       <c r="F59" s="30"/>
@@ -4712,36 +4781,38 @@
         <v>1</v>
       </c>
       <c r="H59" s="31">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I59" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="L59" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="K59" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="L59" s="33" t="s">
+        <v>141</v>
+      </c>
       <c r="M59" s="40"/>
       <c r="N59" s="40"/>
       <c r="O59" s="54"/>
       <c r="P59" s="35"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" s="4" customFormat="1">
       <c r="A60" s="26" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="B60" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>151</v>
+        <v>293</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c r="E60" s="27"/>
       <c r="F60" s="30"/>
@@ -4749,38 +4820,36 @@
         <v>1</v>
       </c>
       <c r="H60" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" s="39">
         <v>1</v>
       </c>
       <c r="J60" s="31">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="L60" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
+        <v>295</v>
+      </c>
+      <c r="L60" s="33"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
       <c r="O60" s="54"/>
       <c r="P60" s="35"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" s="4" customFormat="1">
       <c r="A61" s="26" t="s">
         <v>147</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="E61" s="27"/>
       <c r="F61" s="30"/>
@@ -4788,21 +4857,19 @@
         <v>1</v>
       </c>
       <c r="H61" s="31">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="I61" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="31">
         <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="K61" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="L61" s="33" t="s">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K61" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L61" s="33"/>
       <c r="M61" s="40"/>
       <c r="N61" s="40"/>
       <c r="O61" s="54"/>
@@ -4810,16 +4877,16 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="26" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E62" s="27"/>
       <c r="F62" s="30"/>
@@ -4827,20 +4894,20 @@
         <v>1</v>
       </c>
       <c r="H62" s="31">
-        <v>72.709999999999994</v>
+        <v>3</v>
       </c>
       <c r="I62" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="36" t="s">
-        <v>160</v>
+        <v>3</v>
+      </c>
+      <c r="K62" s="32" t="s">
+        <v>153</v>
       </c>
       <c r="L62" s="33" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M62" s="34"/>
       <c r="N62" s="34"/>
@@ -4855,10 +4922,10 @@
         <v>155</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E63" s="27"/>
       <c r="F63" s="30"/>
@@ -4866,17 +4933,17 @@
         <v>1</v>
       </c>
       <c r="H63" s="31">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="I63" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L63" s="33" t="s">
         <v>141</v>
@@ -4894,10 +4961,10 @@
         <v>155</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E64" s="27"/>
       <c r="F64" s="30"/>
@@ -4905,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="31">
-        <v>100</v>
+        <v>72.709999999999994</v>
       </c>
       <c r="I64" s="39">
         <v>0</v>
@@ -4914,8 +4981,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K64" s="32" t="s">
-        <v>164</v>
+      <c r="K64" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="L64" s="33" t="s">
         <v>141</v>
@@ -4936,7 +5003,7 @@
         <v>155</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E65" s="27"/>
       <c r="F65" s="30"/>
@@ -4944,20 +5011,20 @@
         <v>1</v>
       </c>
       <c r="H65" s="31">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I65" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="31">
-        <f t="shared" ref="J65:J102" si="2">I65*H65</f>
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K65" s="36" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L65" s="33" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="M65" s="40"/>
       <c r="N65" s="40"/>
@@ -4966,38 +5033,34 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="26" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="E66" s="27">
-        <v>1000</v>
-      </c>
-      <c r="F66" s="30">
-        <v>8000</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E66" s="27"/>
+      <c r="F66" s="30"/>
       <c r="G66" s="39">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H66" s="31">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="I66" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="31">
-        <f t="shared" si="2"/>
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L66" s="33" t="s">
         <v>141</v>
@@ -5009,37 +5072,37 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="26" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E67" s="27"/>
       <c r="F67" s="30"/>
       <c r="G67" s="39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H67" s="31">
-        <v>4.0999999999999996</v>
+        <v>70</v>
       </c>
       <c r="I67" s="39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J67" s="31">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f t="shared" ref="J67:J104" si="2">I67*H67</f>
+        <v>70</v>
       </c>
       <c r="K67" s="36" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L67" s="33" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M67" s="40"/>
       <c r="N67" s="40"/>
@@ -5054,31 +5117,35 @@
         <v>168</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D68" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E68" s="27"/>
-      <c r="F68" s="30"/>
+        <v>170</v>
+      </c>
+      <c r="E68" s="27">
+        <v>1000</v>
+      </c>
+      <c r="F68" s="30">
+        <v>8000</v>
+      </c>
       <c r="G68" s="39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H68" s="31">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="I68" s="39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J68" s="31">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="K68" s="36" t="s">
-        <v>177</v>
+        <v>39</v>
+      </c>
+      <c r="K68" s="32" t="s">
+        <v>171</v>
       </c>
       <c r="L68" s="33" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="M68" s="34"/>
       <c r="N68" s="34"/>
@@ -5093,28 +5160,28 @@
         <v>168</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E69" s="27"/>
       <c r="F69" s="30"/>
       <c r="G69" s="39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H69" s="31">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I69" s="39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J69" s="31">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="K69" s="36" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L69" s="33" t="s">
         <v>175</v>
@@ -5132,35 +5199,31 @@
         <v>168</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E70" s="27">
-        <v>200</v>
-      </c>
-      <c r="F70" s="30">
-        <v>600</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="E70" s="27"/>
+      <c r="F70" s="30"/>
       <c r="G70" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H70" s="31">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I70" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J70" s="31">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="K70" s="32" t="s">
-        <v>183</v>
+        <v>30</v>
+      </c>
+      <c r="K70" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="L70" s="33" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="M70" s="34"/>
       <c r="N70" s="34"/>
@@ -5175,10 +5238,10 @@
         <v>168</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E71" s="27"/>
       <c r="F71" s="30"/>
@@ -5186,101 +5249,105 @@
         <v>5</v>
       </c>
       <c r="H71" s="31">
-        <v>14.5</v>
+        <v>4</v>
       </c>
       <c r="I71" s="39">
         <v>5</v>
       </c>
       <c r="J71" s="31">
         <f t="shared" si="2"/>
-        <v>72.5</v>
+        <v>20</v>
       </c>
       <c r="K71" s="36" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="L71" s="33" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="M71" s="40"/>
       <c r="N71" s="40"/>
-      <c r="O71" s="56"/>
+      <c r="O71" s="54"/>
       <c r="P71" s="35"/>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="26" t="s">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="E72" s="27"/>
-      <c r="F72" s="30"/>
+        <v>182</v>
+      </c>
+      <c r="E72" s="27">
+        <v>200</v>
+      </c>
+      <c r="F72" s="30">
+        <v>600</v>
+      </c>
       <c r="G72" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72" s="31">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I72" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72" s="31">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="K72" s="36" t="s">
-        <v>200</v>
+        <v>48</v>
+      </c>
+      <c r="K72" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="L72" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="56"/>
+        <v>184</v>
+      </c>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="54"/>
       <c r="P72" s="35"/>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="26" t="s">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E73" s="27"/>
       <c r="F73" s="30"/>
       <c r="G73" s="39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H73" s="31">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="I73" s="39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J73" s="31">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="K73" s="32" t="s">
-        <v>200</v>
+        <v>72.5</v>
+      </c>
+      <c r="K73" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="L73" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="M73" s="34"/>
-      <c r="N73" s="34"/>
+        <v>188</v>
+      </c>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
       <c r="O73" s="56"/>
       <c r="P73" s="35"/>
     </row>
@@ -5292,10 +5359,10 @@
         <v>197</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E74" s="27"/>
       <c r="F74" s="30"/>
@@ -5303,14 +5370,14 @@
         <v>1</v>
       </c>
       <c r="H74" s="31">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I74" s="39">
         <v>1</v>
       </c>
       <c r="J74" s="31">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K74" s="36" t="s">
         <v>200</v>
@@ -5331,25 +5398,25 @@
         <v>197</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E75" s="27"/>
       <c r="F75" s="30"/>
       <c r="G75" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" s="31">
         <v>20</v>
       </c>
       <c r="I75" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" s="31">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K75" s="32" t="s">
         <v>200</v>
@@ -5370,10 +5437,10 @@
         <v>197</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E76" s="27"/>
       <c r="F76" s="30"/>
@@ -5381,14 +5448,14 @@
         <v>1</v>
       </c>
       <c r="H76" s="31">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I76" s="39">
         <v>1</v>
       </c>
       <c r="J76" s="31">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K76" s="36" t="s">
         <v>200</v>
@@ -5403,13 +5470,13 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="26" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D77" s="38" t="s">
         <v>200</v>
@@ -5417,19 +5484,19 @@
       <c r="E77" s="27"/>
       <c r="F77" s="30"/>
       <c r="G77" s="39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77" s="31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I77" s="39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J77" s="31">
         <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="K77" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="32" t="s">
         <v>200</v>
       </c>
       <c r="L77" s="33" t="s">
@@ -5442,31 +5509,31 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="26" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D78" s="43" t="s">
-        <v>283</v>
+        <v>206</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>200</v>
       </c>
       <c r="E78" s="27"/>
       <c r="F78" s="30"/>
       <c r="G78" s="39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H78" s="31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I78" s="39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J78" s="31">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="K78" s="36" t="s">
         <v>200</v>
@@ -5484,30 +5551,30 @@
         <v>207</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="D79" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" s="38" t="s">
         <v>200</v>
       </c>
       <c r="E79" s="27"/>
       <c r="F79" s="30"/>
       <c r="G79" s="39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H79" s="31">
         <v>25</v>
       </c>
       <c r="I79" s="39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J79" s="31">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="K79" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="K79" s="36" t="s">
         <v>200</v>
       </c>
       <c r="L79" s="33" t="s">
@@ -5520,173 +5587,163 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="26" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="D80" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="E80" s="27">
-        <v>350</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="E80" s="27"/>
       <c r="F80" s="30"/>
       <c r="G80" s="39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H80" s="31">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I80" s="39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J80" s="31">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="K80" s="36" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="L80" s="33" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="M80" s="40"/>
       <c r="N80" s="40"/>
-      <c r="O80" s="57"/>
+      <c r="O80" s="56"/>
       <c r="P80" s="35"/>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C81" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="E81" s="27">
-        <v>350</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E81" s="27"/>
       <c r="F81" s="30"/>
       <c r="G81" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="31">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I81" s="39">
         <v>1</v>
       </c>
       <c r="J81" s="31">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="L81" s="33" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="M81" s="34"/>
       <c r="N81" s="34"/>
       <c r="O81" s="56"/>
-      <c r="P81" s="45"/>
+      <c r="P81" s="35"/>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="26" t="s">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="D82" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" s="27"/>
+        <v>212</v>
+      </c>
+      <c r="E82" s="27">
+        <v>350</v>
+      </c>
       <c r="F82" s="30"/>
       <c r="G82" s="39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H82" s="31">
-        <f>2.28</f>
-        <v>2.2799999999999998</v>
+        <v>10</v>
       </c>
       <c r="I82" s="39">
         <v>1</v>
       </c>
       <c r="J82" s="31">
         <f t="shared" si="2"/>
-        <v>2.2799999999999998</v>
+        <v>10</v>
       </c>
       <c r="K82" s="36" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L82" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M82" s="40">
-        <v>7991</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M82" s="40"/>
       <c r="N82" s="40"/>
-      <c r="O82" s="56"/>
-      <c r="P82" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="O82" s="57"/>
+      <c r="P82" s="35"/>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="E83" s="27"/>
+        <v>215</v>
+      </c>
+      <c r="E83" s="27">
+        <v>350</v>
+      </c>
       <c r="F83" s="30"/>
       <c r="G83" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" s="31">
-        <f>4.51</f>
-        <v>4.51</v>
+        <v>22</v>
       </c>
       <c r="I83" s="39">
         <v>1</v>
       </c>
       <c r="J83" s="31">
         <f t="shared" si="2"/>
-        <v>4.51</v>
-      </c>
-      <c r="K83" s="36" t="s">
-        <v>221</v>
+        <v>22</v>
+      </c>
+      <c r="K83" s="32" t="s">
+        <v>216</v>
       </c>
       <c r="L83" s="33" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="M83" s="34"/>
-      <c r="N83" s="34">
-        <v>7380</v>
-      </c>
-      <c r="O83" s="58"/>
-      <c r="P83" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="N83" s="34"/>
+      <c r="O83" s="56"/>
+      <c r="P83" s="45"/>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="26" t="s">
@@ -5696,38 +5753,38 @@
         <v>76</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E84" s="27"/>
       <c r="F84" s="30"/>
       <c r="G84" s="39">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H84" s="31">
-        <f>0.49</f>
-        <v>0.49</v>
+        <f>2.28</f>
+        <v>2.2799999999999998</v>
       </c>
       <c r="I84" s="39">
         <v>1</v>
       </c>
       <c r="J84" s="31">
         <f t="shared" si="2"/>
-        <v>0.49</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="K84" s="36" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L84" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="M84" s="40"/>
-      <c r="N84" s="40">
-        <v>10511</v>
-      </c>
-      <c r="O84" s="58"/>
+      <c r="M84" s="40">
+        <v>7991</v>
+      </c>
+      <c r="N84" s="40"/>
+      <c r="O84" s="56"/>
       <c r="P84" s="44" t="s">
         <v>22</v>
       </c>
@@ -5743,7 +5800,7 @@
         <v>81</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="E85" s="27"/>
       <c r="F85" s="30"/>
@@ -5751,18 +5808,18 @@
         <v>3</v>
       </c>
       <c r="H85" s="31">
-        <f>0.99</f>
-        <v>0.99</v>
+        <f>4.51</f>
+        <v>4.51</v>
       </c>
       <c r="I85" s="39">
         <v>1</v>
       </c>
       <c r="J85" s="31">
         <f t="shared" si="2"/>
-        <v>0.99</v>
-      </c>
-      <c r="K85" s="32" t="s">
-        <v>224</v>
+        <v>4.51</v>
+      </c>
+      <c r="K85" s="36" t="s">
+        <v>221</v>
       </c>
       <c r="L85" s="33" t="s">
         <v>59</v>
@@ -5771,7 +5828,7 @@
       <c r="N85" s="34">
         <v>7380</v>
       </c>
-      <c r="O85" s="56"/>
+      <c r="O85" s="58"/>
       <c r="P85" s="44" t="s">
         <v>22</v>
       </c>
@@ -5784,38 +5841,38 @@
         <v>76</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E86" s="27"/>
       <c r="F86" s="30"/>
       <c r="G86" s="39">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H86" s="31">
-        <f>5.01</f>
-        <v>5.01</v>
+        <f>0.49</f>
+        <v>0.49</v>
       </c>
       <c r="I86" s="39">
         <v>1</v>
       </c>
       <c r="J86" s="31">
         <f t="shared" si="2"/>
-        <v>5.01</v>
+        <v>0.49</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L86" s="33" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="M86" s="40"/>
       <c r="N86" s="40">
         <v>10511</v>
       </c>
-      <c r="O86" s="56"/>
+      <c r="O86" s="58"/>
       <c r="P86" s="44" t="s">
         <v>22</v>
       </c>
@@ -5831,34 +5888,38 @@
         <v>81</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>228</v>
+        <v>82</v>
       </c>
       <c r="E87" s="27"/>
       <c r="F87" s="30"/>
       <c r="G87" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87" s="31">
-        <f>13.5</f>
-        <v>13.5</v>
+        <f>0.99</f>
+        <v>0.99</v>
       </c>
       <c r="I87" s="39">
         <v>1</v>
       </c>
       <c r="J87" s="31">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>0.99</v>
       </c>
       <c r="K87" s="32" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L87" s="33" t="s">
         <v>59</v>
       </c>
       <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="58"/>
-      <c r="P87" s="35"/>
+      <c r="N87" s="34">
+        <v>7380</v>
+      </c>
+      <c r="O87" s="56"/>
+      <c r="P87" s="44" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="26" t="s">
@@ -5868,50 +5929,54 @@
         <v>76</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E88" s="27"/>
       <c r="F88" s="30"/>
       <c r="G88" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H88" s="31">
-        <f>2.03+1.59</f>
-        <v>3.62</v>
+        <f>5.01</f>
+        <v>5.01</v>
       </c>
       <c r="I88" s="39">
         <v>1</v>
       </c>
       <c r="J88" s="31">
         <f t="shared" si="2"/>
-        <v>3.62</v>
+        <v>5.01</v>
       </c>
       <c r="K88" s="36" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L88" s="33" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M88" s="40"/>
-      <c r="N88" s="40"/>
+      <c r="N88" s="40">
+        <v>10511</v>
+      </c>
       <c r="O88" s="56"/>
-      <c r="P88" s="35"/>
+      <c r="P88" s="44" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E89" s="27"/>
       <c r="F89" s="30"/>
@@ -5919,24 +5984,25 @@
         <v>1</v>
       </c>
       <c r="H89" s="31">
-        <v>3</v>
+        <f>13.5</f>
+        <v>13.5</v>
       </c>
       <c r="I89" s="39">
         <v>1</v>
       </c>
       <c r="J89" s="31">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K89" s="36" t="s">
-        <v>236</v>
+        <v>13.5</v>
+      </c>
+      <c r="K89" s="32" t="s">
+        <v>229</v>
       </c>
       <c r="L89" s="33" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
       <c r="M89" s="34"/>
       <c r="N89" s="34"/>
-      <c r="O89" s="56"/>
+      <c r="O89" s="58"/>
       <c r="P89" s="35"/>
     </row>
     <row r="90" spans="1:16">
@@ -5947,10 +6013,10 @@
         <v>76</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="D90" s="38" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E90" s="27"/>
       <c r="F90" s="30"/>
@@ -5958,41 +6024,39 @@
         <v>1</v>
       </c>
       <c r="H90" s="31">
-        <f>3.11+1.67</f>
-        <v>4.7799999999999994</v>
+        <f>2.03+1.59</f>
+        <v>3.62</v>
       </c>
       <c r="I90" s="39">
         <v>1</v>
       </c>
       <c r="J90" s="31">
         <f t="shared" si="2"/>
-        <v>4.7799999999999994</v>
+        <v>3.62</v>
       </c>
       <c r="K90" s="36" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="L90" s="33" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M90" s="40"/>
       <c r="N90" s="40"/>
       <c r="O90" s="56"/>
-      <c r="P90" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="P90" s="35"/>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E91" s="27"/>
       <c r="F91" s="30"/>
@@ -6000,29 +6064,25 @@
         <v>1</v>
       </c>
       <c r="H91" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91" s="39">
         <v>1</v>
       </c>
       <c r="J91" s="31">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K91" s="32" t="s">
-        <v>242</v>
+        <v>3</v>
+      </c>
+      <c r="K91" s="36" t="s">
+        <v>236</v>
       </c>
       <c r="L91" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M91" s="34">
-        <v>7991</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M91" s="34"/>
       <c r="N91" s="34"/>
       <c r="O91" s="56"/>
-      <c r="P91" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="P91" s="35"/>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="26" t="s">
@@ -6032,36 +6092,34 @@
         <v>76</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E92" s="27"/>
       <c r="F92" s="30"/>
       <c r="G92" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" s="31">
-        <f>2.5</f>
-        <v>2.5</v>
+        <f>3.11+1.67</f>
+        <v>4.7799999999999994</v>
       </c>
       <c r="I92" s="39">
         <v>1</v>
       </c>
       <c r="J92" s="31">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="K92" s="36" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L92" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M92" s="40">
-        <v>7991</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M92" s="40"/>
       <c r="N92" s="40"/>
       <c r="O92" s="56"/>
       <c r="P92" s="44" t="s">
@@ -6076,37 +6134,40 @@
         <v>76</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="30"/>
       <c r="G93" s="39">
+        <v>1</v>
+      </c>
+      <c r="H93" s="31">
         <v>2</v>
-      </c>
-      <c r="H93" s="31">
-        <f>(2.8+1.51)</f>
-        <v>4.3099999999999996</v>
       </c>
       <c r="I93" s="39">
         <v>1</v>
       </c>
       <c r="J93" s="31">
         <f t="shared" si="2"/>
-        <v>4.3099999999999996</v>
+        <v>2</v>
       </c>
       <c r="K93" s="32" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L93" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="M93" s="34"/>
+        <v>59</v>
+      </c>
+      <c r="M93" s="34">
+        <v>7991</v>
+      </c>
       <c r="N93" s="34"/>
       <c r="O93" s="56"/>
-      <c r="P93" s="35"/>
+      <c r="P93" s="44" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="26" t="s">
@@ -6116,37 +6177,41 @@
         <v>76</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E94" s="27"/>
       <c r="F94" s="30"/>
       <c r="G94" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" s="31">
-        <f>1.72</f>
-        <v>1.72</v>
+        <f>2.5</f>
+        <v>2.5</v>
       </c>
       <c r="I94" s="39">
         <v>1</v>
       </c>
       <c r="J94" s="31">
         <f t="shared" si="2"/>
-        <v>1.72</v>
+        <v>2.5</v>
       </c>
       <c r="K94" s="36" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L94" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="M94" s="40"/>
+        <v>59</v>
+      </c>
+      <c r="M94" s="40">
+        <v>7991</v>
+      </c>
       <c r="N94" s="40"/>
       <c r="O94" s="56"/>
-      <c r="P94" s="35"/>
+      <c r="P94" s="44" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="26" t="s">
@@ -6156,39 +6221,37 @@
         <v>76</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>72</v>
+        <v>245</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E95" s="27"/>
       <c r="F95" s="30"/>
       <c r="G95" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" s="31">
-        <f>2.44</f>
-        <v>2.44</v>
+        <f>(2.8+1.51)</f>
+        <v>4.3099999999999996</v>
       </c>
       <c r="I95" s="39">
         <v>1</v>
       </c>
       <c r="J95" s="31">
         <f t="shared" si="2"/>
-        <v>2.44</v>
-      </c>
-      <c r="K95" s="36" t="s">
-        <v>254</v>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="K95" s="32" t="s">
+        <v>247</v>
       </c>
       <c r="L95" s="33" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="M95" s="34"/>
       <c r="N95" s="34"/>
       <c r="O95" s="56"/>
-      <c r="P95" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="P95" s="35"/>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="26" t="s">
@@ -6198,39 +6261,37 @@
         <v>76</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E96" s="27"/>
       <c r="F96" s="30"/>
       <c r="G96" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H96" s="31">
-        <f>2.38</f>
-        <v>2.38</v>
+        <f>1.72</f>
+        <v>1.72</v>
       </c>
       <c r="I96" s="39">
         <v>1</v>
       </c>
       <c r="J96" s="31">
         <f t="shared" si="2"/>
-        <v>2.38</v>
+        <v>1.72</v>
       </c>
       <c r="K96" s="36" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L96" s="33" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="M96" s="40"/>
       <c r="N96" s="40"/>
-      <c r="O96" s="58"/>
-      <c r="P96" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="O96" s="56"/>
+      <c r="P96" s="35"/>
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="26" t="s">
@@ -6240,32 +6301,32 @@
         <v>76</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>255</v>
+        <v>72</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E97" s="27"/>
       <c r="F97" s="30"/>
       <c r="G97" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H97" s="31">
-        <f>3.27</f>
-        <v>3.27</v>
+        <f>2.44</f>
+        <v>2.44</v>
       </c>
       <c r="I97" s="39">
         <v>1</v>
       </c>
       <c r="J97" s="31">
         <f t="shared" si="2"/>
-        <v>3.27</v>
-      </c>
-      <c r="K97" s="32" t="s">
-        <v>259</v>
+        <v>2.44</v>
+      </c>
+      <c r="K97" s="36" t="s">
+        <v>254</v>
       </c>
       <c r="L97" s="33" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="M97" s="34"/>
       <c r="N97" s="34"/>
@@ -6285,33 +6346,33 @@
         <v>255</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E98" s="27"/>
       <c r="F98" s="30"/>
       <c r="G98" s="39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H98" s="31">
-        <f>2.57</f>
-        <v>2.57</v>
+        <f>2.38</f>
+        <v>2.38</v>
       </c>
       <c r="I98" s="39">
         <v>1</v>
       </c>
       <c r="J98" s="31">
         <f t="shared" si="2"/>
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="K98" s="36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L98" s="33" t="s">
         <v>59</v>
       </c>
       <c r="M98" s="40"/>
       <c r="N98" s="40"/>
-      <c r="O98" s="56"/>
+      <c r="O98" s="58"/>
       <c r="P98" s="44" t="s">
         <v>22</v>
       </c>
@@ -6324,36 +6385,34 @@
         <v>76</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E99" s="27"/>
       <c r="F99" s="30"/>
       <c r="G99" s="39">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H99" s="31">
-        <f>2.75</f>
-        <v>2.75</v>
+        <f>3.27</f>
+        <v>3.27</v>
       </c>
       <c r="I99" s="39">
         <v>1</v>
       </c>
       <c r="J99" s="31">
         <f t="shared" si="2"/>
-        <v>2.75</v>
+        <v>3.27</v>
       </c>
       <c r="K99" s="32" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L99" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="M99" s="34">
-        <v>912</v>
-      </c>
+      <c r="M99" s="34"/>
       <c r="N99" s="34"/>
       <c r="O99" s="56"/>
       <c r="P99" s="44" t="s">
@@ -6368,37 +6427,35 @@
         <v>76</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="E100" s="27"/>
       <c r="F100" s="30"/>
       <c r="G100" s="39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H100" s="31">
-        <f>1.75</f>
-        <v>1.75</v>
+        <f>2.57</f>
+        <v>2.57</v>
       </c>
       <c r="I100" s="39">
         <v>1</v>
       </c>
       <c r="J100" s="31">
         <f t="shared" si="2"/>
-        <v>1.75</v>
+        <v>2.57</v>
       </c>
       <c r="K100" s="36" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L100" s="33" t="s">
         <v>59</v>
       </c>
       <c r="M100" s="40"/>
-      <c r="N100" s="40">
-        <v>7380</v>
-      </c>
+      <c r="N100" s="40"/>
       <c r="O100" s="56"/>
       <c r="P100" s="44" t="s">
         <v>22</v>
@@ -6409,36 +6466,39 @@
         <v>214</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E101" s="27"/>
       <c r="F101" s="30"/>
       <c r="G101" s="39">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H101" s="31">
-        <v>12</v>
+        <f>2.75</f>
+        <v>2.75</v>
       </c>
       <c r="I101" s="39">
         <v>1</v>
       </c>
       <c r="J101" s="31">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K101" s="36" t="s">
-        <v>265</v>
+        <v>2.75</v>
+      </c>
+      <c r="K101" s="32" t="s">
+        <v>262</v>
       </c>
       <c r="L101" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="M101" s="34"/>
+        <v>59</v>
+      </c>
+      <c r="M101" s="34">
+        <v>912</v>
+      </c>
       <c r="N101" s="34"/>
       <c r="O101" s="56"/>
       <c r="P101" s="44" t="s">
@@ -6450,39 +6510,44 @@
         <v>214</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="D102" s="38" t="s">
-        <v>267</v>
+        <v>85</v>
       </c>
       <c r="E102" s="27"/>
       <c r="F102" s="30"/>
       <c r="G102" s="39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H102" s="31">
-        <v>12</v>
+        <f>1.75</f>
+        <v>1.75</v>
       </c>
       <c r="I102" s="39">
         <v>1</v>
       </c>
       <c r="J102" s="31">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1.75</v>
       </c>
       <c r="K102" s="36" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L102" s="33" t="s">
-        <v>269</v>
+        <v>59</v>
       </c>
       <c r="M102" s="40"/>
-      <c r="N102" s="40"/>
+      <c r="N102" s="40">
+        <v>7380</v>
+      </c>
       <c r="O102" s="56"/>
-      <c r="P102" s="35"/>
+      <c r="P102" s="44" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="26" t="s">
@@ -6492,10 +6557,10 @@
         <v>122</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E103" s="27"/>
       <c r="F103" s="30"/>
@@ -6503,30 +6568,29 @@
         <v>1</v>
       </c>
       <c r="H103" s="31">
-        <f>(3+0.96)</f>
-        <v>3.96</v>
+        <v>12</v>
       </c>
       <c r="I103" s="39">
         <v>1</v>
       </c>
       <c r="J103" s="31">
-        <f t="shared" ref="J103:J106" si="3">I103*H103</f>
-        <v>3.96</v>
-      </c>
-      <c r="K103" s="32" t="s">
-        <v>271</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K103" s="36" t="s">
+        <v>265</v>
       </c>
       <c r="L103" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="M103" s="40"/>
-      <c r="N103" s="40"/>
+        <v>266</v>
+      </c>
+      <c r="M103" s="34"/>
+      <c r="N103" s="34"/>
       <c r="O103" s="56"/>
       <c r="P103" s="44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:26" s="4" customFormat="1">
+    <row r="104" spans="1:26">
       <c r="A104" s="26" t="s">
         <v>214</v>
       </c>
@@ -6534,34 +6598,36 @@
         <v>122</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="D104" s="38" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="E104" s="27"/>
       <c r="F104" s="30"/>
       <c r="G104" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H104" s="31">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="I104" s="39">
         <v>1</v>
       </c>
       <c r="J104" s="31">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="K104" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="L104" s="33"/>
+        <v>268</v>
+      </c>
+      <c r="L104" s="33" t="s">
+        <v>269</v>
+      </c>
       <c r="M104" s="40"/>
       <c r="N104" s="40"/>
       <c r="O104" s="56"/>
-      <c r="P104" s="44"/>
+      <c r="P104" s="35"/>
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="26" t="s">
@@ -6571,10 +6637,10 @@
         <v>122</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E105" s="27"/>
       <c r="F105" s="30"/>
@@ -6582,29 +6648,30 @@
         <v>1</v>
       </c>
       <c r="H105" s="31">
-        <v>12</v>
+        <f>(3+0.96)</f>
+        <v>3.96</v>
       </c>
       <c r="I105" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="J105:J108" si="3">I105*H105</f>
+        <v>3.96</v>
       </c>
       <c r="K105" s="32" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L105" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="M105" s="34"/>
-      <c r="N105" s="34"/>
-      <c r="O105" s="59"/>
-      <c r="P105" s="46" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26">
+        <v>272</v>
+      </c>
+      <c r="M105" s="40"/>
+      <c r="N105" s="40"/>
+      <c r="O105" s="56"/>
+      <c r="P105" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" s="4" customFormat="1">
       <c r="A106" s="26" t="s">
         <v>214</v>
       </c>
@@ -6612,51 +6679,47 @@
         <v>122</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>234</v>
+        <v>68</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="E106" s="27"/>
       <c r="F106" s="30"/>
       <c r="G106" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H106" s="31">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I106" s="39">
         <v>1</v>
       </c>
       <c r="J106" s="31">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K106" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="L106" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="M106" s="34"/>
-      <c r="N106" s="34"/>
-      <c r="O106" s="59"/>
-      <c r="P106" s="46" t="s">
-        <v>280</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="L106" s="33"/>
+      <c r="M106" s="40"/>
+      <c r="N106" s="40"/>
+      <c r="O106" s="56"/>
+      <c r="P106" s="44"/>
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="26" t="s">
         <v>214</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E107" s="27"/>
       <c r="F107" s="30"/>
@@ -6664,186 +6727,310 @@
         <v>1</v>
       </c>
       <c r="H107" s="31">
+        <v>12</v>
+      </c>
+      <c r="I107" s="39">
+        <v>0</v>
+      </c>
+      <c r="J107" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K107" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L107" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="M107" s="34"/>
+      <c r="N107" s="34"/>
+      <c r="O107" s="59"/>
+      <c r="P107" s="46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26">
+      <c r="A108" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D108" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="E108" s="27"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="39">
+        <v>1</v>
+      </c>
+      <c r="H108" s="31">
+        <v>4</v>
+      </c>
+      <c r="I108" s="39">
+        <v>1</v>
+      </c>
+      <c r="J108" s="31">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K108" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="L108" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="M108" s="34"/>
+      <c r="N108" s="34"/>
+      <c r="O108" s="59"/>
+      <c r="P108" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26">
+      <c r="A109" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="E109" s="27"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="39">
+        <v>1</v>
+      </c>
+      <c r="H109" s="31">
         <f>0.87</f>
         <v>0.87</v>
       </c>
-      <c r="I107" s="39">
-        <v>1</v>
-      </c>
-      <c r="J107" s="31">
-        <f>H107*I107</f>
+      <c r="I109" s="39">
+        <v>1</v>
+      </c>
+      <c r="J109" s="31">
+        <f>H109*I109</f>
         <v>0.87</v>
       </c>
-      <c r="K107" s="36" t="s">
+      <c r="K109" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="L107" s="33" t="s">
+      <c r="L109" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="M107" s="34"/>
-      <c r="N107" s="34"/>
-      <c r="O107" s="60"/>
-      <c r="P107" s="47" t="s">
+      <c r="M109" s="34"/>
+      <c r="N109" s="34"/>
+      <c r="O109" s="60"/>
+      <c r="P109" s="47" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A108" s="48"/>
-      <c r="B108" s="49"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="49"/>
-      <c r="J108" s="50"/>
-      <c r="K108" s="51"/>
-      <c r="L108" s="33"/>
-      <c r="M108" s="52"/>
-      <c r="N108" s="52"/>
-      <c r="O108" s="61"/>
-      <c r="P108" s="35"/>
-    </row>
-    <row r="109" spans="1:26" s="14" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A109" s="15"/>
-      <c r="B109" s="16" t="s">
+    <row r="110" spans="1:26" s="4" customFormat="1">
+      <c r="A110" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D110" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E110" s="27"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="39">
+        <v>1</v>
+      </c>
+      <c r="H110" s="31">
+        <v>21.5</v>
+      </c>
+      <c r="I110" s="39">
+        <v>1</v>
+      </c>
+      <c r="J110" s="31">
+        <f>H110*I110</f>
+        <v>21.5</v>
+      </c>
+      <c r="K110" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="L110" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="M110" s="34"/>
+      <c r="N110" s="34"/>
+      <c r="O110" s="60"/>
+      <c r="P110" s="47"/>
+    </row>
+    <row r="111" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A111" s="48"/>
+      <c r="B111" s="49"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="49"/>
+      <c r="J111" s="50"/>
+      <c r="K111" s="51"/>
+      <c r="L111" s="33"/>
+      <c r="M111" s="52"/>
+      <c r="N111" s="52"/>
+      <c r="O111" s="61"/>
+      <c r="P111" s="35"/>
+    </row>
+    <row r="112" spans="1:26" s="14" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A112" s="15"/>
+      <c r="B112" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C112" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="D112" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="64">
-        <f>SUM(J19:J108)</f>
-        <v>1809.2199999999998</v>
-      </c>
-      <c r="K109" s="17"/>
-      <c r="L109" s="19"/>
-      <c r="M109" s="20"/>
-      <c r="N109" s="20"/>
-      <c r="O109" s="19"/>
-      <c r="P109" s="21"/>
-      <c r="Q109" s="13"/>
-      <c r="R109" s="13"/>
-      <c r="S109" s="13"/>
-      <c r="T109" s="13"/>
-      <c r="U109" s="13"/>
-      <c r="V109" s="13"/>
-      <c r="W109" s="13"/>
-      <c r="X109" s="13"/>
-      <c r="Y109" s="13"/>
-      <c r="Z109" s="13"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="64">
+        <f>SUM(J19:J111)</f>
+        <v>1839.4599999999998</v>
+      </c>
+      <c r="K112" s="17"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="20"/>
+      <c r="O112" s="19"/>
+      <c r="P112" s="21"/>
+      <c r="Q112" s="13"/>
+      <c r="R112" s="13"/>
+      <c r="S112" s="13"/>
+      <c r="T112" s="13"/>
+      <c r="U112" s="13"/>
+      <c r="V112" s="13"/>
+      <c r="W112" s="13"/>
+      <c r="X112" s="13"/>
+      <c r="Y112" s="13"/>
+      <c r="Z112" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K10" r:id="rId1"/>
-    <hyperlink ref="K11" r:id="rId2"/>
-    <hyperlink ref="K12" r:id="rId3"/>
-    <hyperlink ref="K13" r:id="rId4"/>
-    <hyperlink ref="K14" r:id="rId5"/>
-    <hyperlink ref="K15" r:id="rId6" display="Color: 10pcs 2028"/>
-    <hyperlink ref="K19" r:id="rId7"/>
-    <hyperlink ref="K20" r:id="rId8"/>
-    <hyperlink ref="K21" r:id="rId9"/>
-    <hyperlink ref="K22" r:id="rId10"/>
-    <hyperlink ref="K23" r:id="rId11"/>
-    <hyperlink ref="K24" r:id="rId12"/>
-    <hyperlink ref="K25" r:id="rId13"/>
-    <hyperlink ref="K26" r:id="rId14"/>
-    <hyperlink ref="K27" r:id="rId15"/>
-    <hyperlink ref="K28" r:id="rId16"/>
-    <hyperlink ref="K29" r:id="rId17"/>
-    <hyperlink ref="K30" r:id="rId18" display="1x Size: 20-m3 50pcs"/>
-    <hyperlink ref="K31" r:id="rId19"/>
-    <hyperlink ref="K32" r:id="rId20"/>
-    <hyperlink ref="K33" r:id="rId21"/>
-    <hyperlink ref="K34" r:id="rId22"/>
-    <hyperlink ref="K35" r:id="rId23"/>
-    <hyperlink ref="K36" r:id="rId24"/>
-    <hyperlink ref="K37" r:id="rId25"/>
-    <hyperlink ref="K38" r:id="rId26"/>
-    <hyperlink ref="K39" r:id="rId27"/>
-    <hyperlink ref="K40" r:id="rId28"/>
-    <hyperlink ref="K41" r:id="rId29"/>
-    <hyperlink ref="K42" r:id="rId30"/>
-    <hyperlink ref="K43" r:id="rId31"/>
-    <hyperlink ref="K44" r:id="rId32"/>
-    <hyperlink ref="K45" r:id="rId33"/>
-    <hyperlink ref="K46" r:id="rId34"/>
-    <hyperlink ref="K47" r:id="rId35"/>
-    <hyperlink ref="K48" r:id="rId36"/>
-    <hyperlink ref="K51" r:id="rId37"/>
-    <hyperlink ref="K52" r:id="rId38"/>
-    <hyperlink ref="K53" r:id="rId39"/>
-    <hyperlink ref="K54" r:id="rId40"/>
-    <hyperlink ref="K55" r:id="rId41" display="1x 310mm 220V 750W"/>
-    <hyperlink ref="O56" r:id="rId42"/>
-    <hyperlink ref="K57" r:id="rId43"/>
-    <hyperlink ref="K60" r:id="rId44"/>
-    <hyperlink ref="K61" r:id="rId45"/>
-    <hyperlink ref="K62" r:id="rId46"/>
-    <hyperlink ref="K63" r:id="rId47"/>
-    <hyperlink ref="K64" r:id="rId48"/>
-    <hyperlink ref="K65" r:id="rId49"/>
-    <hyperlink ref="K66" r:id="rId50"/>
-    <hyperlink ref="K67" r:id="rId51"/>
-    <hyperlink ref="K68" r:id="rId52"/>
-    <hyperlink ref="K69" r:id="rId53"/>
-    <hyperlink ref="K70" r:id="rId54"/>
-    <hyperlink ref="K71" r:id="rId55"/>
-    <hyperlink ref="K16" r:id="rId56"/>
-    <hyperlink ref="K17" r:id="rId57"/>
-    <hyperlink ref="K18" r:id="rId58"/>
-    <hyperlink ref="K80" r:id="rId59"/>
-    <hyperlink ref="K81" r:id="rId60"/>
-    <hyperlink ref="K82" r:id="rId61"/>
-    <hyperlink ref="K83" r:id="rId62"/>
-    <hyperlink ref="K84" r:id="rId63"/>
-    <hyperlink ref="K85" r:id="rId64"/>
-    <hyperlink ref="K86" r:id="rId65"/>
-    <hyperlink ref="K87" r:id="rId66"/>
-    <hyperlink ref="K88" r:id="rId67"/>
-    <hyperlink ref="K89" r:id="rId68"/>
-    <hyperlink ref="K90" r:id="rId69"/>
-    <hyperlink ref="K91" r:id="rId70"/>
-    <hyperlink ref="K92" r:id="rId71"/>
-    <hyperlink ref="K93" r:id="rId72"/>
-    <hyperlink ref="K94" r:id="rId73"/>
-    <hyperlink ref="K95" r:id="rId74"/>
-    <hyperlink ref="K96" r:id="rId75"/>
-    <hyperlink ref="K97" r:id="rId76"/>
-    <hyperlink ref="K98" r:id="rId77"/>
-    <hyperlink ref="K99" r:id="rId78"/>
-    <hyperlink ref="K100" r:id="rId79"/>
-    <hyperlink ref="K101" r:id="rId80"/>
-    <hyperlink ref="K102" r:id="rId81"/>
-    <hyperlink ref="K103" r:id="rId82"/>
-    <hyperlink ref="K105" r:id="rId83"/>
-    <hyperlink ref="K106" r:id="rId84"/>
-    <hyperlink ref="K107" r:id="rId85"/>
-    <hyperlink ref="K49" r:id="rId86"/>
-    <hyperlink ref="K104" r:id="rId87"/>
-    <hyperlink ref="O15" r:id="rId88" display="Color: 2040-8 hole"/>
-    <hyperlink ref="K58" r:id="rId89"/>
-    <hyperlink ref="K59" r:id="rId90"/>
+    <hyperlink ref="K10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K15" r:id="rId6" display="Color: 10pcs 2028" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K30" r:id="rId18" display="1x Size: 20-m3 50pcs" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K38" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K39" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K40" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K41" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K53" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K54" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K57" r:id="rId41" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O58" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K59" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K62" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K63" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K64" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K65" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K71" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K72" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K73" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K16" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K17" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K18" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K82" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K83" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K84" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K85" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K86" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K87" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K88" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K89" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K90" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K91" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K92" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K93" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K94" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K95" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K96" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K97" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K98" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K99" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K100" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K101" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="K102" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="K103" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="K104" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="K105" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K107" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="K108" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="K109" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="K49" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="K106" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="O15" r:id="rId88" display="Color: 2040-8 hole" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="K60" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="K61" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="K110" r:id="rId91" xr:uid="{0F66774E-BA3F-46BF-9D25-049D76EAEA31}"/>
+    <hyperlink ref="K50" r:id="rId92" xr:uid="{2B0897CC-38A4-4451-82D7-546FD860F6EE}"/>
+    <hyperlink ref="K51" r:id="rId93" display="M3 ss washer" xr:uid="{F09A433A-365C-4A65-A20C-0C0EA79C5AAF}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId91"/>
-  <drawing r:id="rId92"/>
-  <legacyDrawing r:id="rId93"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId94"/>
+  <drawing r:id="rId95"/>
+  <legacyDrawing r:id="rId96"/>
   <tableParts count="1">
-    <tablePart r:id="rId94"/>
+    <tablePart r:id="rId97"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_B1EE2D6939D15B17C21F420868F9B71A58448DE0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{273232A1-0CF6-41B5-B6ED-9BF973ACD46D}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_B1EE2D6939D15B17C21F420868F9B71A58448DE0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B1C6E18-9AEF-4F9C-B2CF-B78384ABC9D8}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="314">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -1520,6 +1520,12 @@
   </si>
   <si>
     <t>Cup Washer for Outer Panels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VenstPow </t>
+  </si>
+  <si>
+    <t>PIR - Polyisocyanurate</t>
   </si>
 </sst>
 </file>
@@ -2034,9 +2040,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2055,6 +2058,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2600,24 +2606,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
@@ -2664,7 +2670,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="63">
         <f>J112</f>
-        <v>1839.4599999999998</v>
+        <v>1789.4599999999998</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="10"/>
@@ -3168,7 +3174,7 @@
         <v>41</v>
       </c>
       <c r="L19" s="83" t="s">
-        <v>28</v>
+        <v>312</v>
       </c>
       <c r="M19" s="84"/>
       <c r="N19" s="85"/>
@@ -4409,25 +4415,25 @@
       <c r="O49" s="54"/>
       <c r="P49" s="35"/>
     </row>
-    <row r="50" spans="1:16" s="90" customFormat="1">
-      <c r="A50" s="88" t="s">
+    <row r="50" spans="1:16" s="89" customFormat="1">
+      <c r="A50" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="89" t="s">
+      <c r="C50" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="90" t="s">
+      <c r="D50" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="92">
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="91">
         <v>8</v>
       </c>
-      <c r="I50" s="91">
+      <c r="I50" s="90">
         <v>1</v>
       </c>
       <c r="J50" s="31">
@@ -4437,51 +4443,51 @@
       <c r="K50" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="L50" s="94" t="s">
+      <c r="L50" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="M50" s="95"/>
-      <c r="N50" s="95"/>
-      <c r="O50" s="96"/>
-      <c r="P50" s="97"/>
-    </row>
-    <row r="51" spans="1:16" s="90" customFormat="1">
-      <c r="A51" s="88" t="s">
+      <c r="M50" s="94"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="95"/>
+      <c r="P50" s="96"/>
+    </row>
+    <row r="51" spans="1:16" s="89" customFormat="1">
+      <c r="A51" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="90" t="s">
+      <c r="C51" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="90" t="s">
+      <c r="D51" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="92">
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="91">
         <v>0.74</v>
       </c>
-      <c r="I51" s="91">
+      <c r="I51" s="90">
         <v>1</v>
       </c>
       <c r="J51" s="31">
         <f t="shared" si="1"/>
         <v>0.74</v>
       </c>
-      <c r="K51" s="93" t="s">
+      <c r="K51" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="L51" s="94" t="s">
+      <c r="L51" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="M51" s="98" t="s">
+      <c r="M51" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="N51" s="95"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="97"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="96"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="26" t="s">
@@ -5557,7 +5563,7 @@
         <v>208</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="E79" s="27"/>
       <c r="F79" s="30"/>
@@ -5565,14 +5571,14 @@
         <v>5</v>
       </c>
       <c r="H79" s="31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I79" s="39">
         <v>5</v>
       </c>
       <c r="J79" s="31">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K79" s="36" t="s">
         <v>200</v>
@@ -5604,14 +5610,14 @@
         <v>5</v>
       </c>
       <c r="H80" s="31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I80" s="39">
         <v>5</v>
       </c>
       <c r="J80" s="31">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="K80" s="36" t="s">
         <v>200</v>
@@ -6907,7 +6913,7 @@
       <c r="I112" s="18"/>
       <c r="J112" s="64">
         <f>SUM(J19:J111)</f>
-        <v>1839.4599999999998</v>
+        <v>1789.4599999999998</v>
       </c>
       <c r="K112" s="17"/>
       <c r="L112" s="19"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_B1EE2D6939D15B17C21F420868F9B71A58448DE0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B1C6E18-9AEF-4F9C-B2CF-B78384ABC9D8}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_B1EE2D6939D15B17C21F420868F9B71A58448DE0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC9A8337-D6FC-4654-BEB1-DEB597ED5D06}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2670,7 +2670,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="63">
         <f>J112</f>
-        <v>1789.4599999999998</v>
+        <v>1809.4599999999998</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="10"/>
@@ -5138,14 +5138,14 @@
         <v>8</v>
       </c>
       <c r="H68" s="31">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I68" s="39">
         <v>1</v>
       </c>
       <c r="J68" s="31">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="K68" s="32" t="s">
         <v>171</v>
@@ -6913,7 +6913,7 @@
       <c r="I112" s="18"/>
       <c r="J112" s="64">
         <f>SUM(J19:J111)</f>
-        <v>1789.4599999999998</v>
+        <v>1809.4599999999998</v>
       </c>
       <c r="K112" s="17"/>
       <c r="L112" s="19"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_B1EE2D6939D15B17C21F420868F9B71A58448DE0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC9A8337-D6FC-4654-BEB1-DEB597ED5D06}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_B1EE2D6939D15B17C21F420868F9B71A58448DE0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16BCAB13-C776-47EA-9D56-94514060FFEB}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1217,9 +1217,6 @@
     <t>Draw Slides</t>
   </si>
   <si>
-    <t>Color: Buffer 14inch 35cm</t>
-  </si>
-  <si>
     <t>Naierdi</t>
   </si>
   <si>
@@ -1526,6 +1523,9 @@
   </si>
   <si>
     <t>PIR - Polyisocyanurate</t>
+  </si>
+  <si>
+    <t>Color: Buffer 16inch 40cm</t>
   </si>
 </sst>
 </file>
@@ -2628,7 +2628,7 @@
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2658,7 +2658,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -2670,7 +2670,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="63">
         <f>J112</f>
-        <v>1809.4599999999998</v>
+        <v>1811.4599999999998</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="10"/>
@@ -2791,7 +2791,7 @@
       <c r="N10" s="74"/>
       <c r="O10" s="53"/>
       <c r="P10" s="86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2838,7 +2838,7 @@
       <c r="N11" s="75"/>
       <c r="O11" s="54"/>
       <c r="P11" s="86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2884,7 +2884,7 @@
       <c r="N12" s="75"/>
       <c r="O12" s="54"/>
       <c r="P12" s="86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2930,7 +2930,7 @@
       <c r="N13" s="75"/>
       <c r="O13" s="54"/>
       <c r="P13" s="86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2976,7 +2976,7 @@
       <c r="N14" s="75"/>
       <c r="O14" s="54"/>
       <c r="P14" s="86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -3008,7 +3008,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L15" s="33" t="s">
         <v>28</v>
@@ -3016,7 +3016,7 @@
       <c r="M15" s="34"/>
       <c r="N15" s="75"/>
       <c r="O15" s="62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P15" s="35"/>
     </row>
@@ -3174,7 +3174,7 @@
         <v>41</v>
       </c>
       <c r="L19" s="83" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M19" s="84"/>
       <c r="N19" s="85"/>
@@ -3620,7 +3620,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L30" s="33" t="s">
         <v>59</v>
@@ -4180,7 +4180,7 @@
         <v>77</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="30"/>
@@ -4405,10 +4405,10 @@
         <v>16</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L49" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="40"/>
@@ -4426,7 +4426,7 @@
         <v>96</v>
       </c>
       <c r="D50" s="89" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F50" s="90"/>
       <c r="G50" s="90"/>
@@ -4441,7 +4441,7 @@
         <v>8</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L50" s="93" t="s">
         <v>59</v>
@@ -4462,7 +4462,7 @@
         <v>96</v>
       </c>
       <c r="D51" s="89" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F51" s="90"/>
       <c r="G51" s="90"/>
@@ -4477,13 +4477,13 @@
         <v>0.74</v>
       </c>
       <c r="K51" s="92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L51" s="93" t="s">
         <v>59</v>
       </c>
       <c r="M51" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N51" s="94"/>
       <c r="O51" s="95"/>
@@ -4695,7 +4695,7 @@
         <v>142</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E57" s="27">
         <v>310</v>
@@ -4715,7 +4715,7 @@
         <v>28</v>
       </c>
       <c r="K57" s="36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L57" s="33" t="s">
         <v>143</v>
@@ -4815,10 +4815,10 @@
         <v>122</v>
       </c>
       <c r="C60" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" s="38" t="s">
         <v>293</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>294</v>
       </c>
       <c r="E60" s="27"/>
       <c r="F60" s="30"/>
@@ -4836,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L60" s="33"/>
       <c r="M60" s="40"/>
@@ -4852,10 +4852,10 @@
         <v>122</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E61" s="27"/>
       <c r="F61" s="30"/>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L61" s="33"/>
       <c r="M61" s="40"/>
@@ -5563,7 +5563,7 @@
         <v>208</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E79" s="27"/>
       <c r="F79" s="30"/>
@@ -5602,7 +5602,7 @@
         <v>210</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E80" s="27"/>
       <c r="F80" s="30"/>
@@ -5638,7 +5638,7 @@
         <v>209</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D81" s="43" t="s">
         <v>200</v>
@@ -5724,27 +5724,27 @@
         <v>215</v>
       </c>
       <c r="E83" s="27">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="F83" s="30"/>
       <c r="G83" s="39">
         <v>2</v>
       </c>
       <c r="H83" s="31">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I83" s="39">
         <v>1</v>
       </c>
       <c r="J83" s="31">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="K83" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="L83" s="33" t="s">
         <v>216</v>
-      </c>
-      <c r="L83" s="33" t="s">
-        <v>217</v>
       </c>
       <c r="M83" s="34"/>
       <c r="N83" s="34"/>
@@ -5762,7 +5762,7 @@
         <v>81</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E84" s="27"/>
       <c r="F84" s="30"/>
@@ -5781,7 +5781,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="K84" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L84" s="33" t="s">
         <v>59</v>
@@ -5806,7 +5806,7 @@
         <v>81</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E85" s="27"/>
       <c r="F85" s="30"/>
@@ -5825,7 +5825,7 @@
         <v>4.51</v>
       </c>
       <c r="K85" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L85" s="33" t="s">
         <v>59</v>
@@ -5850,7 +5850,7 @@
         <v>77</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E86" s="27"/>
       <c r="F86" s="30"/>
@@ -5869,7 +5869,7 @@
         <v>0.49</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L86" s="33" t="s">
         <v>59</v>
@@ -5913,7 +5913,7 @@
         <v>0.99</v>
       </c>
       <c r="K87" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L87" s="33" t="s">
         <v>59</v>
@@ -5938,7 +5938,7 @@
         <v>72</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E88" s="27"/>
       <c r="F88" s="30"/>
@@ -5957,10 +5957,10 @@
         <v>5.01</v>
       </c>
       <c r="K88" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="L88" s="33" t="s">
         <v>226</v>
-      </c>
-      <c r="L88" s="33" t="s">
-        <v>227</v>
       </c>
       <c r="M88" s="40"/>
       <c r="N88" s="40">
@@ -5982,7 +5982,7 @@
         <v>81</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E89" s="27"/>
       <c r="F89" s="30"/>
@@ -6001,7 +6001,7 @@
         <v>13.5</v>
       </c>
       <c r="K89" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L89" s="33" t="s">
         <v>59</v>
@@ -6019,10 +6019,10 @@
         <v>76</v>
       </c>
       <c r="C90" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D90" s="38" t="s">
         <v>230</v>
-      </c>
-      <c r="D90" s="38" t="s">
-        <v>231</v>
       </c>
       <c r="E90" s="27"/>
       <c r="F90" s="30"/>
@@ -6041,10 +6041,10 @@
         <v>3.62</v>
       </c>
       <c r="K90" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="L90" s="33" t="s">
         <v>232</v>
-      </c>
-      <c r="L90" s="33" t="s">
-        <v>233</v>
       </c>
       <c r="M90" s="40"/>
       <c r="N90" s="40"/>
@@ -6059,10 +6059,10 @@
         <v>122</v>
       </c>
       <c r="C91" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="D91" s="38" t="s">
         <v>234</v>
-      </c>
-      <c r="D91" s="38" t="s">
-        <v>235</v>
       </c>
       <c r="E91" s="27"/>
       <c r="F91" s="30"/>
@@ -6080,10 +6080,10 @@
         <v>3</v>
       </c>
       <c r="K91" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="L91" s="33" t="s">
         <v>236</v>
-      </c>
-      <c r="L91" s="33" t="s">
-        <v>237</v>
       </c>
       <c r="M91" s="34"/>
       <c r="N91" s="34"/>
@@ -6101,7 +6101,7 @@
         <v>127</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E92" s="27"/>
       <c r="F92" s="30"/>
@@ -6120,10 +6120,10 @@
         <v>4.7799999999999994</v>
       </c>
       <c r="K92" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="L92" s="33" t="s">
         <v>239</v>
-      </c>
-      <c r="L92" s="33" t="s">
-        <v>240</v>
       </c>
       <c r="M92" s="40"/>
       <c r="N92" s="40"/>
@@ -6143,7 +6143,7 @@
         <v>81</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="30"/>
@@ -6161,7 +6161,7 @@
         <v>2</v>
       </c>
       <c r="K93" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L93" s="33" t="s">
         <v>59</v>
@@ -6186,7 +6186,7 @@
         <v>81</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E94" s="27"/>
       <c r="F94" s="30"/>
@@ -6205,7 +6205,7 @@
         <v>2.5</v>
       </c>
       <c r="K94" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L94" s="33" t="s">
         <v>59</v>
@@ -6227,10 +6227,10 @@
         <v>76</v>
       </c>
       <c r="C95" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D95" s="38" t="s">
         <v>245</v>
-      </c>
-      <c r="D95" s="38" t="s">
-        <v>246</v>
       </c>
       <c r="E95" s="27"/>
       <c r="F95" s="30"/>
@@ -6249,10 +6249,10 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="K95" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="L95" s="33" t="s">
         <v>247</v>
-      </c>
-      <c r="L95" s="33" t="s">
-        <v>248</v>
       </c>
       <c r="M95" s="34"/>
       <c r="N95" s="34"/>
@@ -6267,10 +6267,10 @@
         <v>76</v>
       </c>
       <c r="C96" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D96" s="38" t="s">
         <v>249</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>250</v>
       </c>
       <c r="E96" s="27"/>
       <c r="F96" s="30"/>
@@ -6289,10 +6289,10 @@
         <v>1.72</v>
       </c>
       <c r="K96" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="L96" s="33" t="s">
         <v>251</v>
-      </c>
-      <c r="L96" s="33" t="s">
-        <v>252</v>
       </c>
       <c r="M96" s="40"/>
       <c r="N96" s="40"/>
@@ -6310,7 +6310,7 @@
         <v>72</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E97" s="27"/>
       <c r="F97" s="30"/>
@@ -6329,10 +6329,10 @@
         <v>2.44</v>
       </c>
       <c r="K97" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L97" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M97" s="34"/>
       <c r="N97" s="34"/>
@@ -6349,10 +6349,10 @@
         <v>76</v>
       </c>
       <c r="C98" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D98" s="38" t="s">
         <v>255</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>256</v>
       </c>
       <c r="E98" s="27"/>
       <c r="F98" s="30"/>
@@ -6371,7 +6371,7 @@
         <v>2.38</v>
       </c>
       <c r="K98" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L98" s="33" t="s">
         <v>59</v>
@@ -6391,10 +6391,10 @@
         <v>76</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E99" s="27"/>
       <c r="F99" s="30"/>
@@ -6413,7 +6413,7 @@
         <v>3.27</v>
       </c>
       <c r="K99" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L99" s="33" t="s">
         <v>59</v>
@@ -6433,10 +6433,10 @@
         <v>76</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E100" s="27"/>
       <c r="F100" s="30"/>
@@ -6455,7 +6455,7 @@
         <v>2.57</v>
       </c>
       <c r="K100" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L100" s="33" t="s">
         <v>59</v>
@@ -6478,7 +6478,7 @@
         <v>81</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E101" s="27"/>
       <c r="F101" s="30"/>
@@ -6497,7 +6497,7 @@
         <v>2.75</v>
       </c>
       <c r="K101" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L101" s="33" t="s">
         <v>59</v>
@@ -6541,7 +6541,7 @@
         <v>1.75</v>
       </c>
       <c r="K102" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L102" s="33" t="s">
         <v>59</v>
@@ -6566,7 +6566,7 @@
         <v>201</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E103" s="27"/>
       <c r="F103" s="30"/>
@@ -6584,10 +6584,10 @@
         <v>12</v>
       </c>
       <c r="K103" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="L103" s="33" t="s">
         <v>265</v>
-      </c>
-      <c r="L103" s="33" t="s">
-        <v>266</v>
       </c>
       <c r="M103" s="34"/>
       <c r="N103" s="34"/>
@@ -6607,7 +6607,7 @@
         <v>142</v>
       </c>
       <c r="D104" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E104" s="27"/>
       <c r="F104" s="30"/>
@@ -6625,10 +6625,10 @@
         <v>12</v>
       </c>
       <c r="K104" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="L104" s="33" t="s">
         <v>268</v>
-      </c>
-      <c r="L104" s="33" t="s">
-        <v>269</v>
       </c>
       <c r="M104" s="40"/>
       <c r="N104" s="40"/>
@@ -6646,7 +6646,7 @@
         <v>151</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E105" s="27"/>
       <c r="F105" s="30"/>
@@ -6665,10 +6665,10 @@
         <v>3.96</v>
       </c>
       <c r="K105" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L105" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="L105" s="33" t="s">
-        <v>272</v>
       </c>
       <c r="M105" s="40"/>
       <c r="N105" s="40"/>
@@ -6688,7 +6688,7 @@
         <v>68</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E106" s="27"/>
       <c r="F106" s="30"/>
@@ -6706,7 +6706,7 @@
         <v>4.5</v>
       </c>
       <c r="K106" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L106" s="33"/>
       <c r="M106" s="40"/>
@@ -6722,10 +6722,10 @@
         <v>122</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E107" s="27"/>
       <c r="F107" s="30"/>
@@ -6743,16 +6743,16 @@
         <v>0</v>
       </c>
       <c r="K107" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L107" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M107" s="34"/>
       <c r="N107" s="34"/>
       <c r="O107" s="59"/>
       <c r="P107" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:26">
@@ -6763,10 +6763,10 @@
         <v>122</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E108" s="27"/>
       <c r="F108" s="30"/>
@@ -6784,16 +6784,16 @@
         <v>4</v>
       </c>
       <c r="K108" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L108" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M108" s="34"/>
       <c r="N108" s="34"/>
       <c r="O108" s="59"/>
       <c r="P108" s="46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:26">
@@ -6807,7 +6807,7 @@
         <v>81</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E109" s="27"/>
       <c r="F109" s="30"/>
@@ -6826,7 +6826,7 @@
         <v>0.87</v>
       </c>
       <c r="K109" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L109" s="33" t="s">
         <v>59</v>
@@ -6835,7 +6835,7 @@
       <c r="N109" s="34"/>
       <c r="O109" s="60"/>
       <c r="P109" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:26" s="4" customFormat="1">
@@ -6843,13 +6843,13 @@
         <v>214</v>
       </c>
       <c r="B110" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C110" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="C110" s="38" t="s">
+      <c r="D110" s="38" t="s">
         <v>303</v>
-      </c>
-      <c r="D110" s="38" t="s">
-        <v>304</v>
       </c>
       <c r="E110" s="27"/>
       <c r="F110" s="30"/>
@@ -6867,10 +6867,10 @@
         <v>21.5</v>
       </c>
       <c r="K110" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="L110" s="33" t="s">
         <v>305</v>
-      </c>
-      <c r="L110" s="33" t="s">
-        <v>306</v>
       </c>
       <c r="M110" s="34"/>
       <c r="N110" s="34"/>
@@ -6901,7 +6901,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>6</v>
@@ -6913,7 +6913,7 @@
       <c r="I112" s="18"/>
       <c r="J112" s="64">
         <f>SUM(J19:J111)</f>
-        <v>1809.4599999999998</v>
+        <v>1811.4599999999998</v>
       </c>
       <c r="K112" s="17"/>
       <c r="L112" s="19"/>
@@ -6996,7 +6996,7 @@
     <hyperlink ref="K17" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="K18" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="K82" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K83" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K83" r:id="rId60" display="Color: Buffer 14inch 35cm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="K84" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="K85" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="K86" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_B1EE2D6939D15B17C21F420868F9B71A58448DE0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16BCAB13-C776-47EA-9D56-94514060FFEB}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_B1EE2D6939D15B17C21F420868F9B71A58448DE0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE6268F9-A3D4-46F9-9740-762E45876B9C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="315">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -1004,9 +1004,6 @@
     <t>Solid State Relay</t>
   </si>
   <si>
-    <t>2x 164-0575</t>
-  </si>
-  <si>
     <t>Size: SSR 25DA</t>
   </si>
   <si>
@@ -1317,9 +1314,6 @@
   </si>
   <si>
     <t>Tension Spring</t>
-  </si>
-  <si>
-    <t>1x Length 15mm - Wire 0.7 - OD 7</t>
   </si>
   <si>
     <t>Shenzhen Zhongfa</t>
@@ -1526,6 +1520,15 @@
   </si>
   <si>
     <t>Color: Buffer 16inch 40cm</t>
+  </si>
+  <si>
+    <t>Genuine Omron Solid State Relay</t>
+  </si>
+  <si>
+    <t>1x Size: 5PCS M3XL M-F</t>
+  </si>
+  <si>
+    <t>1x Length 15mm - Wire 0.7 - OD 8</t>
   </si>
 </sst>
 </file>
@@ -2628,7 +2631,7 @@
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2658,7 +2661,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -2670,7 +2673,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="63">
         <f>J112</f>
-        <v>1811.4599999999998</v>
+        <v>1835.4599999999998</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="10"/>
@@ -2791,7 +2794,7 @@
       <c r="N10" s="74"/>
       <c r="O10" s="53"/>
       <c r="P10" s="86" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2838,7 +2841,7 @@
       <c r="N11" s="75"/>
       <c r="O11" s="54"/>
       <c r="P11" s="86" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2884,7 +2887,7 @@
       <c r="N12" s="75"/>
       <c r="O12" s="54"/>
       <c r="P12" s="86" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2930,7 +2933,7 @@
       <c r="N13" s="75"/>
       <c r="O13" s="54"/>
       <c r="P13" s="86" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2976,7 +2979,7 @@
       <c r="N14" s="75"/>
       <c r="O14" s="54"/>
       <c r="P14" s="86" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -3008,7 +3011,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L15" s="33" t="s">
         <v>28</v>
@@ -3016,7 +3019,7 @@
       <c r="M15" s="34"/>
       <c r="N15" s="75"/>
       <c r="O15" s="62" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P15" s="35"/>
     </row>
@@ -3025,13 +3028,13 @@
         <v>55</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>189</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>190</v>
       </c>
       <c r="E16" s="27">
         <v>350</v>
@@ -3051,7 +3054,7 @@
         <v>46.8</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L16" s="33" t="s">
         <v>75</v>
@@ -3066,13 +3069,13 @@
         <v>55</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E17" s="27">
         <v>400</v>
@@ -3092,7 +3095,7 @@
         <v>35</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L17" s="33" t="s">
         <v>75</v>
@@ -3107,13 +3110,13 @@
         <v>55</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E18" s="27">
         <v>400</v>
@@ -3133,7 +3136,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L18" s="33" t="s">
         <v>75</v>
@@ -3174,7 +3177,7 @@
         <v>41</v>
       </c>
       <c r="L19" s="83" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M19" s="84"/>
       <c r="N19" s="85"/>
@@ -3620,7 +3623,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L30" s="33" t="s">
         <v>59</v>
@@ -4180,7 +4183,7 @@
         <v>77</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="30"/>
@@ -4405,10 +4408,10 @@
         <v>16</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L49" s="33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="40"/>
@@ -4417,7 +4420,7 @@
     </row>
     <row r="50" spans="1:16" s="89" customFormat="1">
       <c r="A50" s="87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B50" s="88" t="s">
         <v>76</v>
@@ -4426,7 +4429,7 @@
         <v>96</v>
       </c>
       <c r="D50" s="89" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F50" s="90"/>
       <c r="G50" s="90"/>
@@ -4441,7 +4444,7 @@
         <v>8</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L50" s="93" t="s">
         <v>59</v>
@@ -4462,7 +4465,7 @@
         <v>96</v>
       </c>
       <c r="D51" s="89" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F51" s="90"/>
       <c r="G51" s="90"/>
@@ -4477,13 +4480,13 @@
         <v>0.74</v>
       </c>
       <c r="K51" s="92" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L51" s="93" t="s">
         <v>59</v>
       </c>
       <c r="M51" s="97" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N51" s="94"/>
       <c r="O51" s="95"/>
@@ -4695,7 +4698,7 @@
         <v>142</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E57" s="27">
         <v>310</v>
@@ -4715,7 +4718,7 @@
         <v>28</v>
       </c>
       <c r="K57" s="36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L57" s="33" t="s">
         <v>143</v>
@@ -4746,40 +4749,40 @@
         <v>3</v>
       </c>
       <c r="H58" s="31">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I58" s="39">
         <v>3</v>
       </c>
       <c r="J58" s="31">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="K58" s="32" t="s">
-        <v>145</v>
+        <v>78</v>
+      </c>
+      <c r="K58" s="36" t="s">
+        <v>312</v>
       </c>
       <c r="L58" s="33" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="M58" s="34"/>
       <c r="N58" s="34"/>
       <c r="O58" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P58" s="44"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B59" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C59" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="38" t="s">
         <v>148</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>149</v>
       </c>
       <c r="E59" s="27"/>
       <c r="F59" s="30"/>
@@ -4797,7 +4800,7 @@
         <v>20</v>
       </c>
       <c r="K59" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L59" s="33" t="s">
         <v>141</v>
@@ -4809,16 +4812,16 @@
     </row>
     <row r="60" spans="1:16" s="4" customFormat="1">
       <c r="A60" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B60" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E60" s="27"/>
       <c r="F60" s="30"/>
@@ -4836,7 +4839,7 @@
         <v>2</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L60" s="33"/>
       <c r="M60" s="40"/>
@@ -4846,16 +4849,16 @@
     </row>
     <row r="61" spans="1:16" s="4" customFormat="1">
       <c r="A61" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B61" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E61" s="27"/>
       <c r="F61" s="30"/>
@@ -4873,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L61" s="33"/>
       <c r="M61" s="40"/>
@@ -4889,10 +4892,10 @@
         <v>122</v>
       </c>
       <c r="C62" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="38" t="s">
         <v>151</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>152</v>
       </c>
       <c r="E62" s="27"/>
       <c r="F62" s="30"/>
@@ -4910,10 +4913,10 @@
         <v>3</v>
       </c>
       <c r="K62" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="L62" s="33" t="s">
         <v>153</v>
-      </c>
-      <c r="L62" s="33" t="s">
-        <v>154</v>
       </c>
       <c r="M62" s="34"/>
       <c r="N62" s="34"/>
@@ -4922,16 +4925,16 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B63" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="D63" s="38" t="s">
         <v>156</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>157</v>
       </c>
       <c r="E63" s="27"/>
       <c r="F63" s="30"/>
@@ -4949,7 +4952,7 @@
         <v>85</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L63" s="33" t="s">
         <v>141</v>
@@ -4961,16 +4964,16 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B64" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="C64" s="38" t="s">
-        <v>156</v>
-      </c>
       <c r="D64" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E64" s="27"/>
       <c r="F64" s="30"/>
@@ -4988,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L64" s="33" t="s">
         <v>141</v>
@@ -5000,16 +5003,16 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E65" s="27"/>
       <c r="F65" s="30"/>
@@ -5027,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L65" s="33" t="s">
         <v>141</v>
@@ -5039,16 +5042,16 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E66" s="27"/>
       <c r="F66" s="30"/>
@@ -5066,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L66" s="33" t="s">
         <v>141</v>
@@ -5078,16 +5081,16 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E67" s="27"/>
       <c r="F67" s="30"/>
@@ -5105,10 +5108,10 @@
         <v>70</v>
       </c>
       <c r="K67" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="L67" s="33" t="s">
         <v>166</v>
-      </c>
-      <c r="L67" s="33" t="s">
-        <v>167</v>
       </c>
       <c r="M67" s="40"/>
       <c r="N67" s="40"/>
@@ -5120,13 +5123,13 @@
         <v>55</v>
       </c>
       <c r="B68" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="D68" s="38" t="s">
         <v>169</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>170</v>
       </c>
       <c r="E68" s="27">
         <v>1000</v>
@@ -5148,7 +5151,7 @@
         <v>59</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L68" s="33" t="s">
         <v>141</v>
@@ -5163,13 +5166,13 @@
         <v>55</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C69" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" s="38" t="s">
         <v>172</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>173</v>
       </c>
       <c r="E69" s="27"/>
       <c r="F69" s="30"/>
@@ -5187,10 +5190,10 @@
         <v>41</v>
       </c>
       <c r="K69" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="L69" s="33" t="s">
         <v>174</v>
-      </c>
-      <c r="L69" s="33" t="s">
-        <v>175</v>
       </c>
       <c r="M69" s="40"/>
       <c r="N69" s="40"/>
@@ -5202,13 +5205,13 @@
         <v>55</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E70" s="27"/>
       <c r="F70" s="30"/>
@@ -5226,10 +5229,10 @@
         <v>30</v>
       </c>
       <c r="K70" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L70" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M70" s="34"/>
       <c r="N70" s="34"/>
@@ -5241,13 +5244,13 @@
         <v>55</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C71" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="38" t="s">
         <v>178</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>179</v>
       </c>
       <c r="E71" s="27"/>
       <c r="F71" s="30"/>
@@ -5265,10 +5268,10 @@
         <v>20</v>
       </c>
       <c r="K71" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L71" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M71" s="40"/>
       <c r="N71" s="40"/>
@@ -5280,13 +5283,13 @@
         <v>55</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="38" t="s">
         <v>181</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>182</v>
       </c>
       <c r="E72" s="27">
         <v>200</v>
@@ -5308,10 +5311,10 @@
         <v>48</v>
       </c>
       <c r="K72" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="L72" s="33" t="s">
         <v>183</v>
-      </c>
-      <c r="L72" s="33" t="s">
-        <v>184</v>
       </c>
       <c r="M72" s="34"/>
       <c r="N72" s="34"/>
@@ -5323,13 +5326,13 @@
         <v>55</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C73" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="38" t="s">
         <v>185</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>186</v>
       </c>
       <c r="E73" s="27"/>
       <c r="F73" s="30"/>
@@ -5347,10 +5350,10 @@
         <v>72.5</v>
       </c>
       <c r="K73" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="L73" s="33" t="s">
         <v>187</v>
-      </c>
-      <c r="L73" s="33" t="s">
-        <v>188</v>
       </c>
       <c r="M73" s="40"/>
       <c r="N73" s="40"/>
@@ -5359,16 +5362,16 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="C74" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="D74" s="38" t="s">
         <v>198</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>199</v>
       </c>
       <c r="E74" s="27"/>
       <c r="F74" s="30"/>
@@ -5386,10 +5389,10 @@
         <v>50</v>
       </c>
       <c r="K74" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L74" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M74" s="40"/>
       <c r="N74" s="40"/>
@@ -5398,16 +5401,16 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B75" s="38" t="s">
-        <v>197</v>
-      </c>
       <c r="C75" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" s="38" t="s">
         <v>201</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>202</v>
       </c>
       <c r="E75" s="27"/>
       <c r="F75" s="30"/>
@@ -5425,10 +5428,10 @@
         <v>40</v>
       </c>
       <c r="K75" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L75" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M75" s="34"/>
       <c r="N75" s="34"/>
@@ -5437,16 +5440,16 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B76" s="38" t="s">
-        <v>197</v>
-      </c>
       <c r="C76" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" s="38" t="s">
         <v>203</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>204</v>
       </c>
       <c r="E76" s="27"/>
       <c r="F76" s="30"/>
@@ -5464,10 +5467,10 @@
         <v>70</v>
       </c>
       <c r="K76" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L76" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M76" s="40"/>
       <c r="N76" s="40"/>
@@ -5476,16 +5479,16 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B77" s="38" t="s">
-        <v>197</v>
-      </c>
       <c r="C77" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E77" s="27"/>
       <c r="F77" s="30"/>
@@ -5503,10 +5506,10 @@
         <v>20</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L77" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M77" s="34"/>
       <c r="N77" s="34"/>
@@ -5515,16 +5518,16 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="B78" s="38" t="s">
-        <v>197</v>
-      </c>
       <c r="C78" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E78" s="27"/>
       <c r="F78" s="30"/>
@@ -5542,10 +5545,10 @@
         <v>20</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L78" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M78" s="40"/>
       <c r="N78" s="40"/>
@@ -5554,16 +5557,16 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="B79" s="38" t="s">
-        <v>208</v>
-      </c>
       <c r="C79" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E79" s="27"/>
       <c r="F79" s="30"/>
@@ -5581,10 +5584,10 @@
         <v>100</v>
       </c>
       <c r="K79" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L79" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M79" s="34"/>
       <c r="N79" s="34"/>
@@ -5593,16 +5596,16 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B80" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="C80" s="38" t="s">
-        <v>210</v>
-      </c>
       <c r="D80" s="43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E80" s="27"/>
       <c r="F80" s="30"/>
@@ -5620,10 +5623,10 @@
         <v>100</v>
       </c>
       <c r="K80" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L80" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M80" s="40"/>
       <c r="N80" s="40"/>
@@ -5632,16 +5635,16 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E81" s="27"/>
       <c r="F81" s="30"/>
@@ -5659,10 +5662,10 @@
         <v>25</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L81" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M81" s="34"/>
       <c r="N81" s="34"/>
@@ -5674,13 +5677,13 @@
         <v>46</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C82" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" s="38" t="s">
         <v>211</v>
-      </c>
-      <c r="D82" s="38" t="s">
-        <v>212</v>
       </c>
       <c r="E82" s="27">
         <v>350</v>
@@ -5700,10 +5703,10 @@
         <v>10</v>
       </c>
       <c r="K82" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L82" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M82" s="40"/>
       <c r="N82" s="40"/>
@@ -5712,7 +5715,7 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B83" s="38" t="s">
         <v>24</v>
@@ -5721,7 +5724,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E83" s="27">
         <v>400</v>
@@ -5741,10 +5744,10 @@
         <v>24</v>
       </c>
       <c r="K83" s="36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L83" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M83" s="34"/>
       <c r="N83" s="34"/>
@@ -5753,7 +5756,7 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B84" s="38" t="s">
         <v>76</v>
@@ -5762,7 +5765,7 @@
         <v>81</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E84" s="27"/>
       <c r="F84" s="30"/>
@@ -5781,7 +5784,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="K84" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L84" s="33" t="s">
         <v>59</v>
@@ -5797,7 +5800,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B85" s="38" t="s">
         <v>76</v>
@@ -5806,7 +5809,7 @@
         <v>81</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E85" s="27"/>
       <c r="F85" s="30"/>
@@ -5825,7 +5828,7 @@
         <v>4.51</v>
       </c>
       <c r="K85" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L85" s="33" t="s">
         <v>59</v>
@@ -5841,7 +5844,7 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B86" s="38" t="s">
         <v>76</v>
@@ -5850,7 +5853,7 @@
         <v>77</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E86" s="27"/>
       <c r="F86" s="30"/>
@@ -5869,7 +5872,7 @@
         <v>0.49</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L86" s="33" t="s">
         <v>59</v>
@@ -5885,7 +5888,7 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B87" s="38" t="s">
         <v>76</v>
@@ -5913,7 +5916,7 @@
         <v>0.99</v>
       </c>
       <c r="K87" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L87" s="33" t="s">
         <v>59</v>
@@ -5929,7 +5932,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B88" s="38" t="s">
         <v>76</v>
@@ -5938,7 +5941,7 @@
         <v>72</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E88" s="27"/>
       <c r="F88" s="30"/>
@@ -5957,10 +5960,10 @@
         <v>5.01</v>
       </c>
       <c r="K88" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="L88" s="33" t="s">
         <v>225</v>
-      </c>
-      <c r="L88" s="33" t="s">
-        <v>226</v>
       </c>
       <c r="M88" s="40"/>
       <c r="N88" s="40">
@@ -5973,7 +5976,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B89" s="38" t="s">
         <v>76</v>
@@ -5982,7 +5985,7 @@
         <v>81</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E89" s="27"/>
       <c r="F89" s="30"/>
@@ -6001,7 +6004,7 @@
         <v>13.5</v>
       </c>
       <c r="K89" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L89" s="33" t="s">
         <v>59</v>
@@ -6013,16 +6016,16 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B90" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C90" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="D90" s="38" t="s">
         <v>229</v>
-      </c>
-      <c r="D90" s="38" t="s">
-        <v>230</v>
       </c>
       <c r="E90" s="27"/>
       <c r="F90" s="30"/>
@@ -6041,10 +6044,10 @@
         <v>3.62</v>
       </c>
       <c r="K90" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="L90" s="33" t="s">
         <v>231</v>
-      </c>
-      <c r="L90" s="33" t="s">
-        <v>232</v>
       </c>
       <c r="M90" s="40"/>
       <c r="N90" s="40"/>
@@ -6053,16 +6056,16 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B91" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C91" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="D91" s="38" t="s">
         <v>233</v>
-      </c>
-      <c r="D91" s="38" t="s">
-        <v>234</v>
       </c>
       <c r="E91" s="27"/>
       <c r="F91" s="30"/>
@@ -6080,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="K91" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="L91" s="33" t="s">
         <v>235</v>
-      </c>
-      <c r="L91" s="33" t="s">
-        <v>236</v>
       </c>
       <c r="M91" s="34"/>
       <c r="N91" s="34"/>
@@ -6092,7 +6095,7 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B92" s="38" t="s">
         <v>76</v>
@@ -6101,7 +6104,7 @@
         <v>127</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E92" s="27"/>
       <c r="F92" s="30"/>
@@ -6120,10 +6123,10 @@
         <v>4.7799999999999994</v>
       </c>
       <c r="K92" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="L92" s="33" t="s">
         <v>238</v>
-      </c>
-      <c r="L92" s="33" t="s">
-        <v>239</v>
       </c>
       <c r="M92" s="40"/>
       <c r="N92" s="40"/>
@@ -6134,7 +6137,7 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B93" s="38" t="s">
         <v>76</v>
@@ -6143,7 +6146,7 @@
         <v>81</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="30"/>
@@ -6161,7 +6164,7 @@
         <v>2</v>
       </c>
       <c r="K93" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L93" s="33" t="s">
         <v>59</v>
@@ -6177,7 +6180,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B94" s="38" t="s">
         <v>76</v>
@@ -6186,7 +6189,7 @@
         <v>81</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E94" s="27"/>
       <c r="F94" s="30"/>
@@ -6205,7 +6208,7 @@
         <v>2.5</v>
       </c>
       <c r="K94" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L94" s="33" t="s">
         <v>59</v>
@@ -6221,16 +6224,16 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B95" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C95" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D95" s="38" t="s">
         <v>244</v>
-      </c>
-      <c r="D95" s="38" t="s">
-        <v>245</v>
       </c>
       <c r="E95" s="27"/>
       <c r="F95" s="30"/>
@@ -6249,10 +6252,10 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="K95" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L95" s="33" t="s">
         <v>246</v>
-      </c>
-      <c r="L95" s="33" t="s">
-        <v>247</v>
       </c>
       <c r="M95" s="34"/>
       <c r="N95" s="34"/>
@@ -6261,16 +6264,16 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B96" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C96" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="D96" s="38" t="s">
         <v>248</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>249</v>
       </c>
       <c r="E96" s="27"/>
       <c r="F96" s="30"/>
@@ -6289,10 +6292,10 @@
         <v>1.72</v>
       </c>
       <c r="K96" s="36" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="L96" s="33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M96" s="40"/>
       <c r="N96" s="40"/>
@@ -6301,7 +6304,7 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B97" s="38" t="s">
         <v>76</v>
@@ -6310,7 +6313,7 @@
         <v>72</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E97" s="27"/>
       <c r="F97" s="30"/>
@@ -6329,10 +6332,10 @@
         <v>2.44</v>
       </c>
       <c r="K97" s="36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L97" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M97" s="34"/>
       <c r="N97" s="34"/>
@@ -6343,16 +6346,16 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B98" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E98" s="27"/>
       <c r="F98" s="30"/>
@@ -6371,7 +6374,7 @@
         <v>2.38</v>
       </c>
       <c r="K98" s="36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L98" s="33" t="s">
         <v>59</v>
@@ -6385,16 +6388,16 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B99" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E99" s="27"/>
       <c r="F99" s="30"/>
@@ -6413,7 +6416,7 @@
         <v>3.27</v>
       </c>
       <c r="K99" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L99" s="33" t="s">
         <v>59</v>
@@ -6427,16 +6430,16 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B100" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E100" s="27"/>
       <c r="F100" s="30"/>
@@ -6455,7 +6458,7 @@
         <v>2.57</v>
       </c>
       <c r="K100" s="36" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="L100" s="33" t="s">
         <v>59</v>
@@ -6469,7 +6472,7 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B101" s="38" t="s">
         <v>76</v>
@@ -6478,7 +6481,7 @@
         <v>81</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E101" s="27"/>
       <c r="F101" s="30"/>
@@ -6497,7 +6500,7 @@
         <v>2.75</v>
       </c>
       <c r="K101" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L101" s="33" t="s">
         <v>59</v>
@@ -6513,7 +6516,7 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B102" s="38" t="s">
         <v>76</v>
@@ -6541,7 +6544,7 @@
         <v>1.75</v>
       </c>
       <c r="K102" s="36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L102" s="33" t="s">
         <v>59</v>
@@ -6557,16 +6560,16 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B103" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E103" s="27"/>
       <c r="F103" s="30"/>
@@ -6584,10 +6587,10 @@
         <v>12</v>
       </c>
       <c r="K103" s="36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L103" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M103" s="34"/>
       <c r="N103" s="34"/>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B104" s="38" t="s">
         <v>122</v>
@@ -6607,7 +6610,7 @@
         <v>142</v>
       </c>
       <c r="D104" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E104" s="27"/>
       <c r="F104" s="30"/>
@@ -6625,10 +6628,10 @@
         <v>12</v>
       </c>
       <c r="K104" s="36" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L104" s="33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M104" s="40"/>
       <c r="N104" s="40"/>
@@ -6637,16 +6640,16 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B105" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E105" s="27"/>
       <c r="F105" s="30"/>
@@ -6665,10 +6668,10 @@
         <v>3.96</v>
       </c>
       <c r="K105" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L105" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M105" s="40"/>
       <c r="N105" s="40"/>
@@ -6679,7 +6682,7 @@
     </row>
     <row r="106" spans="1:26" s="4" customFormat="1">
       <c r="A106" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B106" s="38" t="s">
         <v>122</v>
@@ -6688,7 +6691,7 @@
         <v>68</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E106" s="27"/>
       <c r="F106" s="30"/>
@@ -6706,9 +6709,11 @@
         <v>4.5</v>
       </c>
       <c r="K106" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="L106" s="33"/>
+        <v>289</v>
+      </c>
+      <c r="L106" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="M106" s="40"/>
       <c r="N106" s="40"/>
       <c r="O106" s="56"/>
@@ -6716,16 +6721,16 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B107" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E107" s="27"/>
       <c r="F107" s="30"/>
@@ -6743,30 +6748,30 @@
         <v>0</v>
       </c>
       <c r="K107" s="32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L107" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M107" s="34"/>
       <c r="N107" s="34"/>
       <c r="O107" s="59"/>
       <c r="P107" s="46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B108" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E108" s="27"/>
       <c r="F108" s="30"/>
@@ -6784,21 +6789,21 @@
         <v>4</v>
       </c>
       <c r="K108" s="36" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L108" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M108" s="34"/>
       <c r="N108" s="34"/>
       <c r="O108" s="59"/>
       <c r="P108" s="46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B109" s="38" t="s">
         <v>76</v>
@@ -6807,7 +6812,7 @@
         <v>81</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E109" s="27"/>
       <c r="F109" s="30"/>
@@ -6826,7 +6831,7 @@
         <v>0.87</v>
       </c>
       <c r="K109" s="36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L109" s="33" t="s">
         <v>59</v>
@@ -6835,21 +6840,21 @@
       <c r="N109" s="34"/>
       <c r="O109" s="60"/>
       <c r="P109" s="47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:26" s="4" customFormat="1">
       <c r="A110" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B110" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="D110" s="38" t="s">
         <v>301</v>
-      </c>
-      <c r="C110" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="D110" s="38" t="s">
-        <v>303</v>
       </c>
       <c r="E110" s="27"/>
       <c r="F110" s="30"/>
@@ -6867,10 +6872,10 @@
         <v>21.5</v>
       </c>
       <c r="K110" s="36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L110" s="33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M110" s="34"/>
       <c r="N110" s="34"/>
@@ -6901,7 +6906,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>6</v>
@@ -6913,7 +6918,7 @@
       <c r="I112" s="18"/>
       <c r="J112" s="64">
         <f>SUM(J19:J111)</f>
-        <v>1811.4599999999998</v>
+        <v>1835.4599999999998</v>
       </c>
       <c r="K112" s="17"/>
       <c r="L112" s="19"/>
@@ -7009,11 +7014,11 @@
     <hyperlink ref="K93" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="K94" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="K95" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K96" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K96" r:id="rId73" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="K97" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="K98" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="K99" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K100" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K100" r:id="rId77" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="K101" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="K102" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="K103" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
@@ -7030,13 +7035,14 @@
     <hyperlink ref="K110" r:id="rId91" xr:uid="{0F66774E-BA3F-46BF-9D25-049D76EAEA31}"/>
     <hyperlink ref="K50" r:id="rId92" xr:uid="{2B0897CC-38A4-4451-82D7-546FD860F6EE}"/>
     <hyperlink ref="K51" r:id="rId93" display="M3 ss washer" xr:uid="{F09A433A-365C-4A65-A20C-0C0EA79C5AAF}"/>
+    <hyperlink ref="K58" r:id="rId94" display="2x 164-0575" xr:uid="{775961E3-20A6-4A91-B3D7-A23FA1B68EE6}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId94"/>
-  <drawing r:id="rId95"/>
-  <legacyDrawing r:id="rId96"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId95"/>
+  <drawing r:id="rId96"/>
+  <legacyDrawing r:id="rId97"/>
   <tableParts count="1">
-    <tablePart r:id="rId97"/>
+    <tablePart r:id="rId98"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM Beta 06.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_B1EE2D6939D15B17C21F420868F9B71A58448DE0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE6268F9-A3D4-46F9-9740-762E45876B9C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="13284"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Final Stage" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Final Stage'!$A$9:$N$112</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,13 +32,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
     <author>Roy Berntsen</author>
   </authors>
   <commentList>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="P10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -125,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="P11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -149,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="P12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -173,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="P13" authorId="1">
       <text>
         <r>
           <rPr>
@@ -197,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="P14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -221,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="O15" authorId="1">
       <text>
         <r>
           <rPr>
@@ -245,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="D54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="P57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="K72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K82" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="K82" authorId="1">
       <text>
         <r>
           <rPr>
@@ -333,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="P85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="P86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="P87" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="P88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="P92" authorId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="P93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -424,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="P94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="P97" authorId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="P98" authorId="0">
       <text>
         <r>
           <rPr>
@@ -463,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="P99" authorId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="P100" authorId="0">
       <text>
         <r>
           <rPr>
@@ -489,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="P101" authorId="0">
       <text>
         <r>
           <rPr>
@@ -502,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="P102" authorId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="P103" authorId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P105" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="P105" authorId="0">
       <text>
         <r>
           <rPr>
@@ -928,9 +922,6 @@
     <t>Hongfa 24V ac DPDT Interface Relay</t>
   </si>
   <si>
-    <t>item nr. 137-2112</t>
-  </si>
-  <si>
     <t>RS Components</t>
   </si>
   <si>
@@ -1530,17 +1521,20 @@
   <si>
     <t>1x Length 15mm - Wire 0.7 - OD 8</t>
   </si>
+  <si>
+    <t>item nr. 137-2111</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
-    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1909,22 +1903,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1945,11 +1939,11 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1970,35 +1964,35 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2006,11 +2000,11 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2029,11 +2023,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2047,17 +2041,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2131,7 +2125,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2190,7 +2184,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2326,7 +2320,7 @@
         <xdr:cNvPr id="2" name="image1.png" title="Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2355,25 +2349,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A9:P111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
-  <autoFilter ref="A9:P111" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:P111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="A9:P111"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Part Type" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Cut Length mm" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Total mm" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="BOM Quantity" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pack Price $" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Pack Order Quantity" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Line Price $" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Order Parts Link" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Supplier" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="DIN" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="ISO" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Option" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Note" dataDxfId="0"/>
+    <tableColumn id="1" name="System" dataDxfId="15"/>
+    <tableColumn id="2" name="Category" dataDxfId="14"/>
+    <tableColumn id="3" name="Part Type" dataDxfId="13"/>
+    <tableColumn id="4" name="Description" dataDxfId="12"/>
+    <tableColumn id="5" name="Cut Length mm" dataDxfId="11"/>
+    <tableColumn id="6" name="Total mm" dataDxfId="10"/>
+    <tableColumn id="7" name="BOM Quantity" dataDxfId="9"/>
+    <tableColumn id="8" name="Pack Price $" dataDxfId="8"/>
+    <tableColumn id="9" name="Pack Order Quantity" dataDxfId="7"/>
+    <tableColumn id="10" name="Line Price $" dataDxfId="6"/>
+    <tableColumn id="11" name="Order Parts Link" dataDxfId="5"/>
+    <tableColumn id="12" name="Supplier" dataDxfId="4"/>
+    <tableColumn id="13" name="DIN" dataDxfId="3"/>
+    <tableColumn id="14" name="ISO" dataDxfId="2"/>
+    <tableColumn id="15" name="Option" dataDxfId="1"/>
+    <tableColumn id="16" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2576,39 +2570,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="26" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.25">
+    <row r="1" spans="1:26" ht="24.6">
       <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
@@ -2631,7 +2625,7 @@
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -2650,18 +2644,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1">
+    <row r="7" spans="1:26" ht="15" thickBot="1">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="14" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:26" s="14" customFormat="1" ht="16.2" thickBot="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -2794,7 +2788,7 @@
       <c r="N10" s="74"/>
       <c r="O10" s="53"/>
       <c r="P10" s="86" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2841,7 +2835,7 @@
       <c r="N11" s="75"/>
       <c r="O11" s="54"/>
       <c r="P11" s="86" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2887,7 +2881,7 @@
       <c r="N12" s="75"/>
       <c r="O12" s="54"/>
       <c r="P12" s="86" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2933,7 +2927,7 @@
       <c r="N13" s="75"/>
       <c r="O13" s="54"/>
       <c r="P13" s="86" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2979,7 +2973,7 @@
       <c r="N14" s="75"/>
       <c r="O14" s="54"/>
       <c r="P14" s="86" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -3011,7 +3005,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L15" s="33" t="s">
         <v>28</v>
@@ -3019,7 +3013,7 @@
       <c r="M15" s="34"/>
       <c r="N15" s="75"/>
       <c r="O15" s="62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P15" s="35"/>
     </row>
@@ -3028,13 +3022,13 @@
         <v>55</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>188</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>189</v>
       </c>
       <c r="E16" s="27">
         <v>350</v>
@@ -3054,7 +3048,7 @@
         <v>46.8</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L16" s="33" t="s">
         <v>75</v>
@@ -3069,13 +3063,13 @@
         <v>55</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E17" s="27">
         <v>400</v>
@@ -3095,7 +3089,7 @@
         <v>35</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L17" s="33" t="s">
         <v>75</v>
@@ -3110,13 +3104,13 @@
         <v>55</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E18" s="27">
         <v>400</v>
@@ -3136,7 +3130,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L18" s="33" t="s">
         <v>75</v>
@@ -3146,7 +3140,7 @@
       <c r="O18" s="56"/>
       <c r="P18" s="35"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1">
+    <row r="19" spans="1:16" ht="15" thickBot="1">
       <c r="A19" s="77" t="s">
         <v>23</v>
       </c>
@@ -3177,7 +3171,7 @@
         <v>41</v>
       </c>
       <c r="L19" s="83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M19" s="84"/>
       <c r="N19" s="85"/>
@@ -3623,7 +3617,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L30" s="33" t="s">
         <v>59</v>
@@ -4183,7 +4177,7 @@
         <v>77</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E44" s="27"/>
       <c r="F44" s="30"/>
@@ -4408,10 +4402,10 @@
         <v>16</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L49" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M49" s="40"/>
       <c r="N49" s="40"/>
@@ -4420,7 +4414,7 @@
     </row>
     <row r="50" spans="1:16" s="89" customFormat="1">
       <c r="A50" s="87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B50" s="88" t="s">
         <v>76</v>
@@ -4429,7 +4423,7 @@
         <v>96</v>
       </c>
       <c r="D50" s="89" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F50" s="90"/>
       <c r="G50" s="90"/>
@@ -4444,7 +4438,7 @@
         <v>8</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L50" s="93" t="s">
         <v>59</v>
@@ -4465,7 +4459,7 @@
         <v>96</v>
       </c>
       <c r="D51" s="89" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F51" s="90"/>
       <c r="G51" s="90"/>
@@ -4480,13 +4474,13 @@
         <v>0.74</v>
       </c>
       <c r="K51" s="92" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L51" s="93" t="s">
         <v>59</v>
       </c>
       <c r="M51" s="97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N51" s="94"/>
       <c r="O51" s="95"/>
@@ -4520,11 +4514,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K52" s="32" t="s">
+      <c r="K52" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="L52" s="33" t="s">
         <v>125</v>
-      </c>
-      <c r="L52" s="33" t="s">
-        <v>126</v>
       </c>
       <c r="M52" s="34"/>
       <c r="N52" s="34"/>
@@ -4539,10 +4533,10 @@
         <v>122</v>
       </c>
       <c r="C53" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="38" t="s">
         <v>127</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>128</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="30"/>
@@ -4560,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="K53" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="L53" s="33" t="s">
         <v>129</v>
-      </c>
-      <c r="L53" s="33" t="s">
-        <v>130</v>
       </c>
       <c r="M53" s="40"/>
       <c r="N53" s="40"/>
@@ -4578,10 +4572,10 @@
         <v>122</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E54" s="27"/>
       <c r="F54" s="30"/>
@@ -4599,10 +4593,10 @@
         <v>71</v>
       </c>
       <c r="K54" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="L54" s="33" t="s">
         <v>132</v>
-      </c>
-      <c r="L54" s="33" t="s">
-        <v>133</v>
       </c>
       <c r="M54" s="34"/>
       <c r="N54" s="34"/>
@@ -4617,10 +4611,10 @@
         <v>122</v>
       </c>
       <c r="C55" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="38" t="s">
         <v>134</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>135</v>
       </c>
       <c r="E55" s="27"/>
       <c r="F55" s="30"/>
@@ -4638,10 +4632,10 @@
         <v>23</v>
       </c>
       <c r="K55" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="L55" s="33" t="s">
         <v>136</v>
-      </c>
-      <c r="L55" s="33" t="s">
-        <v>137</v>
       </c>
       <c r="M55" s="40"/>
       <c r="N55" s="40"/>
@@ -4656,10 +4650,10 @@
         <v>122</v>
       </c>
       <c r="C56" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="38" t="s">
         <v>138</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>139</v>
       </c>
       <c r="E56" s="27"/>
       <c r="F56" s="30"/>
@@ -4677,10 +4671,10 @@
         <v>7.5</v>
       </c>
       <c r="K56" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="L56" s="33" t="s">
         <v>140</v>
-      </c>
-      <c r="L56" s="33" t="s">
-        <v>141</v>
       </c>
       <c r="M56" s="34"/>
       <c r="N56" s="34"/>
@@ -4695,10 +4689,10 @@
         <v>122</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E57" s="27">
         <v>310</v>
@@ -4718,10 +4712,10 @@
         <v>28</v>
       </c>
       <c r="K57" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L57" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M57" s="40"/>
       <c r="N57" s="40"/>
@@ -4738,10 +4732,10 @@
         <v>122</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E58" s="27"/>
       <c r="F58" s="30"/>
@@ -4759,30 +4753,30 @@
         <v>78</v>
       </c>
       <c r="K58" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L58" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M58" s="34"/>
       <c r="N58" s="34"/>
       <c r="O58" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P58" s="44"/>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B59" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C59" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="38" t="s">
         <v>147</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>148</v>
       </c>
       <c r="E59" s="27"/>
       <c r="F59" s="30"/>
@@ -4800,10 +4794,10 @@
         <v>20</v>
       </c>
       <c r="K59" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L59" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M59" s="40"/>
       <c r="N59" s="40"/>
@@ -4812,16 +4806,16 @@
     </row>
     <row r="60" spans="1:16" s="4" customFormat="1">
       <c r="A60" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C60" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="D60" s="38" t="s">
         <v>290</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>291</v>
       </c>
       <c r="E60" s="27"/>
       <c r="F60" s="30"/>
@@ -4839,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L60" s="33"/>
       <c r="M60" s="40"/>
@@ -4849,16 +4843,16 @@
     </row>
     <row r="61" spans="1:16" s="4" customFormat="1">
       <c r="A61" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E61" s="27"/>
       <c r="F61" s="30"/>
@@ -4876,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L61" s="33"/>
       <c r="M61" s="40"/>
@@ -4892,10 +4886,10 @@
         <v>122</v>
       </c>
       <c r="C62" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" s="38" t="s">
         <v>150</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>151</v>
       </c>
       <c r="E62" s="27"/>
       <c r="F62" s="30"/>
@@ -4913,10 +4907,10 @@
         <v>3</v>
       </c>
       <c r="K62" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="L62" s="33" t="s">
         <v>152</v>
-      </c>
-      <c r="L62" s="33" t="s">
-        <v>153</v>
       </c>
       <c r="M62" s="34"/>
       <c r="N62" s="34"/>
@@ -4925,16 +4919,16 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B63" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="D63" s="38" t="s">
         <v>155</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>156</v>
       </c>
       <c r="E63" s="27"/>
       <c r="F63" s="30"/>
@@ -4952,10 +4946,10 @@
         <v>85</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L63" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M63" s="40"/>
       <c r="N63" s="40"/>
@@ -4964,16 +4958,16 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B64" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="38" t="s">
-        <v>155</v>
-      </c>
       <c r="D64" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E64" s="27"/>
       <c r="F64" s="30"/>
@@ -4991,10 +4985,10 @@
         <v>0</v>
       </c>
       <c r="K64" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L64" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M64" s="34"/>
       <c r="N64" s="34"/>
@@ -5003,16 +4997,16 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E65" s="27"/>
       <c r="F65" s="30"/>
@@ -5030,10 +5024,10 @@
         <v>0</v>
       </c>
       <c r="K65" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L65" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M65" s="40"/>
       <c r="N65" s="40"/>
@@ -5042,16 +5036,16 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E66" s="27"/>
       <c r="F66" s="30"/>
@@ -5069,10 +5063,10 @@
         <v>0</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L66" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M66" s="34"/>
       <c r="N66" s="34"/>
@@ -5081,16 +5075,16 @@
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E67" s="27"/>
       <c r="F67" s="30"/>
@@ -5108,10 +5102,10 @@
         <v>70</v>
       </c>
       <c r="K67" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="L67" s="33" t="s">
         <v>165</v>
-      </c>
-      <c r="L67" s="33" t="s">
-        <v>166</v>
       </c>
       <c r="M67" s="40"/>
       <c r="N67" s="40"/>
@@ -5123,13 +5117,13 @@
         <v>55</v>
       </c>
       <c r="B68" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="D68" s="38" t="s">
         <v>168</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>169</v>
       </c>
       <c r="E68" s="27">
         <v>1000</v>
@@ -5151,10 +5145,10 @@
         <v>59</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L68" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M68" s="34"/>
       <c r="N68" s="34"/>
@@ -5166,13 +5160,13 @@
         <v>55</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C69" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="38" t="s">
         <v>171</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>172</v>
       </c>
       <c r="E69" s="27"/>
       <c r="F69" s="30"/>
@@ -5190,10 +5184,10 @@
         <v>41</v>
       </c>
       <c r="K69" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="L69" s="33" t="s">
         <v>173</v>
-      </c>
-      <c r="L69" s="33" t="s">
-        <v>174</v>
       </c>
       <c r="M69" s="40"/>
       <c r="N69" s="40"/>
@@ -5205,13 +5199,13 @@
         <v>55</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E70" s="27"/>
       <c r="F70" s="30"/>
@@ -5229,10 +5223,10 @@
         <v>30</v>
       </c>
       <c r="K70" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L70" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M70" s="34"/>
       <c r="N70" s="34"/>
@@ -5244,13 +5238,13 @@
         <v>55</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C71" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="38" t="s">
         <v>177</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>178</v>
       </c>
       <c r="E71" s="27"/>
       <c r="F71" s="30"/>
@@ -5268,10 +5262,10 @@
         <v>20</v>
       </c>
       <c r="K71" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L71" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M71" s="40"/>
       <c r="N71" s="40"/>
@@ -5283,13 +5277,13 @@
         <v>55</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C72" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="38" t="s">
         <v>180</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>181</v>
       </c>
       <c r="E72" s="27">
         <v>200</v>
@@ -5311,10 +5305,10 @@
         <v>48</v>
       </c>
       <c r="K72" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="L72" s="33" t="s">
         <v>182</v>
-      </c>
-      <c r="L72" s="33" t="s">
-        <v>183</v>
       </c>
       <c r="M72" s="34"/>
       <c r="N72" s="34"/>
@@ -5326,13 +5320,13 @@
         <v>55</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C73" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="38" t="s">
         <v>184</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>185</v>
       </c>
       <c r="E73" s="27"/>
       <c r="F73" s="30"/>
@@ -5350,10 +5344,10 @@
         <v>72.5</v>
       </c>
       <c r="K73" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="L73" s="33" t="s">
         <v>186</v>
-      </c>
-      <c r="L73" s="33" t="s">
-        <v>187</v>
       </c>
       <c r="M73" s="40"/>
       <c r="N73" s="40"/>
@@ -5362,16 +5356,16 @@
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="C74" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="D74" s="38" t="s">
         <v>197</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>198</v>
       </c>
       <c r="E74" s="27"/>
       <c r="F74" s="30"/>
@@ -5389,10 +5383,10 @@
         <v>50</v>
       </c>
       <c r="K74" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L74" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M74" s="40"/>
       <c r="N74" s="40"/>
@@ -5401,16 +5395,16 @@
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="B75" s="38" t="s">
-        <v>196</v>
-      </c>
       <c r="C75" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="38" t="s">
         <v>200</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>201</v>
       </c>
       <c r="E75" s="27"/>
       <c r="F75" s="30"/>
@@ -5428,10 +5422,10 @@
         <v>40</v>
       </c>
       <c r="K75" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L75" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M75" s="34"/>
       <c r="N75" s="34"/>
@@ -5440,16 +5434,16 @@
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="B76" s="38" t="s">
-        <v>196</v>
-      </c>
       <c r="C76" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" s="38" t="s">
         <v>202</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>203</v>
       </c>
       <c r="E76" s="27"/>
       <c r="F76" s="30"/>
@@ -5467,10 +5461,10 @@
         <v>70</v>
       </c>
       <c r="K76" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L76" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M76" s="40"/>
       <c r="N76" s="40"/>
@@ -5479,16 +5473,16 @@
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B77" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="B77" s="38" t="s">
-        <v>196</v>
-      </c>
       <c r="C77" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E77" s="27"/>
       <c r="F77" s="30"/>
@@ -5506,10 +5500,10 @@
         <v>20</v>
       </c>
       <c r="K77" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L77" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M77" s="34"/>
       <c r="N77" s="34"/>
@@ -5518,16 +5512,16 @@
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="B78" s="38" t="s">
-        <v>196</v>
-      </c>
       <c r="C78" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E78" s="27"/>
       <c r="F78" s="30"/>
@@ -5545,10 +5539,10 @@
         <v>20</v>
       </c>
       <c r="K78" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L78" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M78" s="40"/>
       <c r="N78" s="40"/>
@@ -5557,16 +5551,16 @@
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="B79" s="38" t="s">
-        <v>207</v>
-      </c>
       <c r="C79" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E79" s="27"/>
       <c r="F79" s="30"/>
@@ -5584,10 +5578,10 @@
         <v>100</v>
       </c>
       <c r="K79" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L79" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M79" s="34"/>
       <c r="N79" s="34"/>
@@ -5596,16 +5590,16 @@
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B80" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="C80" s="38" t="s">
-        <v>209</v>
-      </c>
       <c r="D80" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E80" s="27"/>
       <c r="F80" s="30"/>
@@ -5623,10 +5617,10 @@
         <v>100</v>
       </c>
       <c r="K80" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L80" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M80" s="40"/>
       <c r="N80" s="40"/>
@@ -5635,16 +5629,16 @@
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E81" s="27"/>
       <c r="F81" s="30"/>
@@ -5662,10 +5656,10 @@
         <v>25</v>
       </c>
       <c r="K81" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L81" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M81" s="34"/>
       <c r="N81" s="34"/>
@@ -5677,13 +5671,13 @@
         <v>46</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C82" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="38" t="s">
         <v>210</v>
-      </c>
-      <c r="D82" s="38" t="s">
-        <v>211</v>
       </c>
       <c r="E82" s="27">
         <v>350</v>
@@ -5703,10 +5697,10 @@
         <v>10</v>
       </c>
       <c r="K82" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L82" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M82" s="40"/>
       <c r="N82" s="40"/>
@@ -5715,7 +5709,7 @@
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B83" s="38" t="s">
         <v>24</v>
@@ -5724,7 +5718,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E83" s="27">
         <v>400</v>
@@ -5744,10 +5738,10 @@
         <v>24</v>
       </c>
       <c r="K83" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L83" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M83" s="34"/>
       <c r="N83" s="34"/>
@@ -5756,7 +5750,7 @@
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B84" s="38" t="s">
         <v>76</v>
@@ -5765,7 +5759,7 @@
         <v>81</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E84" s="27"/>
       <c r="F84" s="30"/>
@@ -5784,7 +5778,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="K84" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L84" s="33" t="s">
         <v>59</v>
@@ -5800,7 +5794,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B85" s="38" t="s">
         <v>76</v>
@@ -5809,7 +5803,7 @@
         <v>81</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E85" s="27"/>
       <c r="F85" s="30"/>
@@ -5828,7 +5822,7 @@
         <v>4.51</v>
       </c>
       <c r="K85" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L85" s="33" t="s">
         <v>59</v>
@@ -5844,7 +5838,7 @@
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B86" s="38" t="s">
         <v>76</v>
@@ -5853,7 +5847,7 @@
         <v>77</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E86" s="27"/>
       <c r="F86" s="30"/>
@@ -5872,7 +5866,7 @@
         <v>0.49</v>
       </c>
       <c r="K86" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L86" s="33" t="s">
         <v>59</v>
@@ -5888,7 +5882,7 @@
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B87" s="38" t="s">
         <v>76</v>
@@ -5916,7 +5910,7 @@
         <v>0.99</v>
       </c>
       <c r="K87" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L87" s="33" t="s">
         <v>59</v>
@@ -5932,7 +5926,7 @@
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B88" s="38" t="s">
         <v>76</v>
@@ -5941,7 +5935,7 @@
         <v>72</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E88" s="27"/>
       <c r="F88" s="30"/>
@@ -5960,10 +5954,10 @@
         <v>5.01</v>
       </c>
       <c r="K88" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="L88" s="33" t="s">
         <v>224</v>
-      </c>
-      <c r="L88" s="33" t="s">
-        <v>225</v>
       </c>
       <c r="M88" s="40"/>
       <c r="N88" s="40">
@@ -5976,7 +5970,7 @@
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B89" s="38" t="s">
         <v>76</v>
@@ -5985,7 +5979,7 @@
         <v>81</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E89" s="27"/>
       <c r="F89" s="30"/>
@@ -6004,7 +5998,7 @@
         <v>13.5</v>
       </c>
       <c r="K89" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L89" s="33" t="s">
         <v>59</v>
@@ -6016,16 +6010,16 @@
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B90" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C90" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D90" s="38" t="s">
         <v>228</v>
-      </c>
-      <c r="D90" s="38" t="s">
-        <v>229</v>
       </c>
       <c r="E90" s="27"/>
       <c r="F90" s="30"/>
@@ -6044,10 +6038,10 @@
         <v>3.62</v>
       </c>
       <c r="K90" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="L90" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="L90" s="33" t="s">
-        <v>231</v>
       </c>
       <c r="M90" s="40"/>
       <c r="N90" s="40"/>
@@ -6056,16 +6050,16 @@
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B91" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C91" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="D91" s="38" t="s">
         <v>232</v>
-      </c>
-      <c r="D91" s="38" t="s">
-        <v>233</v>
       </c>
       <c r="E91" s="27"/>
       <c r="F91" s="30"/>
@@ -6083,10 +6077,10 @@
         <v>3</v>
       </c>
       <c r="K91" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="L91" s="33" t="s">
         <v>234</v>
-      </c>
-      <c r="L91" s="33" t="s">
-        <v>235</v>
       </c>
       <c r="M91" s="34"/>
       <c r="N91" s="34"/>
@@ -6095,16 +6089,16 @@
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B92" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E92" s="27"/>
       <c r="F92" s="30"/>
@@ -6123,10 +6117,10 @@
         <v>4.7799999999999994</v>
       </c>
       <c r="K92" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="L92" s="33" t="s">
         <v>237</v>
-      </c>
-      <c r="L92" s="33" t="s">
-        <v>238</v>
       </c>
       <c r="M92" s="40"/>
       <c r="N92" s="40"/>
@@ -6137,7 +6131,7 @@
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B93" s="38" t="s">
         <v>76</v>
@@ -6146,7 +6140,7 @@
         <v>81</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="30"/>
@@ -6164,7 +6158,7 @@
         <v>2</v>
       </c>
       <c r="K93" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L93" s="33" t="s">
         <v>59</v>
@@ -6180,7 +6174,7 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B94" s="38" t="s">
         <v>76</v>
@@ -6189,7 +6183,7 @@
         <v>81</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E94" s="27"/>
       <c r="F94" s="30"/>
@@ -6208,7 +6202,7 @@
         <v>2.5</v>
       </c>
       <c r="K94" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L94" s="33" t="s">
         <v>59</v>
@@ -6224,16 +6218,16 @@
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B95" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C95" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="D95" s="38" t="s">
         <v>243</v>
-      </c>
-      <c r="D95" s="38" t="s">
-        <v>244</v>
       </c>
       <c r="E95" s="27"/>
       <c r="F95" s="30"/>
@@ -6252,10 +6246,10 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="K95" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="L95" s="33" t="s">
         <v>245</v>
-      </c>
-      <c r="L95" s="33" t="s">
-        <v>246</v>
       </c>
       <c r="M95" s="34"/>
       <c r="N95" s="34"/>
@@ -6264,16 +6258,16 @@
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B96" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C96" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D96" s="38" t="s">
         <v>247</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>248</v>
       </c>
       <c r="E96" s="27"/>
       <c r="F96" s="30"/>
@@ -6292,10 +6286,10 @@
         <v>1.72</v>
       </c>
       <c r="K96" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L96" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M96" s="40"/>
       <c r="N96" s="40"/>
@@ -6304,7 +6298,7 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B97" s="38" t="s">
         <v>76</v>
@@ -6313,7 +6307,7 @@
         <v>72</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E97" s="27"/>
       <c r="F97" s="30"/>
@@ -6332,10 +6326,10 @@
         <v>2.44</v>
       </c>
       <c r="K97" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L97" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M97" s="34"/>
       <c r="N97" s="34"/>
@@ -6346,16 +6340,16 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B98" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C98" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D98" s="38" t="s">
         <v>252</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>253</v>
       </c>
       <c r="E98" s="27"/>
       <c r="F98" s="30"/>
@@ -6374,7 +6368,7 @@
         <v>2.38</v>
       </c>
       <c r="K98" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L98" s="33" t="s">
         <v>59</v>
@@ -6388,16 +6382,16 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B99" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E99" s="27"/>
       <c r="F99" s="30"/>
@@ -6416,7 +6410,7 @@
         <v>3.27</v>
       </c>
       <c r="K99" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L99" s="33" t="s">
         <v>59</v>
@@ -6430,16 +6424,16 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B100" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E100" s="27"/>
       <c r="F100" s="30"/>
@@ -6458,7 +6452,7 @@
         <v>2.57</v>
       </c>
       <c r="K100" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L100" s="33" t="s">
         <v>59</v>
@@ -6472,7 +6466,7 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B101" s="38" t="s">
         <v>76</v>
@@ -6481,7 +6475,7 @@
         <v>81</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E101" s="27"/>
       <c r="F101" s="30"/>
@@ -6500,7 +6494,7 @@
         <v>2.75</v>
       </c>
       <c r="K101" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L101" s="33" t="s">
         <v>59</v>
@@ -6516,7 +6510,7 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B102" s="38" t="s">
         <v>76</v>
@@ -6544,7 +6538,7 @@
         <v>1.75</v>
       </c>
       <c r="K102" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L102" s="33" t="s">
         <v>59</v>
@@ -6560,16 +6554,16 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B103" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E103" s="27"/>
       <c r="F103" s="30"/>
@@ -6587,10 +6581,10 @@
         <v>12</v>
       </c>
       <c r="K103" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="L103" s="33" t="s">
         <v>262</v>
-      </c>
-      <c r="L103" s="33" t="s">
-        <v>263</v>
       </c>
       <c r="M103" s="34"/>
       <c r="N103" s="34"/>
@@ -6601,16 +6595,16 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B104" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D104" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E104" s="27"/>
       <c r="F104" s="30"/>
@@ -6628,10 +6622,10 @@
         <v>12</v>
       </c>
       <c r="K104" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="L104" s="33" t="s">
         <v>265</v>
-      </c>
-      <c r="L104" s="33" t="s">
-        <v>266</v>
       </c>
       <c r="M104" s="40"/>
       <c r="N104" s="40"/>
@@ -6640,16 +6634,16 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B105" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E105" s="27"/>
       <c r="F105" s="30"/>
@@ -6668,10 +6662,10 @@
         <v>3.96</v>
       </c>
       <c r="K105" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="L105" s="33" t="s">
         <v>268</v>
-      </c>
-      <c r="L105" s="33" t="s">
-        <v>269</v>
       </c>
       <c r="M105" s="40"/>
       <c r="N105" s="40"/>
@@ -6682,7 +6676,7 @@
     </row>
     <row r="106" spans="1:26" s="4" customFormat="1">
       <c r="A106" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B106" s="38" t="s">
         <v>122</v>
@@ -6691,7 +6685,7 @@
         <v>68</v>
       </c>
       <c r="D106" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E106" s="27"/>
       <c r="F106" s="30"/>
@@ -6709,7 +6703,7 @@
         <v>4.5</v>
       </c>
       <c r="K106" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L106" s="33" t="s">
         <v>71</v>
@@ -6721,16 +6715,16 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B107" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E107" s="27"/>
       <c r="F107" s="30"/>
@@ -6748,30 +6742,30 @@
         <v>0</v>
       </c>
       <c r="K107" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L107" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M107" s="34"/>
       <c r="N107" s="34"/>
       <c r="O107" s="59"/>
       <c r="P107" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B108" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D108" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E108" s="27"/>
       <c r="F108" s="30"/>
@@ -6789,21 +6783,21 @@
         <v>4</v>
       </c>
       <c r="K108" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L108" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M108" s="34"/>
       <c r="N108" s="34"/>
       <c r="O108" s="59"/>
       <c r="P108" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B109" s="38" t="s">
         <v>76</v>
@@ -6812,7 +6806,7 @@
         <v>81</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E109" s="27"/>
       <c r="F109" s="30"/>
@@ -6831,7 +6825,7 @@
         <v>0.87</v>
       </c>
       <c r="K109" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L109" s="33" t="s">
         <v>59</v>
@@ -6840,21 +6834,21 @@
       <c r="N109" s="34"/>
       <c r="O109" s="60"/>
       <c r="P109" s="47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:26" s="4" customFormat="1">
       <c r="A110" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B110" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="C110" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="C110" s="38" t="s">
+      <c r="D110" s="38" t="s">
         <v>300</v>
-      </c>
-      <c r="D110" s="38" t="s">
-        <v>301</v>
       </c>
       <c r="E110" s="27"/>
       <c r="F110" s="30"/>
@@ -6872,17 +6866,17 @@
         <v>21.5</v>
       </c>
       <c r="K110" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="L110" s="33" t="s">
         <v>302</v>
-      </c>
-      <c r="L110" s="33" t="s">
-        <v>303</v>
       </c>
       <c r="M110" s="34"/>
       <c r="N110" s="34"/>
       <c r="O110" s="60"/>
       <c r="P110" s="47"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" thickBot="1">
+    <row r="111" spans="1:26" ht="15" thickBot="1">
       <c r="A111" s="48"/>
       <c r="B111" s="49"/>
       <c r="C111" s="49"/>
@@ -6900,13 +6894,13 @@
       <c r="O111" s="61"/>
       <c r="P111" s="35"/>
     </row>
-    <row r="112" spans="1:26" s="14" customFormat="1" ht="16.5" thickBot="1">
+    <row r="112" spans="1:26" s="14" customFormat="1" ht="16.2" thickBot="1">
       <c r="A112" s="15"/>
       <c r="B112" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>6</v>
@@ -6942,100 +6936,100 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K15" r:id="rId6" display="Color: 10pcs 2028" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="K25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K30" r:id="rId18" display="1x Size: 20-m3 50pcs" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K38" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K39" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K40" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K41" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K53" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K54" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="K56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K57" r:id="rId41" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O58" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="K59" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K62" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K63" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K64" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K65" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K71" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="K72" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K73" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="K16" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="K17" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K18" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K82" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K83" r:id="rId60" display="Color: Buffer 14inch 35cm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="K84" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="K85" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K86" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="K87" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="K88" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="K89" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="K90" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K91" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="K92" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K93" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K94" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="K95" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K96" r:id="rId73" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="K97" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="K98" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="K99" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K100" r:id="rId77" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="K101" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="K102" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="K103" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="K104" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="K105" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K107" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="K108" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="K109" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="K49" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="K106" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="O15" r:id="rId88" display="Color: 2040-8 hole" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="K60" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="K61" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="K110" r:id="rId91" xr:uid="{0F66774E-BA3F-46BF-9D25-049D76EAEA31}"/>
-    <hyperlink ref="K50" r:id="rId92" xr:uid="{2B0897CC-38A4-4451-82D7-546FD860F6EE}"/>
-    <hyperlink ref="K51" r:id="rId93" display="M3 ss washer" xr:uid="{F09A433A-365C-4A65-A20C-0C0EA79C5AAF}"/>
-    <hyperlink ref="K58" r:id="rId94" display="2x 164-0575" xr:uid="{775961E3-20A6-4A91-B3D7-A23FA1B68EE6}"/>
+    <hyperlink ref="K10" r:id="rId1"/>
+    <hyperlink ref="K11" r:id="rId2"/>
+    <hyperlink ref="K12" r:id="rId3"/>
+    <hyperlink ref="K13" r:id="rId4"/>
+    <hyperlink ref="K14" r:id="rId5"/>
+    <hyperlink ref="K15" r:id="rId6" display="Color: 10pcs 2028"/>
+    <hyperlink ref="K19" r:id="rId7"/>
+    <hyperlink ref="K20" r:id="rId8"/>
+    <hyperlink ref="K21" r:id="rId9"/>
+    <hyperlink ref="K22" r:id="rId10"/>
+    <hyperlink ref="K23" r:id="rId11"/>
+    <hyperlink ref="K24" r:id="rId12"/>
+    <hyperlink ref="K25" r:id="rId13"/>
+    <hyperlink ref="K26" r:id="rId14"/>
+    <hyperlink ref="K27" r:id="rId15"/>
+    <hyperlink ref="K28" r:id="rId16"/>
+    <hyperlink ref="K29" r:id="rId17"/>
+    <hyperlink ref="K30" r:id="rId18" display="1x Size: 20-m3 50pcs"/>
+    <hyperlink ref="K31" r:id="rId19"/>
+    <hyperlink ref="K32" r:id="rId20"/>
+    <hyperlink ref="K33" r:id="rId21"/>
+    <hyperlink ref="K34" r:id="rId22"/>
+    <hyperlink ref="K35" r:id="rId23"/>
+    <hyperlink ref="K36" r:id="rId24"/>
+    <hyperlink ref="K37" r:id="rId25"/>
+    <hyperlink ref="K38" r:id="rId26"/>
+    <hyperlink ref="K39" r:id="rId27"/>
+    <hyperlink ref="K40" r:id="rId28"/>
+    <hyperlink ref="K41" r:id="rId29"/>
+    <hyperlink ref="K42" r:id="rId30"/>
+    <hyperlink ref="K43" r:id="rId31"/>
+    <hyperlink ref="K44" r:id="rId32"/>
+    <hyperlink ref="K45" r:id="rId33"/>
+    <hyperlink ref="K46" r:id="rId34"/>
+    <hyperlink ref="K47" r:id="rId35"/>
+    <hyperlink ref="K48" r:id="rId36"/>
+    <hyperlink ref="K53" r:id="rId37"/>
+    <hyperlink ref="K54" r:id="rId38"/>
+    <hyperlink ref="K55" r:id="rId39"/>
+    <hyperlink ref="K56" r:id="rId40"/>
+    <hyperlink ref="K57" r:id="rId41" display="1x 310mm 220V 750W"/>
+    <hyperlink ref="O58" r:id="rId42"/>
+    <hyperlink ref="K59" r:id="rId43"/>
+    <hyperlink ref="K62" r:id="rId44"/>
+    <hyperlink ref="K63" r:id="rId45"/>
+    <hyperlink ref="K64" r:id="rId46"/>
+    <hyperlink ref="K65" r:id="rId47"/>
+    <hyperlink ref="K66" r:id="rId48"/>
+    <hyperlink ref="K67" r:id="rId49"/>
+    <hyperlink ref="K68" r:id="rId50"/>
+    <hyperlink ref="K69" r:id="rId51"/>
+    <hyperlink ref="K70" r:id="rId52"/>
+    <hyperlink ref="K71" r:id="rId53"/>
+    <hyperlink ref="K72" r:id="rId54"/>
+    <hyperlink ref="K73" r:id="rId55"/>
+    <hyperlink ref="K16" r:id="rId56"/>
+    <hyperlink ref="K17" r:id="rId57"/>
+    <hyperlink ref="K18" r:id="rId58"/>
+    <hyperlink ref="K82" r:id="rId59"/>
+    <hyperlink ref="K83" r:id="rId60" display="Color: Buffer 14inch 35cm"/>
+    <hyperlink ref="K84" r:id="rId61"/>
+    <hyperlink ref="K85" r:id="rId62"/>
+    <hyperlink ref="K86" r:id="rId63"/>
+    <hyperlink ref="K87" r:id="rId64"/>
+    <hyperlink ref="K88" r:id="rId65"/>
+    <hyperlink ref="K89" r:id="rId66"/>
+    <hyperlink ref="K90" r:id="rId67"/>
+    <hyperlink ref="K91" r:id="rId68"/>
+    <hyperlink ref="K92" r:id="rId69"/>
+    <hyperlink ref="K93" r:id="rId70"/>
+    <hyperlink ref="K94" r:id="rId71"/>
+    <hyperlink ref="K95" r:id="rId72"/>
+    <hyperlink ref="K96" r:id="rId73" display="1x Length 15mm - Wire 0.7 - OD 7"/>
+    <hyperlink ref="K97" r:id="rId74"/>
+    <hyperlink ref="K98" r:id="rId75"/>
+    <hyperlink ref="K99" r:id="rId76"/>
+    <hyperlink ref="K100" r:id="rId77" display="1x Size: M3 - 30mm"/>
+    <hyperlink ref="K101" r:id="rId78"/>
+    <hyperlink ref="K102" r:id="rId79"/>
+    <hyperlink ref="K103" r:id="rId80"/>
+    <hyperlink ref="K104" r:id="rId81"/>
+    <hyperlink ref="K105" r:id="rId82"/>
+    <hyperlink ref="K107" r:id="rId83"/>
+    <hyperlink ref="K108" r:id="rId84"/>
+    <hyperlink ref="K109" r:id="rId85"/>
+    <hyperlink ref="K49" r:id="rId86"/>
+    <hyperlink ref="K106" r:id="rId87"/>
+    <hyperlink ref="O15" r:id="rId88" display="Color: 2040-8 hole"/>
+    <hyperlink ref="K60" r:id="rId89"/>
+    <hyperlink ref="K61" r:id="rId90"/>
+    <hyperlink ref="K110" r:id="rId91"/>
+    <hyperlink ref="K50" r:id="rId92"/>
+    <hyperlink ref="K51" r:id="rId93" display="M3 ss washer"/>
+    <hyperlink ref="K58" r:id="rId94" display="2x 164-0575"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId95"/>
